--- a/table blender.xlsx
+++ b/table blender.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akudlacek\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akudlacek\Downloads\cummins_tuning_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11480642-2AB0-465A-85E6-74589DF34513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF57BF83-B7D8-460A-871C-1BC17AA75E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6206C45-3FE7-4868-8A95-239C7ED022B7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Table 1</t>
   </si>
@@ -70,13 +70,19 @@
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t>Distance from line</t>
+  </si>
+  <si>
+    <t>Blended</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -109,12 +115,62 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -515,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7647053-835B-421E-A05A-5E37237959C0}">
-  <dimension ref="A1:U69"/>
+  <dimension ref="A1:U115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97:Q115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4231,8 +4287,1911 @@
         <v>-1411.7647058823532</v>
       </c>
     </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>20</v>
+      </c>
+      <c r="E73">
+        <v>30</v>
+      </c>
+      <c r="F73">
+        <v>45</v>
+      </c>
+      <c r="G73">
+        <v>53.1</v>
+      </c>
+      <c r="H73">
+        <v>59.2</v>
+      </c>
+      <c r="I73">
+        <v>65.3</v>
+      </c>
+      <c r="J73">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="K73">
+        <v>77.5</v>
+      </c>
+      <c r="L73">
+        <v>86.7</v>
+      </c>
+      <c r="M73">
+        <v>92.7</v>
+      </c>
+      <c r="N73">
+        <v>95.9</v>
+      </c>
+      <c r="O73">
+        <v>98.9</v>
+      </c>
+      <c r="P73">
+        <v>105</v>
+      </c>
+      <c r="Q73">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>620</v>
+      </c>
+      <c r="B74" s="1">
+        <f>ABS($U$53*B$73-$A74-$U$53*$T$50+$U$50)/SQRT($U$53^2+1)</f>
+        <v>116.79863203522085</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" ref="C74:Q89" si="21">ABS($U$53*C$73-$A74-$U$53*$T$50+$U$50)/SQRT($U$53^2+1)</f>
+        <v>106.80088908335091</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="21"/>
+        <v>96.803146131480929</v>
+      </c>
+      <c r="E74" s="1">
+        <f t="shared" si="21"/>
+        <v>86.805403179610963</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="21"/>
+        <v>71.808788751806006</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="21"/>
+        <v>63.710616960791349</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" si="21"/>
+        <v>57.611993760150668</v>
+      </c>
+      <c r="I74" s="1">
+        <f t="shared" si="21"/>
+        <v>51.513370559509994</v>
+      </c>
+      <c r="J74" s="1">
+        <f t="shared" si="21"/>
+        <v>45.414747358869306</v>
+      </c>
+      <c r="K74" s="1">
+        <f t="shared" si="21"/>
+        <v>39.316124158228618</v>
+      </c>
+      <c r="L74" s="1">
+        <f t="shared" si="21"/>
+        <v>30.11820064250827</v>
+      </c>
+      <c r="M74" s="1">
+        <f t="shared" si="21"/>
+        <v>24.119554871386281</v>
+      </c>
+      <c r="N74" s="1">
+        <f t="shared" si="21"/>
+        <v>20.920277126787884</v>
+      </c>
+      <c r="O74" s="1">
+        <f t="shared" si="21"/>
+        <v>17.920954241226898</v>
+      </c>
+      <c r="P74" s="1">
+        <f t="shared" si="21"/>
+        <v>11.822331040586223</v>
+      </c>
+      <c r="Q74" s="1">
+        <f t="shared" si="21"/>
+        <v>43.165255194698574</v>
+      </c>
+      <c r="R74" s="1"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>650</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" ref="B75:Q92" si="22">ABS($U$53*B$73-$A75-$U$53*$T$50+$U$50)/SQRT($U$53^2+1)</f>
+        <v>116.16127592203914</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="21"/>
+        <v>106.16353297016919</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="21"/>
+        <v>96.165790018299219</v>
+      </c>
+      <c r="E75" s="1">
+        <f t="shared" si="21"/>
+        <v>86.168047066429253</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="21"/>
+        <v>71.171432638624296</v>
+      </c>
+      <c r="G75" s="1">
+        <f t="shared" si="21"/>
+        <v>63.073260847609639</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" si="21"/>
+        <v>56.974637646968958</v>
+      </c>
+      <c r="I75" s="1">
+        <f t="shared" si="21"/>
+        <v>50.876014446328284</v>
+      </c>
+      <c r="J75" s="1">
+        <f t="shared" si="21"/>
+        <v>44.777391245687596</v>
+      </c>
+      <c r="K75" s="1">
+        <f t="shared" si="21"/>
+        <v>38.678768045046908</v>
+      </c>
+      <c r="L75" s="1">
+        <f t="shared" si="21"/>
+        <v>29.480844529326561</v>
+      </c>
+      <c r="M75" s="1">
+        <f t="shared" si="21"/>
+        <v>23.482198758204571</v>
+      </c>
+      <c r="N75" s="1">
+        <f t="shared" si="21"/>
+        <v>20.282921013606174</v>
+      </c>
+      <c r="O75" s="1">
+        <f t="shared" si="21"/>
+        <v>17.283598128045188</v>
+      </c>
+      <c r="P75" s="1">
+        <f t="shared" si="21"/>
+        <v>11.184974927404513</v>
+      </c>
+      <c r="Q75" s="1">
+        <f t="shared" si="21"/>
+        <v>43.802611307880284</v>
+      </c>
+      <c r="R75" s="1"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>800</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" si="22"/>
+        <v>112.97449535613059</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="21"/>
+        <v>102.97675240426064</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="21"/>
+        <v>92.97900945239067</v>
+      </c>
+      <c r="E76" s="1">
+        <f t="shared" si="21"/>
+        <v>82.981266500520704</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="21"/>
+        <v>67.984652072715747</v>
+      </c>
+      <c r="G76" s="1">
+        <f t="shared" si="21"/>
+        <v>59.886480281701083</v>
+      </c>
+      <c r="H76" s="1">
+        <f t="shared" si="21"/>
+        <v>53.787857081060409</v>
+      </c>
+      <c r="I76" s="1">
+        <f t="shared" si="21"/>
+        <v>47.689233880419728</v>
+      </c>
+      <c r="J76" s="1">
+        <f t="shared" si="21"/>
+        <v>41.590610679779054</v>
+      </c>
+      <c r="K76" s="1">
+        <f t="shared" si="21"/>
+        <v>35.491987479138359</v>
+      </c>
+      <c r="L76" s="1">
+        <f t="shared" si="21"/>
+        <v>26.294063963418012</v>
+      </c>
+      <c r="M76" s="1">
+        <f t="shared" si="21"/>
+        <v>20.295418192296019</v>
+      </c>
+      <c r="N76" s="1">
+        <f t="shared" si="21"/>
+        <v>17.096140447697625</v>
+      </c>
+      <c r="O76" s="1">
+        <f t="shared" si="21"/>
+        <v>14.096817562136637</v>
+      </c>
+      <c r="P76" s="1">
+        <f t="shared" si="21"/>
+        <v>7.9981943614959619</v>
+      </c>
+      <c r="Q76" s="1">
+        <f t="shared" si="21"/>
+        <v>46.989391873788833</v>
+      </c>
+      <c r="R76" s="1"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1000</v>
+      </c>
+      <c r="B77" s="1">
+        <f t="shared" si="22"/>
+        <v>108.72545460158587</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="21"/>
+        <v>98.727711649715914</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="21"/>
+        <v>88.729968697845933</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" si="21"/>
+        <v>78.732225745975967</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="21"/>
+        <v>63.735611318171017</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" si="21"/>
+        <v>55.637439527156353</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" si="21"/>
+        <v>49.538816326515672</v>
+      </c>
+      <c r="I77" s="1">
+        <f t="shared" si="21"/>
+        <v>43.440193125874998</v>
+      </c>
+      <c r="J77" s="1">
+        <f t="shared" si="21"/>
+        <v>37.341569925234317</v>
+      </c>
+      <c r="K77" s="1">
+        <f t="shared" si="21"/>
+        <v>31.242946724593626</v>
+      </c>
+      <c r="L77" s="1">
+        <f t="shared" si="21"/>
+        <v>22.045023208873275</v>
+      </c>
+      <c r="M77" s="1">
+        <f t="shared" si="21"/>
+        <v>16.046377437751286</v>
+      </c>
+      <c r="N77" s="1">
+        <f t="shared" si="21"/>
+        <v>12.84709969315289</v>
+      </c>
+      <c r="O77" s="1">
+        <f t="shared" si="21"/>
+        <v>9.8477768075919041</v>
+      </c>
+      <c r="P77" s="1">
+        <f t="shared" si="21"/>
+        <v>3.7491536069512272</v>
+      </c>
+      <c r="Q77" s="1">
+        <f t="shared" si="21"/>
+        <v>51.23843262833357</v>
+      </c>
+      <c r="R77" s="1"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1200</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" si="22"/>
+        <v>104.47641384704113</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="21"/>
+        <v>94.478670895171177</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="21"/>
+        <v>84.480927943301197</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" si="21"/>
+        <v>74.48318499143123</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="21"/>
+        <v>59.48657056362628</v>
+      </c>
+      <c r="G78" s="1">
+        <f t="shared" si="21"/>
+        <v>51.388398772611616</v>
+      </c>
+      <c r="H78" s="1">
+        <f t="shared" si="21"/>
+        <v>45.289775571970942</v>
+      </c>
+      <c r="I78" s="1">
+        <f t="shared" si="21"/>
+        <v>39.191152371330261</v>
+      </c>
+      <c r="J78" s="1">
+        <f t="shared" si="21"/>
+        <v>33.092529170689588</v>
+      </c>
+      <c r="K78" s="1">
+        <f t="shared" si="21"/>
+        <v>26.993905970048889</v>
+      </c>
+      <c r="L78" s="1">
+        <f t="shared" si="21"/>
+        <v>17.795982454328541</v>
+      </c>
+      <c r="M78" s="1">
+        <f t="shared" si="21"/>
+        <v>11.79733668320655</v>
+      </c>
+      <c r="N78" s="1">
+        <f t="shared" si="21"/>
+        <v>8.5980589386081547</v>
+      </c>
+      <c r="O78" s="1">
+        <f t="shared" si="21"/>
+        <v>5.598736053047169</v>
+      </c>
+      <c r="P78" s="1">
+        <f t="shared" si="21"/>
+        <v>0.49988714759350728</v>
+      </c>
+      <c r="Q78" s="1">
+        <f t="shared" si="21"/>
+        <v>55.487473382878299</v>
+      </c>
+      <c r="R78" s="1"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1400</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" si="22"/>
+        <v>100.22737309249639</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="21"/>
+        <v>90.22963014062644</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="21"/>
+        <v>80.231887188756474</v>
+      </c>
+      <c r="E79" s="1">
+        <f t="shared" si="21"/>
+        <v>70.234144236886493</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="21"/>
+        <v>55.237529809081551</v>
+      </c>
+      <c r="G79" s="1">
+        <f t="shared" si="21"/>
+        <v>47.139358018066879</v>
+      </c>
+      <c r="H79" s="1">
+        <f t="shared" si="21"/>
+        <v>41.040734817426205</v>
+      </c>
+      <c r="I79" s="1">
+        <f t="shared" si="21"/>
+        <v>34.942111616785525</v>
+      </c>
+      <c r="J79" s="1">
+        <f t="shared" si="21"/>
+        <v>28.843488416144851</v>
+      </c>
+      <c r="K79" s="1">
+        <f t="shared" si="21"/>
+        <v>22.744865215504156</v>
+      </c>
+      <c r="L79" s="1">
+        <f t="shared" si="21"/>
+        <v>13.546941699783808</v>
+      </c>
+      <c r="M79" s="1">
+        <f t="shared" si="21"/>
+        <v>7.5482959286618163</v>
+      </c>
+      <c r="N79" s="1">
+        <f t="shared" si="21"/>
+        <v>4.3490181840634206</v>
+      </c>
+      <c r="O79" s="1">
+        <f t="shared" si="21"/>
+        <v>1.3496952985024349</v>
+      </c>
+      <c r="P79" s="1">
+        <f t="shared" si="21"/>
+        <v>4.7489279021382416</v>
+      </c>
+      <c r="Q79" s="1">
+        <f t="shared" si="21"/>
+        <v>59.736514137423036</v>
+      </c>
+      <c r="R79" s="1"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1550</v>
+      </c>
+      <c r="B80" s="1">
+        <f t="shared" si="22"/>
+        <v>97.040592526587844</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="21"/>
+        <v>87.042849574717891</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="21"/>
+        <v>77.045106622847911</v>
+      </c>
+      <c r="E80" s="1">
+        <f t="shared" si="21"/>
+        <v>67.047363670977944</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="21"/>
+        <v>52.050749243172994</v>
+      </c>
+      <c r="G80" s="1">
+        <f t="shared" si="21"/>
+        <v>43.95257745215833</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" si="21"/>
+        <v>37.853954251517656</v>
+      </c>
+      <c r="I80" s="1">
+        <f t="shared" si="21"/>
+        <v>31.755331050876975</v>
+      </c>
+      <c r="J80" s="1">
+        <f t="shared" si="21"/>
+        <v>25.656707850236302</v>
+      </c>
+      <c r="K80" s="1">
+        <f t="shared" si="21"/>
+        <v>19.558084649595603</v>
+      </c>
+      <c r="L80" s="1">
+        <f t="shared" si="21"/>
+        <v>10.360161133875257</v>
+      </c>
+      <c r="M80" s="1">
+        <f t="shared" si="21"/>
+        <v>4.3615153627532655</v>
+      </c>
+      <c r="N80" s="1">
+        <f t="shared" si="21"/>
+        <v>1.1622376181548697</v>
+      </c>
+      <c r="O80" s="1">
+        <f t="shared" si="21"/>
+        <v>1.837085267406116</v>
+      </c>
+      <c r="P80" s="1">
+        <f t="shared" si="21"/>
+        <v>7.9357084680467924</v>
+      </c>
+      <c r="Q80" s="1">
+        <f t="shared" si="21"/>
+        <v>62.923294703331585</v>
+      </c>
+      <c r="R80" s="1"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1700</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" si="22"/>
+        <v>93.853811960679295</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="21"/>
+        <v>83.856069008809328</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="21"/>
+        <v>73.858326056939362</v>
+      </c>
+      <c r="E81" s="1">
+        <f t="shared" si="21"/>
+        <v>63.860583105069395</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="21"/>
+        <v>48.863968677264445</v>
+      </c>
+      <c r="G81" s="1">
+        <f t="shared" si="21"/>
+        <v>40.765796886249781</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" si="21"/>
+        <v>34.6671736856091</v>
+      </c>
+      <c r="I81" s="1">
+        <f t="shared" si="21"/>
+        <v>28.568550484968426</v>
+      </c>
+      <c r="J81" s="1">
+        <f t="shared" si="21"/>
+        <v>22.469927284327749</v>
+      </c>
+      <c r="K81" s="1">
+        <f t="shared" si="21"/>
+        <v>16.371304083687054</v>
+      </c>
+      <c r="L81" s="1">
+        <f t="shared" si="21"/>
+        <v>7.1733805679667055</v>
+      </c>
+      <c r="M81" s="1">
+        <f t="shared" si="21"/>
+        <v>1.174734796844715</v>
+      </c>
+      <c r="N81" s="1">
+        <f t="shared" si="21"/>
+        <v>2.0245429477536812</v>
+      </c>
+      <c r="O81" s="1">
+        <f t="shared" si="21"/>
+        <v>5.0238658333146669</v>
+      </c>
+      <c r="P81" s="1">
+        <f t="shared" si="21"/>
+        <v>11.122489033955343</v>
+      </c>
+      <c r="Q81" s="1">
+        <f t="shared" si="21"/>
+        <v>66.110075269240141</v>
+      </c>
+      <c r="R81" s="1"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1800</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" si="22"/>
+        <v>91.729291583406919</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="21"/>
+        <v>81.731548631536967</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="21"/>
+        <v>71.733805679667</v>
+      </c>
+      <c r="E82" s="1">
+        <f t="shared" si="21"/>
+        <v>61.736062727797027</v>
+      </c>
+      <c r="F82" s="1">
+        <f t="shared" si="21"/>
+        <v>46.739448299992077</v>
+      </c>
+      <c r="G82" s="1">
+        <f t="shared" si="21"/>
+        <v>38.641276508977413</v>
+      </c>
+      <c r="H82" s="1">
+        <f t="shared" si="21"/>
+        <v>32.542653308336739</v>
+      </c>
+      <c r="I82" s="1">
+        <f t="shared" si="21"/>
+        <v>26.444030107696058</v>
+      </c>
+      <c r="J82" s="1">
+        <f t="shared" si="21"/>
+        <v>20.345406907055384</v>
+      </c>
+      <c r="K82" s="1">
+        <f t="shared" si="21"/>
+        <v>14.246783706414687</v>
+      </c>
+      <c r="L82" s="1">
+        <f t="shared" si="21"/>
+        <v>5.048860190694338</v>
+      </c>
+      <c r="M82" s="1">
+        <f t="shared" si="21"/>
+        <v>0.94978558042765227</v>
+      </c>
+      <c r="N82" s="1">
+        <f t="shared" si="21"/>
+        <v>4.1490633250260487</v>
+      </c>
+      <c r="O82" s="1">
+        <f t="shared" si="21"/>
+        <v>7.1483862105870344</v>
+      </c>
+      <c r="P82" s="1">
+        <f t="shared" si="21"/>
+        <v>13.24700941122771</v>
+      </c>
+      <c r="Q82" s="1">
+        <f t="shared" si="21"/>
+        <v>68.234595646512503</v>
+      </c>
+      <c r="R82" s="1"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2000</v>
+      </c>
+      <c r="B83" s="1">
+        <f t="shared" si="22"/>
+        <v>87.480250828862182</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="21"/>
+        <v>77.48250787699223</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="21"/>
+        <v>67.484764925122263</v>
+      </c>
+      <c r="E83" s="1">
+        <f t="shared" si="21"/>
+        <v>57.48702197325229</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" si="21"/>
+        <v>42.490407545447347</v>
+      </c>
+      <c r="G83" s="1">
+        <f t="shared" si="21"/>
+        <v>34.392235754432676</v>
+      </c>
+      <c r="H83" s="1">
+        <f t="shared" si="21"/>
+        <v>28.293612553792002</v>
+      </c>
+      <c r="I83" s="1">
+        <f t="shared" si="21"/>
+        <v>22.194989353151325</v>
+      </c>
+      <c r="J83" s="1">
+        <f t="shared" si="21"/>
+        <v>16.096366152510647</v>
+      </c>
+      <c r="K83" s="1">
+        <f t="shared" si="21"/>
+        <v>9.9977429518699523</v>
+      </c>
+      <c r="L83" s="1">
+        <f t="shared" si="21"/>
+        <v>0.79981943614960394</v>
+      </c>
+      <c r="M83" s="1">
+        <f t="shared" si="21"/>
+        <v>5.1988263349723871</v>
+      </c>
+      <c r="N83" s="1">
+        <f t="shared" si="21"/>
+        <v>8.3981040795707838</v>
+      </c>
+      <c r="O83" s="1">
+        <f t="shared" si="21"/>
+        <v>11.397426965131769</v>
+      </c>
+      <c r="P83" s="1">
+        <f t="shared" si="21"/>
+        <v>17.496050165772445</v>
+      </c>
+      <c r="Q83" s="1">
+        <f t="shared" si="21"/>
+        <v>72.48363640105724</v>
+      </c>
+      <c r="R83" s="1"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2200</v>
+      </c>
+      <c r="B84" s="1">
+        <f t="shared" si="22"/>
+        <v>83.23121007431746</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="21"/>
+        <v>73.233467122447493</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="21"/>
+        <v>63.235724170577527</v>
+      </c>
+      <c r="E84" s="1">
+        <f t="shared" si="21"/>
+        <v>53.23798121870756</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" si="21"/>
+        <v>38.24136679090261</v>
+      </c>
+      <c r="G84" s="1">
+        <f t="shared" si="21"/>
+        <v>30.143194999887942</v>
+      </c>
+      <c r="H84" s="1">
+        <f t="shared" si="21"/>
+        <v>24.044571799247265</v>
+      </c>
+      <c r="I84" s="1">
+        <f t="shared" si="21"/>
+        <v>17.945948598606591</v>
+      </c>
+      <c r="J84" s="1">
+        <f t="shared" si="21"/>
+        <v>11.847325397965914</v>
+      </c>
+      <c r="K84" s="1">
+        <f t="shared" si="21"/>
+        <v>5.7487021973252173</v>
+      </c>
+      <c r="L84" s="1">
+        <f t="shared" si="21"/>
+        <v>3.4492213183951308</v>
+      </c>
+      <c r="M84" s="1">
+        <f t="shared" si="21"/>
+        <v>9.4478670895171213</v>
+      </c>
+      <c r="N84" s="1">
+        <f t="shared" si="21"/>
+        <v>12.647144834115517</v>
+      </c>
+      <c r="O84" s="1">
+        <f t="shared" si="21"/>
+        <v>15.646467719676503</v>
+      </c>
+      <c r="P84" s="1">
+        <f t="shared" si="21"/>
+        <v>21.745090920317178</v>
+      </c>
+      <c r="Q84" s="1">
+        <f t="shared" si="21"/>
+        <v>76.732677155601976</v>
+      </c>
+      <c r="R84" s="1"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2400</v>
+      </c>
+      <c r="B85" s="1">
+        <f t="shared" si="22"/>
+        <v>78.982169319772723</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="21"/>
+        <v>68.984426367902756</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="21"/>
+        <v>58.986683416032797</v>
+      </c>
+      <c r="E85" s="1">
+        <f t="shared" si="21"/>
+        <v>48.988940464162823</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="21"/>
+        <v>33.992326036357873</v>
+      </c>
+      <c r="G85" s="1">
+        <f t="shared" si="21"/>
+        <v>25.894154245343209</v>
+      </c>
+      <c r="H85" s="1">
+        <f t="shared" si="21"/>
+        <v>19.795531044702532</v>
+      </c>
+      <c r="I85" s="1">
+        <f t="shared" si="21"/>
+        <v>13.696907844061856</v>
+      </c>
+      <c r="J85" s="1">
+        <f t="shared" si="21"/>
+        <v>7.598284643421179</v>
+      </c>
+      <c r="K85" s="1">
+        <f t="shared" si="21"/>
+        <v>1.4996614427804831</v>
+      </c>
+      <c r="L85" s="1">
+        <f t="shared" si="21"/>
+        <v>7.6982620729398654</v>
+      </c>
+      <c r="M85" s="1">
+        <f t="shared" si="21"/>
+        <v>13.696907844061856</v>
+      </c>
+      <c r="N85" s="1">
+        <f t="shared" si="21"/>
+        <v>16.896185588660252</v>
+      </c>
+      <c r="O85" s="1">
+        <f t="shared" si="21"/>
+        <v>19.895508474221238</v>
+      </c>
+      <c r="P85" s="1">
+        <f t="shared" si="21"/>
+        <v>25.994131674861915</v>
+      </c>
+      <c r="Q85" s="1">
+        <f t="shared" si="21"/>
+        <v>80.981717910146713</v>
+      </c>
+      <c r="R85" s="1"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2600</v>
+      </c>
+      <c r="B86" s="1">
+        <f t="shared" si="22"/>
+        <v>74.733128565227986</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="21"/>
+        <v>64.735385613358019</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="21"/>
+        <v>54.73764266148806</v>
+      </c>
+      <c r="E86" s="1">
+        <f t="shared" si="21"/>
+        <v>44.739899709618086</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="shared" si="21"/>
+        <v>29.74328528181314</v>
+      </c>
+      <c r="G86" s="1">
+        <f t="shared" si="21"/>
+        <v>21.645113490798476</v>
+      </c>
+      <c r="H86" s="1">
+        <f t="shared" si="21"/>
+        <v>15.546490290157799</v>
+      </c>
+      <c r="I86" s="1">
+        <f t="shared" si="21"/>
+        <v>9.4478670895171213</v>
+      </c>
+      <c r="J86" s="1">
+        <f t="shared" si="21"/>
+        <v>3.3492438888764444</v>
+      </c>
+      <c r="K86" s="1">
+        <f t="shared" si="21"/>
+        <v>2.7493793117642511</v>
+      </c>
+      <c r="L86" s="1">
+        <f t="shared" si="21"/>
+        <v>11.947302827484599</v>
+      </c>
+      <c r="M86" s="1">
+        <f t="shared" si="21"/>
+        <v>17.945948598606591</v>
+      </c>
+      <c r="N86" s="1">
+        <f t="shared" si="21"/>
+        <v>21.145226343204985</v>
+      </c>
+      <c r="O86" s="1">
+        <f t="shared" si="21"/>
+        <v>24.144549228765971</v>
+      </c>
+      <c r="P86" s="1">
+        <f t="shared" si="21"/>
+        <v>30.243172429406648</v>
+      </c>
+      <c r="Q86" s="1">
+        <f t="shared" si="21"/>
+        <v>85.23075866469145</v>
+      </c>
+      <c r="R86" s="1"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2800</v>
+      </c>
+      <c r="B87" s="1">
+        <f t="shared" si="22"/>
+        <v>70.484087810683249</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="21"/>
+        <v>60.48634485881329</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="21"/>
+        <v>50.488601906943323</v>
+      </c>
+      <c r="E87" s="1">
+        <f t="shared" si="21"/>
+        <v>40.490858955073357</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" si="21"/>
+        <v>25.494244527268407</v>
+      </c>
+      <c r="G87" s="1">
+        <f t="shared" si="21"/>
+        <v>17.396072736253739</v>
+      </c>
+      <c r="H87" s="1">
+        <f t="shared" si="21"/>
+        <v>11.297449535613064</v>
+      </c>
+      <c r="I87" s="1">
+        <f t="shared" si="21"/>
+        <v>5.1988263349723871</v>
+      </c>
+      <c r="J87" s="1">
+        <f t="shared" si="21"/>
+        <v>0.89979686566828987</v>
+      </c>
+      <c r="K87" s="1">
+        <f t="shared" si="21"/>
+        <v>6.9984200663089862</v>
+      </c>
+      <c r="L87" s="1">
+        <f t="shared" si="21"/>
+        <v>16.196343582029336</v>
+      </c>
+      <c r="M87" s="1">
+        <f t="shared" si="21"/>
+        <v>22.194989353151325</v>
+      </c>
+      <c r="N87" s="1">
+        <f t="shared" si="21"/>
+        <v>25.394267097749722</v>
+      </c>
+      <c r="O87" s="1">
+        <f t="shared" si="21"/>
+        <v>28.393589983310708</v>
+      </c>
+      <c r="P87" s="1">
+        <f t="shared" si="21"/>
+        <v>34.492213183951385</v>
+      </c>
+      <c r="Q87" s="1">
+        <f t="shared" si="21"/>
+        <v>89.479799419236173</v>
+      </c>
+      <c r="R87" s="1"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2900</v>
+      </c>
+      <c r="B88" s="1">
+        <f t="shared" si="22"/>
+        <v>68.359567433410888</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="21"/>
+        <v>58.361824481540921</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="21"/>
+        <v>48.364081529670962</v>
+      </c>
+      <c r="E88" s="1">
+        <f t="shared" si="21"/>
+        <v>38.366338577800988</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="21"/>
+        <v>23.369724149996038</v>
+      </c>
+      <c r="G88" s="1">
+        <f t="shared" si="21"/>
+        <v>15.271552358981372</v>
+      </c>
+      <c r="H88" s="1">
+        <f t="shared" si="21"/>
+        <v>9.1729291583406969</v>
+      </c>
+      <c r="I88" s="1">
+        <f t="shared" si="21"/>
+        <v>3.0743059577000196</v>
+      </c>
+      <c r="J88" s="1">
+        <f t="shared" si="21"/>
+        <v>3.0243172429406573</v>
+      </c>
+      <c r="K88" s="1">
+        <f t="shared" si="21"/>
+        <v>9.1229404435813528</v>
+      </c>
+      <c r="L88" s="1">
+        <f t="shared" si="21"/>
+        <v>18.3208639593017</v>
+      </c>
+      <c r="M88" s="1">
+        <f t="shared" si="21"/>
+        <v>24.319509730423693</v>
+      </c>
+      <c r="N88" s="1">
+        <f t="shared" si="21"/>
+        <v>27.518787475022087</v>
+      </c>
+      <c r="O88" s="1">
+        <f t="shared" si="21"/>
+        <v>30.518110360583073</v>
+      </c>
+      <c r="P88" s="1">
+        <f t="shared" si="21"/>
+        <v>36.616733561223754</v>
+      </c>
+      <c r="Q88" s="1">
+        <f t="shared" si="21"/>
+        <v>91.604319796508548</v>
+      </c>
+      <c r="R88" s="1"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>3000</v>
+      </c>
+      <c r="B89" s="1">
+        <f t="shared" si="22"/>
+        <v>66.235047056138512</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="21"/>
+        <v>56.237304104268553</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="21"/>
+        <v>46.239561152398593</v>
+      </c>
+      <c r="E89" s="1">
+        <f t="shared" si="21"/>
+        <v>36.24181820052862</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="21"/>
+        <v>21.245203772723674</v>
+      </c>
+      <c r="G89" s="1">
+        <f t="shared" si="21"/>
+        <v>13.147031981709006</v>
+      </c>
+      <c r="H89" s="1">
+        <f t="shared" si="21"/>
+        <v>7.0484087810683285</v>
+      </c>
+      <c r="I89" s="1">
+        <f t="shared" si="21"/>
+        <v>0.94978558042765227</v>
+      </c>
+      <c r="J89" s="1">
+        <f t="shared" si="21"/>
+        <v>5.1488376202130244</v>
+      </c>
+      <c r="K89" s="1">
+        <f t="shared" si="21"/>
+        <v>11.247460820853719</v>
+      </c>
+      <c r="L89" s="1">
+        <f t="shared" si="21"/>
+        <v>20.445384336574069</v>
+      </c>
+      <c r="M89" s="1">
+        <f t="shared" si="21"/>
+        <v>26.444030107696058</v>
+      </c>
+      <c r="N89" s="1">
+        <f t="shared" si="21"/>
+        <v>29.643307852294456</v>
+      </c>
+      <c r="O89" s="1">
+        <f t="shared" si="21"/>
+        <v>32.642630737855441</v>
+      </c>
+      <c r="P89" s="1">
+        <f t="shared" si="21"/>
+        <v>38.741253938496115</v>
+      </c>
+      <c r="Q89" s="1">
+        <f t="shared" si="21"/>
+        <v>93.72884017378091</v>
+      </c>
+      <c r="R89" s="1"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>3200</v>
+      </c>
+      <c r="B90" s="1">
+        <f t="shared" si="22"/>
+        <v>61.986006301593783</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="22"/>
+        <v>51.988263349723816</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="22"/>
+        <v>41.990520397853857</v>
+      </c>
+      <c r="E90" s="1">
+        <f t="shared" si="22"/>
+        <v>31.992777445983887</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="22"/>
+        <v>16.996163018178937</v>
+      </c>
+      <c r="G90" s="1">
+        <f t="shared" si="22"/>
+        <v>8.8979912271642707</v>
+      </c>
+      <c r="H90" s="1">
+        <f t="shared" si="22"/>
+        <v>2.7993680265235943</v>
+      </c>
+      <c r="I90" s="1">
+        <f t="shared" si="22"/>
+        <v>3.2992551741170821</v>
+      </c>
+      <c r="J90" s="1">
+        <f t="shared" si="22"/>
+        <v>9.3978783747577594</v>
+      </c>
+      <c r="K90" s="1">
+        <f t="shared" si="22"/>
+        <v>15.496501575398455</v>
+      </c>
+      <c r="L90" s="1">
+        <f t="shared" si="22"/>
+        <v>24.694425091118802</v>
+      </c>
+      <c r="M90" s="1">
+        <f t="shared" si="22"/>
+        <v>30.693070862240795</v>
+      </c>
+      <c r="N90" s="1">
+        <f t="shared" si="22"/>
+        <v>33.892348606839192</v>
+      </c>
+      <c r="O90" s="1">
+        <f t="shared" si="22"/>
+        <v>36.891671492400178</v>
+      </c>
+      <c r="P90" s="1">
+        <f t="shared" si="22"/>
+        <v>42.990294693040852</v>
+      </c>
+      <c r="Q90" s="1">
+        <f t="shared" si="22"/>
+        <v>97.977880928325646</v>
+      </c>
+      <c r="R90" s="1"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>3500</v>
+      </c>
+      <c r="B91" s="1">
+        <f t="shared" si="22"/>
+        <v>55.612445169776677</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="22"/>
+        <v>45.614702217906718</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="22"/>
+        <v>35.616959266036758</v>
+      </c>
+      <c r="E91" s="1">
+        <f t="shared" si="22"/>
+        <v>25.619216314166785</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="22"/>
+        <v>10.622601886361837</v>
+      </c>
+      <c r="G91" s="1">
+        <f t="shared" si="22"/>
+        <v>2.524430095347169</v>
+      </c>
+      <c r="H91" s="1">
+        <f t="shared" si="22"/>
+        <v>3.5741931052935074</v>
+      </c>
+      <c r="I91" s="1">
+        <f t="shared" si="22"/>
+        <v>9.6728163059341838</v>
+      </c>
+      <c r="J91" s="1">
+        <f t="shared" si="22"/>
+        <v>15.771439506574861</v>
+      </c>
+      <c r="K91" s="1">
+        <f t="shared" si="22"/>
+        <v>21.870062707215556</v>
+      </c>
+      <c r="L91" s="1">
+        <f t="shared" si="22"/>
+        <v>31.067986222935904</v>
+      </c>
+      <c r="M91" s="1">
+        <f t="shared" si="22"/>
+        <v>37.066631994057893</v>
+      </c>
+      <c r="N91" s="1">
+        <f t="shared" si="22"/>
+        <v>40.265909738656291</v>
+      </c>
+      <c r="O91" s="1">
+        <f t="shared" si="22"/>
+        <v>43.265232624217276</v>
+      </c>
+      <c r="P91" s="1">
+        <f t="shared" si="22"/>
+        <v>49.363855824857957</v>
+      </c>
+      <c r="Q91" s="1">
+        <f t="shared" si="22"/>
+        <v>104.35144206014274</v>
+      </c>
+      <c r="R91" s="1"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>4000</v>
+      </c>
+      <c r="B92" s="1">
+        <f t="shared" si="22"/>
+        <v>44.989843283414842</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="22"/>
+        <v>34.992100331544869</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="22"/>
+        <v>24.99435737967492</v>
+      </c>
+      <c r="E92" s="1">
+        <f t="shared" si="22"/>
+        <v>14.996614427804948</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <f t="shared" si="22"/>
+        <v>8.0981717910146678</v>
+      </c>
+      <c r="H92" s="1">
+        <f t="shared" si="22"/>
+        <v>14.196794991655343</v>
+      </c>
+      <c r="I92" s="1">
+        <f t="shared" si="22"/>
+        <v>20.295418192296019</v>
+      </c>
+      <c r="J92" s="1">
+        <f t="shared" si="22"/>
+        <v>26.394041392936696</v>
+      </c>
+      <c r="K92" s="1">
+        <f t="shared" si="22"/>
+        <v>32.492664593577395</v>
+      </c>
+      <c r="L92" s="1">
+        <f t="shared" si="22"/>
+        <v>41.690588109297742</v>
+      </c>
+      <c r="M92" s="1">
+        <f t="shared" si="22"/>
+        <v>47.689233880419749</v>
+      </c>
+      <c r="N92" s="1">
+        <f t="shared" si="22"/>
+        <v>50.888511625018126</v>
+      </c>
+      <c r="O92" s="1">
+        <f t="shared" si="22"/>
+        <v>53.887834510579133</v>
+      </c>
+      <c r="P92" s="1">
+        <f t="shared" si="22"/>
+        <v>59.986457711219792</v>
+      </c>
+      <c r="Q92" s="1">
+        <f t="shared" si="22"/>
+        <v>114.97404394650458</v>
+      </c>
+      <c r="R92" s="1"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>20</v>
+      </c>
+      <c r="E96">
+        <v>30</v>
+      </c>
+      <c r="F96">
+        <v>45</v>
+      </c>
+      <c r="G96">
+        <v>53.1</v>
+      </c>
+      <c r="H96">
+        <v>59.2</v>
+      </c>
+      <c r="I96">
+        <v>65.3</v>
+      </c>
+      <c r="J96">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="K96">
+        <v>77.5</v>
+      </c>
+      <c r="L96">
+        <v>86.7</v>
+      </c>
+      <c r="M96">
+        <v>92.7</v>
+      </c>
+      <c r="N96">
+        <v>95.9</v>
+      </c>
+      <c r="O96">
+        <v>98.9</v>
+      </c>
+      <c r="P96">
+        <v>105</v>
+      </c>
+      <c r="Q96">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>620</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>650</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>800</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1000</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1200</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1400</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1550</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1700</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1800</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2000</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2200</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2400</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2600</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2800</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2900</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>3000</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>3200</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>3500</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>4000</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B50:Q68">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69:Q69">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="between">
+      <formula>$U$50</formula>
+      <formula>$U$51</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R50:R68">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="between">
+      <formula>$T$50</formula>
+      <formula>$T$51</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74:Q92">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4244,16 +6203,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69:Q69">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
-      <formula>$U$50</formula>
-      <formula>$U$51</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R50:R68">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>$T$50</formula>
-      <formula>$T$51</formula>
+  <conditionalFormatting sqref="B97:Q115">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/table blender.xlsx
+++ b/table blender.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akudlacek\Downloads\cummins_tuning_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF57BF83-B7D8-460A-871C-1BC17AA75E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BADD5B-BEE8-49F9-AC7C-E64F54B194CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6206C45-3FE7-4868-8A95-239C7ED022B7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Table 1</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Blended</t>
+  </si>
+  <si>
+    <t>distance cuttoff</t>
   </si>
 </sst>
 </file>
@@ -120,107 +123,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -573,14 +476,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7647053-835B-421E-A05A-5E37237959C0}">
   <dimension ref="A1:U115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97:Q115"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="17" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1674,56 +1586,73 @@
         <v>3</v>
       </c>
       <c r="B26">
+        <f t="shared" ref="B26:Q26" si="0">B3</f>
         <v>0</v>
       </c>
       <c r="C26">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D26">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E26">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="F26">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="G26">
+        <f t="shared" si="0"/>
         <v>53.1</v>
       </c>
       <c r="H26">
+        <f t="shared" si="0"/>
         <v>59.2</v>
       </c>
       <c r="I26">
+        <f t="shared" si="0"/>
         <v>65.3</v>
       </c>
       <c r="J26">
+        <f t="shared" si="0"/>
         <v>71.400000000000006</v>
       </c>
       <c r="K26">
+        <f t="shared" si="0"/>
         <v>77.5</v>
       </c>
       <c r="L26">
+        <f t="shared" si="0"/>
         <v>86.7</v>
       </c>
       <c r="M26">
+        <f t="shared" si="0"/>
         <v>92.7</v>
       </c>
       <c r="N26">
+        <f t="shared" si="0"/>
         <v>95.9</v>
       </c>
       <c r="O26">
+        <f t="shared" si="0"/>
         <v>98.9</v>
       </c>
       <c r="P26">
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="Q26">
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
+        <f t="shared" ref="A27:A45" si="1">A4</f>
         <v>620</v>
       </c>
       <c r="B27" s="1">
@@ -1777,6 +1706,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
+        <f t="shared" si="1"/>
         <v>650</v>
       </c>
       <c r="B28" s="1">
@@ -1830,6 +1760,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="B29" s="1">
@@ -1883,6 +1814,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="B30" s="1">
@@ -1936,6 +1868,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
       <c r="B31" s="1">
@@ -1989,6 +1922,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
+        <f t="shared" si="1"/>
         <v>1400</v>
       </c>
       <c r="B32" s="1">
@@ -2042,6 +1976,7 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
+        <f t="shared" si="1"/>
         <v>1550</v>
       </c>
       <c r="B33" s="1">
@@ -2095,6 +2030,7 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
+        <f t="shared" si="1"/>
         <v>1700</v>
       </c>
       <c r="B34" s="1">
@@ -2148,6 +2084,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
+        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
       <c r="B35" s="1">
@@ -2201,6 +2138,7 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="B36" s="1">
@@ -2254,6 +2192,7 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
+        <f t="shared" si="1"/>
         <v>2200</v>
       </c>
       <c r="B37" s="1">
@@ -2307,6 +2246,7 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
+        <f t="shared" si="1"/>
         <v>2400</v>
       </c>
       <c r="B38" s="1">
@@ -2360,6 +2300,7 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
+        <f t="shared" si="1"/>
         <v>2600</v>
       </c>
       <c r="B39" s="1">
@@ -2413,6 +2354,7 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
+        <f t="shared" si="1"/>
         <v>2800</v>
       </c>
       <c r="B40" s="1">
@@ -2466,6 +2408,7 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
+        <f t="shared" si="1"/>
         <v>2900</v>
       </c>
       <c r="B41" s="1">
@@ -2519,6 +2462,7 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="B42" s="1">
@@ -2572,6 +2516,7 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
+        <f t="shared" si="1"/>
         <v>3200</v>
       </c>
       <c r="B43" s="1">
@@ -2625,6 +2570,7 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
+        <f t="shared" si="1"/>
         <v>3500</v>
       </c>
       <c r="B44" s="1">
@@ -2678,6 +2624,7 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="B45" s="1">
@@ -2753,51 +2700,67 @@
         <v>3</v>
       </c>
       <c r="B49">
+        <f t="shared" ref="B49:Q49" si="2">B3</f>
         <v>0</v>
       </c>
       <c r="C49">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D49">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E49">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="F49">
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="G49">
+        <f t="shared" si="2"/>
         <v>53.1</v>
       </c>
       <c r="H49">
+        <f t="shared" si="2"/>
         <v>59.2</v>
       </c>
       <c r="I49">
+        <f t="shared" si="2"/>
         <v>65.3</v>
       </c>
       <c r="J49">
+        <f t="shared" si="2"/>
         <v>71.400000000000006</v>
       </c>
       <c r="K49">
+        <f t="shared" si="2"/>
         <v>77.5</v>
       </c>
       <c r="L49">
+        <f t="shared" si="2"/>
         <v>86.7</v>
       </c>
       <c r="M49">
+        <f t="shared" si="2"/>
         <v>92.7</v>
       </c>
       <c r="N49">
+        <f t="shared" si="2"/>
         <v>95.9</v>
       </c>
       <c r="O49">
+        <f t="shared" si="2"/>
         <v>98.9</v>
       </c>
       <c r="P49">
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="Q49">
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="T49" t="s">
@@ -2809,6 +2772,7 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
+        <f t="shared" ref="A50:A68" si="3">A4</f>
         <v>620</v>
       </c>
       <c r="B50" s="1">
@@ -2816,74 +2780,74 @@
         <v>-4</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" ref="C50:Q50" si="0">IF(AND(C$49&gt;=$R50,$A50&gt;=C$69),C27,C4)</f>
+        <f t="shared" ref="C50:Q50" si="4">IF(AND(C$49&gt;=$R50,$A50&gt;=C$69),C27,C4)</f>
         <v>-4</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-8.5</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-13</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-13</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-13</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-13</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-12.03125</v>
       </c>
       <c r="L50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-8.046875</v>
       </c>
       <c r="M50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.9063000000000001E-2</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" si="0"/>
-        <v>3.9063000000000001E-2</v>
+        <f t="shared" si="4"/>
+        <v>-5.9375</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="0"/>
-        <v>3.9063000000000001E-2</v>
+        <f t="shared" si="4"/>
+        <v>-5.8203129999999996</v>
       </c>
       <c r="P50" s="1">
-        <f t="shared" si="0"/>
-        <v>3.9063000000000001E-2</v>
+        <f t="shared" si="4"/>
+        <v>-5.5859379999999996</v>
       </c>
       <c r="Q50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-4.296875</v>
       </c>
       <c r="R50" s="1">
         <f>($A50-$U$50)/$U$53+$T$50</f>
-        <v>116.825</v>
+        <v>93.025000000000006</v>
       </c>
       <c r="S50">
         <v>1</v>
       </c>
       <c r="T50" s="1">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="U50" s="1">
         <v>0</v>
@@ -2891,81 +2855,82 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
+        <f t="shared" si="3"/>
         <v>650</v>
       </c>
       <c r="B51" s="1">
-        <f t="shared" ref="B51:Q51" si="1">IF(AND(B$49&gt;=$R51,$A51&gt;=B$69),B28,B5)</f>
+        <f t="shared" ref="B51:Q51" si="5">IF(AND(B$49&gt;=$R51,$A51&gt;=B$69),B28,B5)</f>
         <v>-4</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-4</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-4</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-4</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-8.5</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-13</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-13</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-13</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-13</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-13</v>
       </c>
       <c r="L51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-13</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" si="1"/>
-        <v>-13</v>
+        <f t="shared" si="5"/>
+        <v>-5.8203129999999996</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="1"/>
-        <v>-13</v>
+        <f t="shared" si="5"/>
+        <v>-5.703125</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="1"/>
-        <v>-13</v>
+        <f t="shared" si="5"/>
+        <v>-5.5859379999999996</v>
       </c>
       <c r="P51" s="1">
-        <f t="shared" si="1"/>
-        <v>-13</v>
+        <f t="shared" si="5"/>
+        <v>-5.3515629999999996</v>
       </c>
       <c r="Q51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-3.9453130000000001</v>
       </c>
       <c r="R51" s="1">
-        <f t="shared" ref="R51:R68" si="2">($A51-$U$50)/$U$53+$T$50</f>
-        <v>116.1875</v>
+        <f t="shared" ref="R51:R68" si="6">($A51-$U$50)/$U$53+$T$50</f>
+        <v>92.6875</v>
       </c>
       <c r="S51">
         <v>2</v>
       </c>
       <c r="T51">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="U51">
         <v>4000</v>
@@ -2973,1318 +2938,1335 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="B52" s="1">
-        <f t="shared" ref="B52:Q52" si="3">IF(AND(B$49&gt;=$R52,$A52&gt;=B$69),B29,B6)</f>
+        <f t="shared" ref="B52:Q52" si="7">IF(AND(B$49&gt;=$R52,$A52&gt;=B$69),B29,B6)</f>
         <v>-4</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-8.5</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-13</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-13</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-13</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-13</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-13</v>
       </c>
       <c r="L52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-13</v>
       </c>
       <c r="M52" s="1">
-        <f t="shared" si="3"/>
-        <v>-13</v>
+        <f t="shared" si="7"/>
+        <v>-4.6484379999999996</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" si="3"/>
-        <v>-13</v>
+        <f t="shared" si="7"/>
+        <v>-4.53125</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" si="3"/>
-        <v>-13</v>
+        <f t="shared" si="7"/>
+        <v>-4.4140629999999996</v>
       </c>
       <c r="P52" s="1">
-        <f t="shared" si="3"/>
-        <v>-13</v>
+        <f t="shared" si="7"/>
+        <v>-4.1796879999999996</v>
       </c>
       <c r="Q52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-2.1875</v>
       </c>
       <c r="R52" s="1">
-        <f t="shared" si="2"/>
-        <v>113</v>
+        <f t="shared" si="6"/>
+        <v>91</v>
       </c>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
       <c r="B53" s="1">
-        <f t="shared" ref="B53:Q53" si="4">IF(AND(B$49&gt;=$R53,$A53&gt;=B$69),B30,B7)</f>
+        <f t="shared" ref="B53:Q53" si="8">IF(AND(B$49&gt;=$R53,$A53&gt;=B$69),B30,B7)</f>
         <v>-4</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-4</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-4</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-4</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-8.5</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-13</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-13</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-13</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-13</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-13</v>
       </c>
       <c r="L53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-13</v>
       </c>
       <c r="M53" s="1">
-        <f t="shared" si="4"/>
-        <v>-13</v>
+        <f t="shared" si="8"/>
+        <v>-3.125</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" si="4"/>
-        <v>-13</v>
+        <f t="shared" si="8"/>
+        <v>-2.890625</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="4"/>
-        <v>-13</v>
+        <f t="shared" si="8"/>
+        <v>-2.7734380000000001</v>
       </c>
       <c r="P53" s="1">
-        <f t="shared" si="4"/>
-        <v>-13</v>
+        <f t="shared" si="8"/>
+        <v>-2.65625</v>
       </c>
       <c r="Q53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.15625</v>
       </c>
       <c r="R53" s="1">
-        <f t="shared" si="2"/>
-        <v>108.75</v>
+        <f t="shared" si="6"/>
+        <v>88.75</v>
       </c>
       <c r="T53" t="s">
         <v>8</v>
       </c>
       <c r="U53">
         <f>($U$51-$U$50)/($T$51-$T$50)</f>
-        <v>-47.058823529411768</v>
+        <v>-88.888888888888886</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="B54" s="1">
-        <f t="shared" ref="B54:Q54" si="5">IF(AND(B$49&gt;=$R54,$A54&gt;=B$69),B31,B8)</f>
+        <f t="shared" ref="B54:Q54" si="9">IF(AND(B$49&gt;=$R54,$A54&gt;=B$69),B31,B8)</f>
         <v>-1.015625</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.484375</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.5390630000000001</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-3.59375</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-5.5341800000000001</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-11.445313000000001</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-12</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-12</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-12</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-12</v>
       </c>
       <c r="L54" s="1">
-        <f t="shared" si="5"/>
-        <v>-12</v>
+        <f t="shared" si="9"/>
+        <v>-1.953125</v>
       </c>
       <c r="M54" s="1">
-        <f t="shared" si="5"/>
-        <v>-12</v>
+        <f t="shared" si="9"/>
+        <v>-1.6015630000000001</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="5"/>
-        <v>-12</v>
+        <f t="shared" si="9"/>
+        <v>-1.3671880000000001</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="5"/>
-        <v>-12</v>
+        <f t="shared" si="9"/>
+        <v>-1.25</v>
       </c>
       <c r="P54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.015625</v>
       </c>
       <c r="Q54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.3828130000000001</v>
       </c>
       <c r="R54" s="1">
-        <f t="shared" si="2"/>
-        <v>104.5</v>
+        <f t="shared" si="6"/>
+        <v>86.5</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
+        <f t="shared" si="3"/>
         <v>1400</v>
       </c>
       <c r="B55" s="1">
-        <f t="shared" ref="B55:Q55" si="6">IF(AND(B$49&gt;=$R55,$A55&gt;=B$69),B32,B9)</f>
+        <f t="shared" ref="B55:Q55" si="10">IF(AND(B$49&gt;=$R55,$A55&gt;=B$69),B32,B9)</f>
         <v>3.4960939999999998</v>
       </c>
       <c r="C55" s="1">
+        <f t="shared" si="10"/>
+        <v>3.203125</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="10"/>
+        <v>2.3242189999999998</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="10"/>
+        <v>1.6796880000000001</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.5683600000000002</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="10"/>
+        <v>-6.4941409999999999</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="10"/>
+        <v>-10</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="10"/>
+        <v>-10</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="10"/>
+        <v>-10</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="10"/>
+        <v>-10</v>
+      </c>
+      <c r="L55" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.546875</v>
+      </c>
+      <c r="M55" s="1">
+        <f t="shared" si="10"/>
+        <v>-7.8125E-2</v>
+      </c>
+      <c r="N55" s="1">
+        <f t="shared" si="10"/>
+        <v>3.9063000000000001E-2</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" si="10"/>
+        <v>0.15625</v>
+      </c>
+      <c r="P55" s="1">
+        <f t="shared" si="10"/>
+        <v>0.625</v>
+      </c>
+      <c r="Q55" s="1">
+        <f t="shared" si="10"/>
+        <v>4.4921879999999996</v>
+      </c>
+      <c r="R55" s="1">
         <f t="shared" si="6"/>
-        <v>3.203125</v>
-      </c>
-      <c r="D55" s="1">
-        <f t="shared" si="6"/>
-        <v>2.3242189999999998</v>
-      </c>
-      <c r="E55" s="1">
-        <f t="shared" si="6"/>
-        <v>1.6796880000000001</v>
-      </c>
-      <c r="F55" s="1">
-        <f t="shared" si="6"/>
-        <v>-2.5683600000000002</v>
-      </c>
-      <c r="G55" s="1">
-        <f t="shared" si="6"/>
-        <v>-6.4941409999999999</v>
-      </c>
-      <c r="H55" s="1">
-        <f t="shared" si="6"/>
-        <v>-10</v>
-      </c>
-      <c r="I55" s="1">
-        <f t="shared" si="6"/>
-        <v>-10</v>
-      </c>
-      <c r="J55" s="1">
-        <f t="shared" si="6"/>
-        <v>-10</v>
-      </c>
-      <c r="K55" s="1">
-        <f t="shared" si="6"/>
-        <v>-10</v>
-      </c>
-      <c r="L55" s="1">
-        <f t="shared" si="6"/>
-        <v>-10</v>
-      </c>
-      <c r="M55" s="1">
-        <f t="shared" si="6"/>
-        <v>-10</v>
-      </c>
-      <c r="N55" s="1">
-        <f t="shared" si="6"/>
-        <v>-10</v>
-      </c>
-      <c r="O55" s="1">
-        <f t="shared" si="6"/>
-        <v>-10</v>
-      </c>
-      <c r="P55" s="1">
-        <f t="shared" si="6"/>
-        <v>0.625</v>
-      </c>
-      <c r="Q55" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4921879999999996</v>
-      </c>
-      <c r="R55" s="1">
-        <f t="shared" si="2"/>
-        <v>100.25</v>
+        <v>84.25</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
+        <f t="shared" si="3"/>
         <v>1550</v>
       </c>
       <c r="B56" s="1">
-        <f t="shared" ref="B56:Q56" si="7">IF(AND(B$49&gt;=$R56,$A56&gt;=B$69),B33,B10)</f>
+        <f t="shared" ref="B56:Q56" si="11">IF(AND(B$49&gt;=$R56,$A56&gt;=B$69),B33,B10)</f>
         <v>6.6</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7.890625</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7.1875</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.953125</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.0273439999999998</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-1.542969</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-10</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-10</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-10</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-10</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" si="7"/>
-        <v>-10</v>
+        <f t="shared" si="11"/>
+        <v>0.625</v>
       </c>
       <c r="M56" s="1">
-        <f t="shared" si="7"/>
-        <v>-10</v>
+        <f t="shared" si="11"/>
+        <v>0.97656299999999996</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="7"/>
-        <v>-10</v>
+        <f t="shared" si="11"/>
+        <v>1.09375</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.328125</v>
       </c>
       <c r="P56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.6796880000000001</v>
       </c>
       <c r="Q56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.015625</v>
       </c>
       <c r="R56" s="1">
-        <f t="shared" si="2"/>
-        <v>97.0625</v>
+        <f t="shared" si="6"/>
+        <v>82.5625</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
+        <f t="shared" si="3"/>
         <v>1700</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" ref="B57:Q57" si="8">IF(AND(B$49&gt;=$R57,$A57&gt;=B$69),B34,B11)</f>
+        <f t="shared" ref="B57:Q57" si="12">IF(AND(B$49&gt;=$R57,$A57&gt;=B$69),B34,B11)</f>
         <v>6.7</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.0234379999999996</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-0.546875</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-10</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-10</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-10</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-10</v>
       </c>
       <c r="L57" s="1">
-        <f t="shared" si="8"/>
-        <v>-10</v>
+        <f t="shared" si="12"/>
+        <v>1.5625</v>
       </c>
       <c r="M57" s="1">
-        <f t="shared" si="8"/>
-        <v>-10</v>
+        <f t="shared" si="12"/>
+        <v>2.03125</v>
       </c>
       <c r="N57" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.1484380000000001</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.3828130000000001</v>
       </c>
       <c r="P57" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.8515630000000001</v>
       </c>
       <c r="Q57" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7.5390629999999996</v>
       </c>
       <c r="R57" s="1">
-        <f t="shared" si="2"/>
-        <v>93.875</v>
+        <f t="shared" si="6"/>
+        <v>80.875</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
+        <f t="shared" si="3"/>
         <v>1800</v>
       </c>
       <c r="B58" s="1">
-        <f t="shared" ref="B58:Q58" si="9">IF(AND(B$49&gt;=$R58,$A58&gt;=B$69),B35,B12)</f>
+        <f t="shared" ref="B58:Q58" si="13">IF(AND(B$49&gt;=$R58,$A58&gt;=B$69),B35,B12)</f>
         <v>6.8</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>8.4</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>8.9</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5.5</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-10</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-10</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-10</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-10</v>
       </c>
       <c r="L58" s="1">
-        <f t="shared" si="9"/>
-        <v>-10</v>
+        <f t="shared" si="13"/>
+        <v>2.265625</v>
       </c>
       <c r="M58" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.734375</v>
       </c>
       <c r="N58" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.8515630000000001</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.0859380000000001</v>
       </c>
       <c r="P58" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.5546880000000001</v>
       </c>
       <c r="Q58" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>8.359375</v>
       </c>
       <c r="R58" s="1">
-        <f t="shared" si="2"/>
-        <v>91.75</v>
+        <f t="shared" si="6"/>
+        <v>79.75</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
       <c r="B59" s="1">
-        <f t="shared" ref="B59:Q59" si="10">IF(AND(B$49&gt;=$R59,$A59&gt;=B$69),B36,B13)</f>
+        <f t="shared" ref="B59:Q59" si="14">IF(AND(B$49&gt;=$R59,$A59&gt;=B$69),B36,B13)</f>
         <v>6.9</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>8.6</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>9.5</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.9</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-10</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-10</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-10</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="10"/>
-        <v>-10</v>
+        <f t="shared" si="14"/>
+        <v>2.96875</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" si="10"/>
-        <v>-10</v>
+        <f t="shared" si="14"/>
+        <v>3.5546880000000001</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.140625</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.2578129999999996</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.4921879999999996</v>
       </c>
       <c r="P59" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.9609379999999996</v>
       </c>
       <c r="Q59" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>10.351563000000001</v>
       </c>
       <c r="R59" s="1">
-        <f t="shared" si="2"/>
-        <v>87.5</v>
+        <f t="shared" si="6"/>
+        <v>77.5</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
+        <f t="shared" si="3"/>
         <v>2200</v>
       </c>
       <c r="B60" s="1">
-        <f t="shared" ref="B60:Q60" si="11">IF(AND(B$49&gt;=$R60,$A60&gt;=B$69),B37,B14)</f>
+        <f t="shared" ref="B60:Q60" si="15">IF(AND(B$49&gt;=$R60,$A60&gt;=B$69),B37,B14)</f>
         <v>7</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>8.9</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>9.4</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.2</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-10</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-10</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-10</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="11"/>
-        <v>-10</v>
+        <f t="shared" si="15"/>
+        <v>4.2578129999999996</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>4.84375</v>
       </c>
       <c r="M60" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.4296879999999996</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.546875</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.78125</v>
       </c>
       <c r="P60" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.3671879999999996</v>
       </c>
       <c r="Q60" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>12.109375</v>
       </c>
       <c r="R60" s="1">
-        <f t="shared" si="2"/>
-        <v>83.25</v>
+        <f t="shared" si="6"/>
+        <v>75.25</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
+        <f t="shared" si="3"/>
         <v>2400</v>
       </c>
       <c r="B61" s="1">
-        <f t="shared" ref="B61:Q61" si="12">IF(AND(B$49&gt;=$R61,$A61&gt;=B$69),B38,B15)</f>
+        <f t="shared" ref="B61:Q61" si="16">IF(AND(B$49&gt;=$R61,$A61&gt;=B$69),B38,B15)</f>
         <v>7.1</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9.1</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>10.1</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.5</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.5</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-10</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-10</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-10</v>
       </c>
       <c r="K61" s="1">
-        <f t="shared" si="12"/>
-        <v>-10</v>
+        <f t="shared" si="16"/>
+        <v>5.546875</v>
       </c>
       <c r="L61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.25</v>
       </c>
       <c r="M61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.8359379999999996</v>
       </c>
       <c r="N61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.953125</v>
       </c>
       <c r="O61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.1875</v>
       </c>
       <c r="P61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.7734379999999996</v>
       </c>
       <c r="Q61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13.867188000000001</v>
       </c>
       <c r="R61" s="1">
-        <f t="shared" si="2"/>
-        <v>79</v>
+        <f t="shared" si="6"/>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62">
+        <f t="shared" si="3"/>
         <v>2600</v>
       </c>
       <c r="B62" s="1">
-        <f t="shared" ref="B62:Q62" si="13">IF(AND(B$49&gt;=$R62,$A62&gt;=B$69),B39,B16)</f>
+        <f t="shared" ref="B62:Q62" si="17">IF(AND(B$49&gt;=$R62,$A62&gt;=B$69),B39,B16)</f>
         <v>-13</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>9.4</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>10.1</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>10.4</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6.9</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2.1</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-10</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-10</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" si="13"/>
-        <v>-10</v>
+        <f t="shared" si="17"/>
+        <v>6.484375</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6.953125</v>
       </c>
       <c r="L62" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.65625</v>
       </c>
       <c r="M62" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8.2421880000000005</v>
       </c>
       <c r="N62" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8.4765630000000005</v>
       </c>
       <c r="O62" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8.828125</v>
       </c>
       <c r="P62" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>9.296875</v>
       </c>
       <c r="Q62" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>15.742188000000001</v>
       </c>
       <c r="R62" s="1">
-        <f t="shared" si="2"/>
-        <v>74.75</v>
+        <f t="shared" si="6"/>
+        <v>70.75</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63">
+        <f t="shared" si="3"/>
         <v>2800</v>
       </c>
       <c r="B63" s="1">
-        <f t="shared" ref="B63:Q63" si="14">IF(AND(B$49&gt;=$R63,$A63&gt;=B$69),B40,B17)</f>
+        <f t="shared" ref="B63:Q63" si="18">IF(AND(B$49&gt;=$R63,$A63&gt;=B$69),B40,B17)</f>
         <v>-13</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-13</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>10.5</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>10.9</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>7.2</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-10</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-10</v>
       </c>
       <c r="J63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>7.7734379999999996</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.2421880000000005</v>
       </c>
       <c r="L63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.0625</v>
       </c>
       <c r="M63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.6484380000000005</v>
       </c>
       <c r="N63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="O63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>10.351563000000001</v>
       </c>
       <c r="P63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>10.703125</v>
       </c>
       <c r="Q63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>17.265625</v>
       </c>
       <c r="R63" s="1">
-        <f t="shared" si="2"/>
-        <v>70.5</v>
+        <f t="shared" si="6"/>
+        <v>68.5</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64">
+        <f t="shared" si="3"/>
         <v>2900</v>
       </c>
       <c r="B64" s="1">
-        <f t="shared" ref="B64:Q64" si="15">IF(AND(B$49&gt;=$R64,$A64&gt;=B$69),B41,B18)</f>
+        <f t="shared" ref="B64:Q64" si="19">IF(AND(B$49&gt;=$R64,$A64&gt;=B$69),B41,B18)</f>
         <v>-13</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-13</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-13</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>11.3</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>7.3</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2.7</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-10</v>
       </c>
       <c r="I64" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-10</v>
       </c>
       <c r="J64" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.359375</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.9453130000000005</v>
       </c>
       <c r="L64" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.765625</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>10.46875</v>
       </c>
       <c r="N64" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>10.820313000000001</v>
       </c>
       <c r="O64" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>11.054688000000001</v>
       </c>
       <c r="P64" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>11.40625</v>
       </c>
       <c r="Q64" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>18.085937999999999</v>
       </c>
       <c r="R64" s="1">
-        <f t="shared" si="2"/>
-        <v>68.375</v>
+        <f t="shared" si="6"/>
+        <v>67.375</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
+        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
       <c r="B65" s="1">
-        <f t="shared" ref="B65:Q65" si="16">IF(AND(B$49&gt;=$R65,$A65&gt;=B$69),B42,B19)</f>
+        <f t="shared" ref="B65:Q65" si="20">IF(AND(B$49&gt;=$R65,$A65&gt;=B$69),B42,B19)</f>
         <v>-13</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-13</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-13</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-13</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>7.5</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2.9</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-10</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-10</v>
       </c>
       <c r="J65" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>9.0625</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>9.6484380000000005</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.585938000000001</v>
       </c>
       <c r="M65" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11.171875</v>
       </c>
       <c r="N65" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11.640625</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11.875</v>
       </c>
       <c r="P65" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12.226563000000001</v>
       </c>
       <c r="Q65" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>19.023437999999999</v>
       </c>
       <c r="R65" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>66.25</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
+        <f t="shared" si="3"/>
         <v>3200</v>
       </c>
       <c r="B66" s="1">
-        <f t="shared" ref="B66:Q66" si="17">IF(AND(B$49&gt;=$R66,$A66&gt;=B$69),B43,B20)</f>
+        <f t="shared" ref="B66:Q66" si="21">IF(AND(B$49&gt;=$R66,$A66&gt;=B$69),B43,B20)</f>
         <v>-13</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-13</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-13</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-13</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7.8</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3.3</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-10</v>
       </c>
       <c r="I66" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9.765625</v>
       </c>
       <c r="J66" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.351563000000001</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11.054688000000001</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11.992188000000001</v>
       </c>
       <c r="M66" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12.695313000000001</v>
       </c>
       <c r="N66" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>13.046875</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>13.515625</v>
       </c>
       <c r="P66" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>13.75</v>
       </c>
       <c r="Q66" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>20.78125</v>
       </c>
       <c r="R66" s="1">
-        <f t="shared" si="2"/>
-        <v>62</v>
+        <f t="shared" si="6"/>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
+        <f t="shared" si="3"/>
         <v>3500</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" ref="B67:Q67" si="18">IF(AND(B$49&gt;=$R67,$A67&gt;=B$69),B44,B21)</f>
+        <f t="shared" ref="B67:Q67" si="22">IF(AND(B$49&gt;=$R67,$A67&gt;=B$69),B44,B21)</f>
         <v>-13</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-13</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-13</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-13</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="18"/>
-        <v>11.171875</v>
+        <f t="shared" si="22"/>
+        <v>-10</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11.757813000000001</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.460938000000001</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>13.046875</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>14.21875</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>15.039063000000001</v>
       </c>
       <c r="N67" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>15.390625</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>15.742188000000001</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>15.976563000000001</v>
       </c>
       <c r="Q67" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>23.945312999999999</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" si="2"/>
-        <v>55.625</v>
+        <f t="shared" si="6"/>
+        <v>60.625</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
+        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
       <c r="B68" s="1">
-        <f t="shared" ref="B68:Q68" si="19">IF(AND(B$49&gt;=$R68,$A68&gt;=B$69),B45,B22)</f>
+        <f t="shared" ref="B68:Q68" si="23">IF(AND(B$49&gt;=$R68,$A68&gt;=B$69),B45,B22)</f>
         <v>-13</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-13</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-13</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-13</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="19"/>
-        <v>13.164063000000001</v>
+        <f t="shared" si="23"/>
+        <v>9</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="19"/>
-        <v>13.632813000000001</v>
+        <f t="shared" si="23"/>
+        <v>5.4</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>14.453125</v>
       </c>
       <c r="I68" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>15.15625</v>
       </c>
       <c r="J68" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>15.859375</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>16.5625</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>17.851562999999999</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>18.789062999999999</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>19.257812999999999</v>
       </c>
       <c r="O68" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>19.726562999999999</v>
       </c>
       <c r="P68" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>19.960937999999999</v>
       </c>
       <c r="Q68" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>28.867187999999999</v>
       </c>
       <c r="R68" s="1">
-        <f t="shared" si="2"/>
-        <v>45</v>
+        <f t="shared" si="6"/>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <f>$U$53*(B$49-$T$50)+$U$50</f>
-        <v>6117.6470588235297</v>
+        <v>8888.8888888888887</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" ref="C69:Q69" si="20">$U$53*(C$49-$T$50)+$U$50</f>
-        <v>5647.0588235294126</v>
+        <f t="shared" ref="C69:Q69" si="24">$U$53*(C$49-$T$50)+$U$50</f>
+        <v>8000</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="20"/>
-        <v>5176.4705882352946</v>
+        <f t="shared" si="24"/>
+        <v>7111.1111111111113</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="20"/>
-        <v>4705.8823529411766</v>
+        <f t="shared" si="24"/>
+        <v>6222.2222222222217</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="20"/>
-        <v>4000.0000000000005</v>
+        <f t="shared" si="24"/>
+        <v>4888.8888888888887</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="20"/>
-        <v>3618.8235294117653</v>
+        <f t="shared" si="24"/>
+        <v>4168.8888888888887</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="20"/>
-        <v>3331.7647058823532</v>
+        <f t="shared" si="24"/>
+        <v>3626.6666666666661</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" si="20"/>
-        <v>3044.7058823529414</v>
+        <f t="shared" si="24"/>
+        <v>3084.4444444444448</v>
       </c>
       <c r="J69" s="1">
-        <f t="shared" si="20"/>
-        <v>2757.6470588235293</v>
+        <f t="shared" si="24"/>
+        <v>2542.2222222222217</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="20"/>
-        <v>2470.588235294118</v>
+        <f t="shared" si="24"/>
+        <v>2000</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" si="20"/>
-        <v>2037.6470588235295</v>
+        <f t="shared" si="24"/>
+        <v>1182.2222222222219</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="20"/>
-        <v>1755.2941176470588</v>
+        <f t="shared" si="24"/>
+        <v>648.88888888888857</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" si="20"/>
-        <v>1604.705882352941</v>
+        <f t="shared" si="24"/>
+        <v>364.44444444444395</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" si="20"/>
-        <v>1463.5294117647056</v>
+        <f t="shared" si="24"/>
+        <v>97.777777777777274</v>
       </c>
       <c r="P69" s="1">
-        <f t="shared" si="20"/>
-        <v>1176.4705882352941</v>
+        <f t="shared" si="24"/>
+        <v>-444.44444444444446</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="20"/>
-        <v>-1411.7647058823532</v>
+        <f t="shared" si="24"/>
+        <v>-5333.333333333333</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -4305,1385 +4287,1420 @@
         <v>3</v>
       </c>
       <c r="B73">
+        <f t="shared" ref="B73:Q73" si="25">B3</f>
         <v>0</v>
       </c>
       <c r="C73">
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D73">
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="E73">
+        <f t="shared" si="25"/>
         <v>30</v>
       </c>
       <c r="F73">
+        <f t="shared" si="25"/>
         <v>45</v>
       </c>
       <c r="G73">
+        <f t="shared" si="25"/>
         <v>53.1</v>
       </c>
       <c r="H73">
+        <f t="shared" si="25"/>
         <v>59.2</v>
       </c>
       <c r="I73">
+        <f t="shared" si="25"/>
         <v>65.3</v>
       </c>
       <c r="J73">
+        <f t="shared" si="25"/>
         <v>71.400000000000006</v>
       </c>
       <c r="K73">
+        <f t="shared" si="25"/>
         <v>77.5</v>
       </c>
       <c r="L73">
+        <f t="shared" si="25"/>
         <v>86.7</v>
       </c>
       <c r="M73">
+        <f t="shared" si="25"/>
         <v>92.7</v>
       </c>
       <c r="N73">
+        <f t="shared" si="25"/>
         <v>95.9</v>
       </c>
       <c r="O73">
+        <f t="shared" si="25"/>
         <v>98.9</v>
       </c>
       <c r="P73">
+        <f t="shared" si="25"/>
         <v>105</v>
       </c>
       <c r="Q73">
+        <f t="shared" si="25"/>
         <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
+        <f t="shared" ref="A74:A92" si="26">A4</f>
         <v>620</v>
       </c>
       <c r="B74" s="1">
-        <f>ABS($U$53*B$73-$A74-$U$53*$T$50+$U$50)/SQRT($U$53^2+1)</f>
-        <v>116.79863203522085</v>
+        <f>($U$53*B$73-$A74-$U$53*$T$50+$U$50)/SQRT($U$53^2+1)</f>
+        <v>93.019113820440069</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="C74:Q89" si="21">ABS($U$53*C$73-$A74-$U$53*$T$50+$U$50)/SQRT($U$53^2+1)</f>
-        <v>106.80088908335091</v>
+        <f t="shared" ref="C74:Q74" si="27">($U$53*C$73-$A74-$U$53*$T$50+$U$50)/SQRT($U$53^2+1)</f>
+        <v>83.019746572878645</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="21"/>
-        <v>96.803146131480929</v>
+        <f t="shared" si="27"/>
+        <v>73.020379325317236</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="21"/>
-        <v>86.805403179610963</v>
+        <f t="shared" si="27"/>
+        <v>63.02101207775582</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="21"/>
-        <v>71.808788751806006</v>
+        <f t="shared" si="27"/>
+        <v>48.021961206413692</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="21"/>
-        <v>63.710616960791349</v>
+        <f t="shared" si="27"/>
+        <v>39.92247373588895</v>
       </c>
       <c r="H74" s="1">
-        <f t="shared" si="21"/>
-        <v>57.611993760150668</v>
+        <f t="shared" si="27"/>
+        <v>33.822859714876479</v>
       </c>
       <c r="I74" s="1">
-        <f t="shared" si="21"/>
-        <v>51.513370559509994</v>
+        <f t="shared" si="27"/>
+        <v>27.723245693864023</v>
       </c>
       <c r="J74" s="1">
-        <f t="shared" si="21"/>
-        <v>45.414747358869306</v>
+        <f t="shared" si="27"/>
+        <v>21.623631672851555</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="21"/>
-        <v>39.316124158228618</v>
+        <f t="shared" si="27"/>
+        <v>15.524017651839097</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" si="21"/>
-        <v>30.11820064250827</v>
+        <f t="shared" si="27"/>
+        <v>6.3245997840825794</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" si="21"/>
-        <v>24.119554871386281</v>
+        <f t="shared" si="27"/>
+        <v>0.32497943554574371</v>
       </c>
       <c r="N74" s="1">
-        <f t="shared" si="21"/>
-        <v>20.920277126787884</v>
+        <f t="shared" si="27"/>
+        <v>-2.8748180836739183</v>
       </c>
       <c r="O74" s="1">
-        <f t="shared" si="21"/>
-        <v>17.920954241226898</v>
+        <f t="shared" si="27"/>
+        <v>-5.8746282579423363</v>
       </c>
       <c r="P74" s="1">
-        <f t="shared" si="21"/>
-        <v>11.822331040586223</v>
+        <f t="shared" si="27"/>
+        <v>-11.974242278954783</v>
       </c>
       <c r="Q74" s="1">
-        <f t="shared" si="21"/>
-        <v>43.165255194698574</v>
+        <f t="shared" si="27"/>
+        <v>-66.97076214054259</v>
       </c>
       <c r="R74" s="1"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75">
+        <f t="shared" si="26"/>
         <v>650</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" ref="B75:Q92" si="22">ABS($U$53*B$73-$A75-$U$53*$T$50+$U$50)/SQRT($U$53^2+1)</f>
-        <v>116.16127592203914</v>
+        <f t="shared" ref="B75:Q92" si="28">($U$53*B$73-$A75-$U$53*$T$50+$U$50)/SQRT($U$53^2+1)</f>
+        <v>92.68163517583487</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="21"/>
-        <v>106.16353297016919</v>
+        <f t="shared" si="28"/>
+        <v>82.682267928273447</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="21"/>
-        <v>96.165790018299219</v>
+        <f t="shared" si="28"/>
+        <v>72.682900680712038</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="21"/>
-        <v>86.168047066429253</v>
+        <f t="shared" si="28"/>
+        <v>62.683533433150629</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="21"/>
-        <v>71.171432638624296</v>
+        <f t="shared" si="28"/>
+        <v>47.684482561808494</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="21"/>
-        <v>63.073260847609639</v>
+        <f t="shared" si="28"/>
+        <v>39.584995091283751</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="21"/>
-        <v>56.974637646968958</v>
+        <f t="shared" si="28"/>
+        <v>33.485381070271281</v>
       </c>
       <c r="I75" s="1">
-        <f t="shared" si="21"/>
-        <v>50.876014446328284</v>
+        <f t="shared" si="28"/>
+        <v>27.385767049258824</v>
       </c>
       <c r="J75" s="1">
-        <f t="shared" si="21"/>
-        <v>44.777391245687596</v>
+        <f t="shared" si="28"/>
+        <v>21.286153028246357</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="21"/>
-        <v>38.678768045046908</v>
+        <f t="shared" si="28"/>
+        <v>15.186539007233899</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="21"/>
-        <v>29.480844529326561</v>
+        <f t="shared" si="28"/>
+        <v>5.9871211394773818</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="21"/>
-        <v>23.482198758204571</v>
+        <f t="shared" si="28"/>
+        <v>-1.2499209059454043E-2</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" si="21"/>
-        <v>20.282921013606174</v>
+        <f t="shared" si="28"/>
+        <v>-3.2122967282791159</v>
       </c>
       <c r="O75" s="1">
-        <f t="shared" si="21"/>
-        <v>17.283598128045188</v>
+        <f t="shared" si="28"/>
+        <v>-6.2121069025475339</v>
       </c>
       <c r="P75" s="1">
-        <f t="shared" si="21"/>
-        <v>11.184974927404513</v>
+        <f t="shared" si="28"/>
+        <v>-12.311720923559982</v>
       </c>
       <c r="Q75" s="1">
-        <f t="shared" si="21"/>
-        <v>43.802611307880284</v>
+        <f t="shared" si="28"/>
+        <v>-67.308240785147788</v>
       </c>
       <c r="R75" s="1"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
+        <f t="shared" si="26"/>
         <v>800</v>
       </c>
       <c r="B76" s="1">
-        <f t="shared" si="22"/>
-        <v>112.97449535613059</v>
+        <f t="shared" si="28"/>
+        <v>90.994241952808878</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="21"/>
-        <v>102.97675240426064</v>
+        <f t="shared" si="28"/>
+        <v>80.994874705247469</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="21"/>
-        <v>92.97900945239067</v>
+        <f t="shared" si="28"/>
+        <v>70.995507457686045</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="21"/>
-        <v>82.981266500520704</v>
+        <f t="shared" si="28"/>
+        <v>60.996140210124636</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="21"/>
-        <v>67.984652072715747</v>
+        <f t="shared" si="28"/>
+        <v>45.997089338782509</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="21"/>
-        <v>59.886480281701083</v>
+        <f t="shared" si="28"/>
+        <v>37.897601868257759</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" si="21"/>
-        <v>53.787857081060409</v>
+        <f t="shared" si="28"/>
+        <v>31.797987847245292</v>
       </c>
       <c r="I76" s="1">
-        <f t="shared" si="21"/>
-        <v>47.689233880419728</v>
+        <f t="shared" si="28"/>
+        <v>25.698373826232835</v>
       </c>
       <c r="J76" s="1">
-        <f t="shared" si="21"/>
-        <v>41.590610679779054</v>
+        <f t="shared" si="28"/>
+        <v>19.598759805220368</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" si="21"/>
-        <v>35.491987479138359</v>
+        <f t="shared" si="28"/>
+        <v>13.49914578420791</v>
       </c>
       <c r="L76" s="1">
-        <f t="shared" si="21"/>
-        <v>26.294063963418012</v>
+        <f t="shared" si="28"/>
+        <v>4.2997279164513929</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" si="21"/>
-        <v>20.295418192296019</v>
+        <f t="shared" si="28"/>
+        <v>-1.6998924320854429</v>
       </c>
       <c r="N76" s="1">
-        <f t="shared" si="21"/>
-        <v>17.096140447697625</v>
+        <f t="shared" si="28"/>
+        <v>-4.8996899513051044</v>
       </c>
       <c r="O76" s="1">
-        <f t="shared" si="21"/>
-        <v>14.096817562136637</v>
+        <f t="shared" si="28"/>
+        <v>-7.8995001255735229</v>
       </c>
       <c r="P76" s="1">
-        <f t="shared" si="21"/>
-        <v>7.9981943614959619</v>
+        <f t="shared" si="28"/>
+        <v>-13.999114146585971</v>
       </c>
       <c r="Q76" s="1">
-        <f t="shared" si="21"/>
-        <v>46.989391873788833</v>
+        <f t="shared" si="28"/>
+        <v>-68.995634008173766</v>
       </c>
       <c r="R76" s="1"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77">
+        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="B77" s="1">
-        <f t="shared" si="22"/>
-        <v>108.72545460158587</v>
+        <f t="shared" si="28"/>
+        <v>88.744384322107564</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="21"/>
-        <v>98.727711649715914</v>
+        <f t="shared" si="28"/>
+        <v>78.745017074546141</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="21"/>
-        <v>88.729968697845933</v>
+        <f t="shared" si="28"/>
+        <v>68.745649826984732</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="21"/>
-        <v>78.732225745975967</v>
+        <f t="shared" si="28"/>
+        <v>58.746282579423315</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="21"/>
-        <v>63.735611318171017</v>
+        <f t="shared" si="28"/>
+        <v>43.747231708081188</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="21"/>
-        <v>55.637439527156353</v>
+        <f t="shared" si="28"/>
+        <v>35.647744237556445</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" si="21"/>
-        <v>49.538816326515672</v>
+        <f t="shared" si="28"/>
+        <v>29.548130216543974</v>
       </c>
       <c r="I77" s="1">
-        <f t="shared" si="21"/>
-        <v>43.440193125874998</v>
+        <f t="shared" si="28"/>
+        <v>23.448516195531518</v>
       </c>
       <c r="J77" s="1">
-        <f t="shared" si="21"/>
-        <v>37.341569925234317</v>
+        <f t="shared" si="28"/>
+        <v>17.348902174519051</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="21"/>
-        <v>31.242946724593626</v>
+        <f t="shared" si="28"/>
+        <v>11.249288153506592</v>
       </c>
       <c r="L77" s="1">
-        <f t="shared" si="21"/>
-        <v>22.045023208873275</v>
+        <f t="shared" si="28"/>
+        <v>2.0498702857500741</v>
       </c>
       <c r="M77" s="1">
-        <f t="shared" si="21"/>
-        <v>16.046377437751286</v>
+        <f t="shared" si="28"/>
+        <v>-3.9497500627867614</v>
       </c>
       <c r="N77" s="1">
-        <f t="shared" si="21"/>
-        <v>12.84709969315289</v>
+        <f t="shared" si="28"/>
+        <v>-7.1495475820064236</v>
       </c>
       <c r="O77" s="1">
-        <f t="shared" si="21"/>
-        <v>9.8477768075919041</v>
+        <f t="shared" si="28"/>
+        <v>-10.14935775627484</v>
       </c>
       <c r="P77" s="1">
-        <f t="shared" si="21"/>
-        <v>3.7491536069512272</v>
+        <f t="shared" si="28"/>
+        <v>-16.248971777287288</v>
       </c>
       <c r="Q77" s="1">
-        <f t="shared" si="21"/>
-        <v>51.23843262833357</v>
+        <f t="shared" si="28"/>
+        <v>-71.245491638875095</v>
       </c>
       <c r="R77" s="1"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78">
+        <f t="shared" si="26"/>
         <v>1200</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" si="22"/>
-        <v>104.47641384704113</v>
+        <f t="shared" si="28"/>
+        <v>86.494526691406236</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="21"/>
-        <v>94.478670895171177</v>
+        <f t="shared" si="28"/>
+        <v>76.495159443844827</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="21"/>
-        <v>84.480927943301197</v>
+        <f t="shared" si="28"/>
+        <v>66.495792196283418</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="21"/>
-        <v>74.48318499143123</v>
+        <f t="shared" si="28"/>
+        <v>56.496424948722002</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="21"/>
-        <v>59.48657056362628</v>
+        <f t="shared" si="28"/>
+        <v>41.497374077379874</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="21"/>
-        <v>51.388398772611616</v>
+        <f t="shared" si="28"/>
+        <v>33.397886606855124</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" si="21"/>
-        <v>45.289775571970942</v>
+        <f t="shared" si="28"/>
+        <v>27.298272585842657</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" si="21"/>
-        <v>39.191152371330261</v>
+        <f t="shared" si="28"/>
+        <v>21.1986585648302</v>
       </c>
       <c r="J78" s="1">
-        <f t="shared" si="21"/>
-        <v>33.092529170689588</v>
+        <f t="shared" si="28"/>
+        <v>15.099044543817731</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="21"/>
-        <v>26.993905970048889</v>
+        <f t="shared" si="28"/>
+        <v>8.9994305228052731</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" si="21"/>
-        <v>17.795982454328541</v>
+        <f t="shared" si="28"/>
+        <v>-0.19998734495124421</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" si="21"/>
-        <v>11.79733668320655</v>
+        <f t="shared" si="28"/>
+        <v>-6.1996076934880797</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" si="21"/>
-        <v>8.5980589386081547</v>
+        <f t="shared" si="28"/>
+        <v>-9.399405212707741</v>
       </c>
       <c r="O78" s="1">
-        <f t="shared" si="21"/>
-        <v>5.598736053047169</v>
+        <f t="shared" si="28"/>
+        <v>-12.399215386976159</v>
       </c>
       <c r="P78" s="1">
-        <f t="shared" si="21"/>
-        <v>0.49988714759350728</v>
+        <f t="shared" si="28"/>
+        <v>-18.498829407988605</v>
       </c>
       <c r="Q78" s="1">
-        <f t="shared" si="21"/>
-        <v>55.487473382878299</v>
+        <f t="shared" si="28"/>
+        <v>-73.495349269576408</v>
       </c>
       <c r="R78" s="1"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79">
+        <f t="shared" si="26"/>
         <v>1400</v>
       </c>
       <c r="B79" s="1">
-        <f t="shared" si="22"/>
-        <v>100.22737309249639</v>
+        <f t="shared" si="28"/>
+        <v>84.244669060704922</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="21"/>
-        <v>90.22963014062644</v>
+        <f t="shared" si="28"/>
+        <v>74.245301813143513</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="21"/>
-        <v>80.231887188756474</v>
+        <f t="shared" si="28"/>
+        <v>64.24593456558209</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="21"/>
-        <v>70.234144236886493</v>
+        <f t="shared" si="28"/>
+        <v>54.246567318020681</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="21"/>
-        <v>55.237529809081551</v>
+        <f t="shared" si="28"/>
+        <v>39.247516446678553</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="21"/>
-        <v>47.139358018066879</v>
+        <f t="shared" si="28"/>
+        <v>31.148028976153807</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="21"/>
-        <v>41.040734817426205</v>
+        <f t="shared" si="28"/>
+        <v>25.04841495514134</v>
       </c>
       <c r="I79" s="1">
-        <f t="shared" si="21"/>
-        <v>34.942111616785525</v>
+        <f t="shared" si="28"/>
+        <v>18.948800934128879</v>
       </c>
       <c r="J79" s="1">
-        <f t="shared" si="21"/>
-        <v>28.843488416144851</v>
+        <f t="shared" si="28"/>
+        <v>12.849186913116412</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="21"/>
-        <v>22.744865215504156</v>
+        <f t="shared" si="28"/>
+        <v>6.7495728921039548</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" si="21"/>
-        <v>13.546941699783808</v>
+        <f t="shared" si="28"/>
+        <v>-2.4498449756525624</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="21"/>
-        <v>7.5482959286618163</v>
+        <f t="shared" si="28"/>
+        <v>-8.4494653241893989</v>
       </c>
       <c r="N79" s="1">
-        <f t="shared" si="21"/>
-        <v>4.3490181840634206</v>
+        <f t="shared" si="28"/>
+        <v>-11.64926284340906</v>
       </c>
       <c r="O79" s="1">
-        <f t="shared" si="21"/>
-        <v>1.3496952985024349</v>
+        <f t="shared" si="28"/>
+        <v>-14.649073017677479</v>
       </c>
       <c r="P79" s="1">
-        <f t="shared" si="21"/>
-        <v>4.7489279021382416</v>
+        <f t="shared" si="28"/>
+        <v>-20.748687038689926</v>
       </c>
       <c r="Q79" s="1">
-        <f t="shared" si="21"/>
-        <v>59.736514137423036</v>
+        <f t="shared" si="28"/>
+        <v>-75.745206900277722</v>
       </c>
       <c r="R79" s="1"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80">
+        <f t="shared" si="26"/>
         <v>1550</v>
       </c>
       <c r="B80" s="1">
-        <f t="shared" si="22"/>
-        <v>97.040592526587844</v>
+        <f t="shared" si="28"/>
+        <v>82.55727583767893</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="21"/>
-        <v>87.042849574717891</v>
+        <f t="shared" si="28"/>
+        <v>72.55790859011752</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="21"/>
-        <v>77.045106622847911</v>
+        <f t="shared" si="28"/>
+        <v>62.558541342556104</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="21"/>
-        <v>67.047363670977944</v>
+        <f t="shared" si="28"/>
+        <v>52.559174094994695</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="21"/>
-        <v>52.050749243172994</v>
+        <f t="shared" si="28"/>
+        <v>37.56012322365256</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="21"/>
-        <v>43.95257745215833</v>
+        <f t="shared" si="28"/>
+        <v>29.460635753127818</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" si="21"/>
-        <v>37.853954251517656</v>
+        <f t="shared" si="28"/>
+        <v>23.361021732115351</v>
       </c>
       <c r="I80" s="1">
-        <f t="shared" si="21"/>
-        <v>31.755331050876975</v>
+        <f t="shared" si="28"/>
+        <v>17.261407711102891</v>
       </c>
       <c r="J80" s="1">
-        <f t="shared" si="21"/>
-        <v>25.656707850236302</v>
+        <f t="shared" si="28"/>
+        <v>11.161793690090423</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" si="21"/>
-        <v>19.558084649595603</v>
+        <f t="shared" si="28"/>
+        <v>5.0621796690779668</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" si="21"/>
-        <v>10.360161133875257</v>
+        <f t="shared" si="28"/>
+        <v>-4.1372381986785518</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="21"/>
-        <v>4.3615153627532655</v>
+        <f t="shared" si="28"/>
+        <v>-10.136858547215386</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" si="21"/>
-        <v>1.1622376181548697</v>
+        <f t="shared" si="28"/>
+        <v>-13.336656066435049</v>
       </c>
       <c r="O80" s="1">
-        <f t="shared" si="21"/>
-        <v>1.837085267406116</v>
+        <f t="shared" si="28"/>
+        <v>-16.336466240703466</v>
       </c>
       <c r="P80" s="1">
-        <f t="shared" si="21"/>
-        <v>7.9357084680467924</v>
+        <f t="shared" si="28"/>
+        <v>-22.436080261715915</v>
       </c>
       <c r="Q80" s="1">
-        <f t="shared" si="21"/>
-        <v>62.923294703331585</v>
+        <f t="shared" si="28"/>
+        <v>-77.432600123303715</v>
       </c>
       <c r="R80" s="1"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81">
+        <f t="shared" si="26"/>
         <v>1700</v>
       </c>
       <c r="B81" s="1">
-        <f t="shared" si="22"/>
-        <v>93.853811960679295</v>
+        <f t="shared" si="28"/>
+        <v>80.869882614652937</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="21"/>
-        <v>83.856069008809328</v>
+        <f t="shared" si="28"/>
+        <v>70.870515367091528</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="21"/>
-        <v>73.858326056939362</v>
+        <f t="shared" si="28"/>
+        <v>60.871148119530119</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="21"/>
-        <v>63.860583105069395</v>
+        <f t="shared" si="28"/>
+        <v>50.871780871968703</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="21"/>
-        <v>48.863968677264445</v>
+        <f t="shared" si="28"/>
+        <v>35.872730000626575</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="21"/>
-        <v>40.765796886249781</v>
+        <f t="shared" si="28"/>
+        <v>27.773242530101829</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" si="21"/>
-        <v>34.6671736856091</v>
+        <f t="shared" si="28"/>
+        <v>21.673628509089362</v>
       </c>
       <c r="I81" s="1">
-        <f t="shared" si="21"/>
-        <v>28.568550484968426</v>
+        <f t="shared" si="28"/>
+        <v>15.574014488076903</v>
       </c>
       <c r="J81" s="1">
-        <f t="shared" si="21"/>
-        <v>22.469927284327749</v>
+        <f t="shared" si="28"/>
+        <v>9.4744004670644344</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" si="21"/>
-        <v>16.371304083687054</v>
+        <f t="shared" si="28"/>
+        <v>3.3747864460519774</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" si="21"/>
-        <v>7.1733805679667055</v>
+        <f t="shared" si="28"/>
+        <v>-5.8246314217045398</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" si="21"/>
-        <v>1.174734796844715</v>
+        <f t="shared" si="28"/>
+        <v>-11.824251770241375</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" si="21"/>
-        <v>2.0245429477536812</v>
+        <f t="shared" si="28"/>
+        <v>-15.024049289461038</v>
       </c>
       <c r="O81" s="1">
-        <f t="shared" si="21"/>
-        <v>5.0238658333146669</v>
+        <f t="shared" si="28"/>
+        <v>-18.023859463729455</v>
       </c>
       <c r="P81" s="1">
-        <f t="shared" si="21"/>
-        <v>11.122489033955343</v>
+        <f t="shared" si="28"/>
+        <v>-24.123473484741904</v>
       </c>
       <c r="Q81" s="1">
-        <f t="shared" si="21"/>
-        <v>66.110075269240141</v>
+        <f t="shared" si="28"/>
+        <v>-79.119993346329707</v>
       </c>
       <c r="R81" s="1"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82">
+        <f t="shared" si="26"/>
         <v>1800</v>
       </c>
       <c r="B82" s="1">
-        <f t="shared" si="22"/>
-        <v>91.729291583406919</v>
+        <f t="shared" si="28"/>
+        <v>79.74495379930228</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="21"/>
-        <v>81.731548631536967</v>
+        <f t="shared" si="28"/>
+        <v>69.745586551740871</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="21"/>
-        <v>71.733805679667</v>
+        <f t="shared" si="28"/>
+        <v>59.746219304179455</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="21"/>
-        <v>61.736062727797027</v>
+        <f t="shared" si="28"/>
+        <v>49.746852056618046</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="21"/>
-        <v>46.739448299992077</v>
+        <f t="shared" si="28"/>
+        <v>34.747801185275918</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="21"/>
-        <v>38.641276508977413</v>
+        <f t="shared" si="28"/>
+        <v>26.648313714751168</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" si="21"/>
-        <v>32.542653308336739</v>
+        <f t="shared" si="28"/>
+        <v>20.548699693738701</v>
       </c>
       <c r="I82" s="1">
-        <f t="shared" si="21"/>
-        <v>26.444030107696058</v>
+        <f t="shared" si="28"/>
+        <v>14.449085672726243</v>
       </c>
       <c r="J82" s="1">
-        <f t="shared" si="21"/>
-        <v>20.345406907055384</v>
+        <f t="shared" si="28"/>
+        <v>8.3494716517137757</v>
       </c>
       <c r="K82" s="1">
-        <f t="shared" si="21"/>
-        <v>14.246783706414687</v>
+        <f t="shared" si="28"/>
+        <v>2.2498576307013183</v>
       </c>
       <c r="L82" s="1">
-        <f t="shared" si="21"/>
-        <v>5.048860190694338</v>
+        <f t="shared" si="28"/>
+        <v>-6.9495602370551994</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" si="21"/>
-        <v>0.94978558042765227</v>
+        <f t="shared" si="28"/>
+        <v>-12.949180585592035</v>
       </c>
       <c r="N82" s="1">
-        <f t="shared" si="21"/>
-        <v>4.1490633250260487</v>
+        <f t="shared" si="28"/>
+        <v>-16.148978104811697</v>
       </c>
       <c r="O82" s="1">
-        <f t="shared" si="21"/>
-        <v>7.1483862105870344</v>
+        <f t="shared" si="28"/>
+        <v>-19.148788279080115</v>
       </c>
       <c r="P82" s="1">
-        <f t="shared" si="21"/>
-        <v>13.24700941122771</v>
+        <f t="shared" si="28"/>
+        <v>-25.248402300092561</v>
       </c>
       <c r="Q82" s="1">
-        <f t="shared" si="21"/>
-        <v>68.234595646512503</v>
+        <f t="shared" si="28"/>
+        <v>-80.244922161680364</v>
       </c>
       <c r="R82" s="1"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83">
+        <f t="shared" si="26"/>
         <v>2000</v>
       </c>
       <c r="B83" s="1">
-        <f t="shared" si="22"/>
-        <v>87.480250828862182</v>
+        <f t="shared" si="28"/>
+        <v>77.495096168600966</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="21"/>
-        <v>77.48250787699223</v>
+        <f t="shared" si="28"/>
+        <v>67.495728921039557</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="21"/>
-        <v>67.484764925122263</v>
+        <f t="shared" si="28"/>
+        <v>57.496361673478141</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="21"/>
-        <v>57.48702197325229</v>
+        <f t="shared" si="28"/>
+        <v>47.496994425916725</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="21"/>
-        <v>42.490407545447347</v>
+        <f t="shared" si="28"/>
+        <v>32.497943554574597</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="21"/>
-        <v>34.392235754432676</v>
+        <f t="shared" si="28"/>
+        <v>24.398456084049851</v>
       </c>
       <c r="H83" s="1">
-        <f t="shared" si="21"/>
-        <v>28.293612553792002</v>
+        <f t="shared" si="28"/>
+        <v>18.298842063037384</v>
       </c>
       <c r="I83" s="1">
-        <f t="shared" si="21"/>
-        <v>22.194989353151325</v>
+        <f t="shared" si="28"/>
+        <v>12.199228042024926</v>
       </c>
       <c r="J83" s="1">
-        <f t="shared" si="21"/>
-        <v>16.096366152510647</v>
+        <f t="shared" si="28"/>
+        <v>6.0996140210124477</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" si="21"/>
-        <v>9.9977429518699523</v>
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="L83" s="1">
-        <f t="shared" si="21"/>
-        <v>0.79981943614960394</v>
+        <f t="shared" si="28"/>
+        <v>-9.1994178677565177</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" si="21"/>
-        <v>5.1988263349723871</v>
+        <f t="shared" si="28"/>
+        <v>-15.199038216293353</v>
       </c>
       <c r="N83" s="1">
-        <f t="shared" si="21"/>
-        <v>8.3981040795707838</v>
+        <f t="shared" si="28"/>
+        <v>-18.398835735513014</v>
       </c>
       <c r="O83" s="1">
-        <f t="shared" si="21"/>
-        <v>11.397426965131769</v>
+        <f t="shared" si="28"/>
+        <v>-21.398645909781433</v>
       </c>
       <c r="P83" s="1">
-        <f t="shared" si="21"/>
-        <v>17.496050165772445</v>
+        <f t="shared" si="28"/>
+        <v>-27.498259930793882</v>
       </c>
       <c r="Q83" s="1">
-        <f t="shared" si="21"/>
-        <v>72.48363640105724</v>
+        <f t="shared" si="28"/>
+        <v>-82.494779792381678</v>
       </c>
       <c r="R83" s="1"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84">
+        <f t="shared" si="26"/>
         <v>2200</v>
       </c>
       <c r="B84" s="1">
-        <f t="shared" si="22"/>
-        <v>83.23121007431746</v>
+        <f t="shared" si="28"/>
+        <v>75.245238537899652</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="21"/>
-        <v>73.233467122447493</v>
+        <f t="shared" si="28"/>
+        <v>65.245871290338229</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="21"/>
-        <v>63.235724170577527</v>
+        <f t="shared" si="28"/>
+        <v>55.24650404277682</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="21"/>
-        <v>53.23798121870756</v>
+        <f t="shared" si="28"/>
+        <v>45.247136795215411</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="21"/>
-        <v>38.24136679090261</v>
+        <f t="shared" si="28"/>
+        <v>30.24808592387328</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="21"/>
-        <v>30.143194999887942</v>
+        <f t="shared" si="28"/>
+        <v>22.148598453348534</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" si="21"/>
-        <v>24.044571799247265</v>
+        <f t="shared" si="28"/>
+        <v>16.048984432336063</v>
       </c>
       <c r="I84" s="1">
-        <f t="shared" si="21"/>
-        <v>17.945948598606591</v>
+        <f t="shared" si="28"/>
+        <v>9.9493704113236063</v>
       </c>
       <c r="J84" s="1">
-        <f t="shared" si="21"/>
-        <v>11.847325397965914</v>
+        <f t="shared" si="28"/>
+        <v>3.8497563903111289</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" si="21"/>
-        <v>5.7487021973252173</v>
+        <f t="shared" si="28"/>
+        <v>-2.2498576307013183</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" si="21"/>
-        <v>3.4492213183951308</v>
+        <f t="shared" si="28"/>
+        <v>-11.449275498457837</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="21"/>
-        <v>9.4478670895171213</v>
+        <f t="shared" si="28"/>
+        <v>-17.44889584699467</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" si="21"/>
-        <v>12.647144834115517</v>
+        <f t="shared" si="28"/>
+        <v>-20.648693366214335</v>
       </c>
       <c r="O84" s="1">
-        <f t="shared" si="21"/>
-        <v>15.646467719676503</v>
+        <f t="shared" si="28"/>
+        <v>-23.64850354048275</v>
       </c>
       <c r="P84" s="1">
-        <f t="shared" si="21"/>
-        <v>21.745090920317178</v>
+        <f t="shared" si="28"/>
+        <v>-29.748117561495199</v>
       </c>
       <c r="Q84" s="1">
-        <f t="shared" si="21"/>
-        <v>76.732677155601976</v>
+        <f t="shared" si="28"/>
+        <v>-84.744637423083006</v>
       </c>
       <c r="R84" s="1"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85">
+        <f t="shared" si="26"/>
         <v>2400</v>
       </c>
       <c r="B85" s="1">
-        <f t="shared" si="22"/>
-        <v>78.982169319772723</v>
+        <f t="shared" si="28"/>
+        <v>72.995380907198324</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="21"/>
-        <v>68.984426367902756</v>
+        <f t="shared" si="28"/>
+        <v>62.996013659636915</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="21"/>
-        <v>58.986683416032797</v>
+        <f t="shared" si="28"/>
+        <v>52.996646412075499</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="21"/>
-        <v>48.988940464162823</v>
+        <f t="shared" si="28"/>
+        <v>42.99727916451409</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="21"/>
-        <v>33.992326036357873</v>
+        <f t="shared" si="28"/>
+        <v>27.998228293171959</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="21"/>
-        <v>25.894154245343209</v>
+        <f t="shared" si="28"/>
+        <v>19.898740822647213</v>
       </c>
       <c r="H85" s="1">
-        <f t="shared" si="21"/>
-        <v>19.795531044702532</v>
+        <f t="shared" si="28"/>
+        <v>13.799126801634745</v>
       </c>
       <c r="I85" s="1">
-        <f t="shared" si="21"/>
-        <v>13.696907844061856</v>
+        <f t="shared" si="28"/>
+        <v>7.6995127806222783</v>
       </c>
       <c r="J85" s="1">
-        <f t="shared" si="21"/>
-        <v>7.598284643421179</v>
+        <f t="shared" si="28"/>
+        <v>1.5998987596098104</v>
       </c>
       <c r="K85" s="1">
-        <f t="shared" si="21"/>
-        <v>1.4996614427804831</v>
+        <f t="shared" si="28"/>
+        <v>-4.4997152614026366</v>
       </c>
       <c r="L85" s="1">
-        <f t="shared" si="21"/>
-        <v>7.6982620729398654</v>
+        <f t="shared" si="28"/>
+        <v>-13.699133129159154</v>
       </c>
       <c r="M85" s="1">
-        <f t="shared" si="21"/>
-        <v>13.696907844061856</v>
+        <f t="shared" si="28"/>
+        <v>-19.698753477695991</v>
       </c>
       <c r="N85" s="1">
-        <f t="shared" si="21"/>
-        <v>16.896185588660252</v>
+        <f t="shared" si="28"/>
+        <v>-22.898550996915652</v>
       </c>
       <c r="O85" s="1">
-        <f t="shared" si="21"/>
-        <v>19.895508474221238</v>
+        <f t="shared" si="28"/>
+        <v>-25.898361171184071</v>
       </c>
       <c r="P85" s="1">
-        <f t="shared" si="21"/>
-        <v>25.994131674861915</v>
+        <f t="shared" si="28"/>
+        <v>-31.997975192196517</v>
       </c>
       <c r="Q85" s="1">
-        <f t="shared" si="21"/>
-        <v>80.981717910146713</v>
+        <f t="shared" si="28"/>
+        <v>-86.99449505378432</v>
       </c>
       <c r="R85" s="1"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86">
+        <f t="shared" si="26"/>
         <v>2600</v>
       </c>
       <c r="B86" s="1">
-        <f t="shared" si="22"/>
-        <v>74.733128565227986</v>
+        <f t="shared" si="28"/>
+        <v>70.745523276497011</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="21"/>
-        <v>64.735385613358019</v>
+        <f t="shared" si="28"/>
+        <v>60.746156028935594</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="21"/>
-        <v>54.73764266148806</v>
+        <f t="shared" si="28"/>
+        <v>50.746788781374185</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="21"/>
-        <v>44.739899709618086</v>
+        <f t="shared" si="28"/>
+        <v>40.747421533812769</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="21"/>
-        <v>29.74328528181314</v>
+        <f t="shared" si="28"/>
+        <v>25.748370662470641</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="21"/>
-        <v>21.645113490798476</v>
+        <f t="shared" si="28"/>
+        <v>17.648883191945895</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" si="21"/>
-        <v>15.546490290157799</v>
+        <f t="shared" si="28"/>
+        <v>11.549269170933428</v>
       </c>
       <c r="I86" s="1">
-        <f t="shared" si="21"/>
-        <v>9.4478670895171213</v>
+        <f t="shared" si="28"/>
+        <v>5.44965514992096</v>
       </c>
       <c r="J86" s="1">
-        <f t="shared" si="21"/>
-        <v>3.3492438888764444</v>
+        <f t="shared" si="28"/>
+        <v>-0.64995887109150785</v>
       </c>
       <c r="K86" s="1">
-        <f t="shared" si="21"/>
-        <v>2.7493793117642511</v>
+        <f t="shared" si="28"/>
+        <v>-6.7495728921039548</v>
       </c>
       <c r="L86" s="1">
-        <f t="shared" si="21"/>
-        <v>11.947302827484599</v>
+        <f t="shared" si="28"/>
+        <v>-15.948990759860473</v>
       </c>
       <c r="M86" s="1">
-        <f t="shared" si="21"/>
-        <v>17.945948598606591</v>
+        <f t="shared" si="28"/>
+        <v>-21.948611108397309</v>
       </c>
       <c r="N86" s="1">
-        <f t="shared" si="21"/>
-        <v>21.145226343204985</v>
+        <f t="shared" si="28"/>
+        <v>-25.14840862761697</v>
       </c>
       <c r="O86" s="1">
-        <f t="shared" si="21"/>
-        <v>24.144549228765971</v>
+        <f t="shared" si="28"/>
+        <v>-28.148218801885388</v>
       </c>
       <c r="P86" s="1">
-        <f t="shared" si="21"/>
-        <v>30.243172429406648</v>
+        <f t="shared" si="28"/>
+        <v>-34.247832822897834</v>
       </c>
       <c r="Q86" s="1">
-        <f t="shared" si="21"/>
-        <v>85.23075866469145</v>
+        <f t="shared" si="28"/>
+        <v>-89.244352684485634</v>
       </c>
       <c r="R86" s="1"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87">
+        <f t="shared" si="26"/>
         <v>2800</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" si="22"/>
-        <v>70.484087810683249</v>
+        <f t="shared" si="28"/>
+        <v>68.495665645795697</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="21"/>
-        <v>60.48634485881329</v>
+        <f t="shared" si="28"/>
+        <v>58.496298398234281</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="21"/>
-        <v>50.488601906943323</v>
+        <f t="shared" si="28"/>
+        <v>48.496931150672864</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="21"/>
-        <v>40.490858955073357</v>
+        <f t="shared" si="28"/>
+        <v>38.497563903111455</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="21"/>
-        <v>25.494244527268407</v>
+        <f t="shared" si="28"/>
+        <v>23.498513031769324</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="21"/>
-        <v>17.396072736253739</v>
+        <f t="shared" si="28"/>
+        <v>15.399025561244578</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" si="21"/>
-        <v>11.297449535613064</v>
+        <f t="shared" si="28"/>
+        <v>9.2994115402321089</v>
       </c>
       <c r="I87" s="1">
-        <f t="shared" si="21"/>
-        <v>5.1988263349723871</v>
+        <f t="shared" si="28"/>
+        <v>3.1997975192196413</v>
       </c>
       <c r="J87" s="1">
-        <f t="shared" si="21"/>
-        <v>0.89979686566828987</v>
+        <f t="shared" si="28"/>
+        <v>-2.8998165017928264</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" si="21"/>
-        <v>6.9984200663089862</v>
+        <f t="shared" si="28"/>
+        <v>-8.9994305228052731</v>
       </c>
       <c r="L87" s="1">
-        <f t="shared" si="21"/>
-        <v>16.196343582029336</v>
+        <f t="shared" si="28"/>
+        <v>-18.198848390561793</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" si="21"/>
-        <v>22.194989353151325</v>
+        <f t="shared" si="28"/>
+        <v>-24.198468739098626</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" si="21"/>
-        <v>25.394267097749722</v>
+        <f t="shared" si="28"/>
+        <v>-27.398266258318287</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" si="21"/>
-        <v>28.393589983310708</v>
+        <f t="shared" si="28"/>
+        <v>-30.398076432586706</v>
       </c>
       <c r="P87" s="1">
-        <f t="shared" si="21"/>
-        <v>34.492213183951385</v>
+        <f t="shared" si="28"/>
+        <v>-36.497690453599155</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" si="21"/>
-        <v>89.479799419236173</v>
+        <f t="shared" si="28"/>
+        <v>-91.494210315186962</v>
       </c>
       <c r="R87" s="1"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88">
+        <f t="shared" si="26"/>
         <v>2900</v>
       </c>
       <c r="B88" s="1">
-        <f t="shared" si="22"/>
-        <v>68.359567433410888</v>
+        <f t="shared" si="28"/>
+        <v>67.370736830445026</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="21"/>
-        <v>58.361824481540921</v>
+        <f t="shared" si="28"/>
+        <v>57.371369582883617</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="21"/>
-        <v>48.364081529670962</v>
+        <f t="shared" si="28"/>
+        <v>47.372002335322208</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="21"/>
-        <v>38.366338577800988</v>
+        <f t="shared" si="28"/>
+        <v>37.372635087760791</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="21"/>
-        <v>23.369724149996038</v>
+        <f t="shared" si="28"/>
+        <v>22.373584216418664</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="21"/>
-        <v>15.271552358981372</v>
+        <f t="shared" si="28"/>
+        <v>14.274096745893917</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" si="21"/>
-        <v>9.1729291583406969</v>
+        <f t="shared" si="28"/>
+        <v>8.1744827248814502</v>
       </c>
       <c r="I88" s="1">
-        <f t="shared" si="21"/>
-        <v>3.0743059577000196</v>
+        <f t="shared" si="28"/>
+        <v>2.0748687038689821</v>
       </c>
       <c r="J88" s="1">
-        <f t="shared" si="21"/>
-        <v>3.0243172429406573</v>
+        <f t="shared" si="28"/>
+        <v>-4.0247453171434859</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" si="21"/>
-        <v>9.1229404435813528</v>
+        <f t="shared" si="28"/>
+        <v>-10.124359338155934</v>
       </c>
       <c r="L88" s="1">
-        <f t="shared" si="21"/>
-        <v>18.3208639593017</v>
+        <f t="shared" si="28"/>
+        <v>-19.32377720591245</v>
       </c>
       <c r="M88" s="1">
-        <f t="shared" si="21"/>
-        <v>24.319509730423693</v>
+        <f t="shared" si="28"/>
+        <v>-25.323397554449286</v>
       </c>
       <c r="N88" s="1">
-        <f t="shared" si="21"/>
-        <v>27.518787475022087</v>
+        <f t="shared" si="28"/>
+        <v>-28.523195073668948</v>
       </c>
       <c r="O88" s="1">
-        <f t="shared" si="21"/>
-        <v>30.518110360583073</v>
+        <f t="shared" si="28"/>
+        <v>-31.523005247937366</v>
       </c>
       <c r="P88" s="1">
-        <f t="shared" si="21"/>
-        <v>36.616733561223754</v>
+        <f t="shared" si="28"/>
+        <v>-37.622619268949812</v>
       </c>
       <c r="Q88" s="1">
-        <f t="shared" si="21"/>
-        <v>91.604319796508548</v>
+        <f t="shared" si="28"/>
+        <v>-92.619139130537619</v>
       </c>
       <c r="R88" s="1"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89">
+        <f t="shared" si="26"/>
         <v>3000</v>
       </c>
       <c r="B89" s="1">
-        <f t="shared" si="22"/>
-        <v>66.235047056138512</v>
+        <f t="shared" si="28"/>
+        <v>66.245808015094369</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="21"/>
-        <v>56.237304104268553</v>
+        <f t="shared" si="28"/>
+        <v>56.24644076753296</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="21"/>
-        <v>46.239561152398593</v>
+        <f t="shared" si="28"/>
+        <v>46.247073519971551</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="21"/>
-        <v>36.24181820052862</v>
+        <f t="shared" si="28"/>
+        <v>36.247706272410134</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="21"/>
-        <v>21.245203772723674</v>
+        <f t="shared" si="28"/>
+        <v>21.248655401068007</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="21"/>
-        <v>13.147031981709006</v>
+        <f t="shared" si="28"/>
+        <v>13.149167930543259</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" si="21"/>
-        <v>7.0484087810683285</v>
+        <f t="shared" si="28"/>
+        <v>7.0495539095307906</v>
       </c>
       <c r="I89" s="1">
-        <f t="shared" si="21"/>
-        <v>0.94978558042765227</v>
+        <f t="shared" si="28"/>
+        <v>0.94993988851832312</v>
       </c>
       <c r="J89" s="1">
-        <f t="shared" si="21"/>
-        <v>5.1488376202130244</v>
+        <f t="shared" si="28"/>
+        <v>-5.1496741324941446</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="21"/>
-        <v>11.247460820853719</v>
+        <f t="shared" si="28"/>
+        <v>-11.249288153506592</v>
       </c>
       <c r="L89" s="1">
-        <f t="shared" si="21"/>
-        <v>20.445384336574069</v>
+        <f t="shared" si="28"/>
+        <v>-20.44870602126311</v>
       </c>
       <c r="M89" s="1">
-        <f t="shared" si="21"/>
-        <v>26.444030107696058</v>
+        <f t="shared" si="28"/>
+        <v>-26.448326369799947</v>
       </c>
       <c r="N89" s="1">
-        <f t="shared" si="21"/>
-        <v>29.643307852294456</v>
+        <f t="shared" si="28"/>
+        <v>-29.648123889019608</v>
       </c>
       <c r="O89" s="1">
-        <f t="shared" si="21"/>
-        <v>32.642630737855441</v>
+        <f t="shared" si="28"/>
+        <v>-32.647934063288027</v>
       </c>
       <c r="P89" s="1">
-        <f t="shared" si="21"/>
-        <v>38.741253938496115</v>
+        <f t="shared" si="28"/>
+        <v>-38.747548084300469</v>
       </c>
       <c r="Q89" s="1">
-        <f t="shared" si="21"/>
-        <v>93.72884017378091</v>
+        <f t="shared" si="28"/>
+        <v>-93.744067945888276</v>
       </c>
       <c r="R89" s="1"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90">
+        <f t="shared" si="26"/>
         <v>3200</v>
       </c>
       <c r="B90" s="1">
-        <f t="shared" si="22"/>
-        <v>61.986006301593783</v>
+        <f t="shared" si="28"/>
+        <v>63.995950384393055</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="22"/>
-        <v>51.988263349723816</v>
+        <f t="shared" si="28"/>
+        <v>53.996583136831639</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" si="22"/>
-        <v>41.990520397853857</v>
+        <f t="shared" si="28"/>
+        <v>43.99721588927023</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="22"/>
-        <v>31.992777445983887</v>
+        <f t="shared" si="28"/>
+        <v>33.997848641708813</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="22"/>
-        <v>16.996163018178937</v>
+        <f t="shared" si="28"/>
+        <v>18.998797770366686</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="22"/>
-        <v>8.8979912271642707</v>
+        <f t="shared" si="28"/>
+        <v>10.89931029984194</v>
       </c>
       <c r="H90" s="1">
-        <f t="shared" si="22"/>
-        <v>2.7993680265235943</v>
+        <f t="shared" si="28"/>
+        <v>4.7996962788294724</v>
       </c>
       <c r="I90" s="1">
-        <f t="shared" si="22"/>
-        <v>3.2992551741170821</v>
+        <f t="shared" si="28"/>
+        <v>-1.2999177421829953</v>
       </c>
       <c r="J90" s="1">
-        <f t="shared" si="22"/>
-        <v>9.3978783747577594</v>
+        <f t="shared" si="28"/>
+        <v>-7.3995317631954629</v>
       </c>
       <c r="K90" s="1">
-        <f t="shared" si="22"/>
-        <v>15.496501575398455</v>
+        <f t="shared" si="28"/>
+        <v>-13.49914578420791</v>
       </c>
       <c r="L90" s="1">
-        <f t="shared" si="22"/>
-        <v>24.694425091118802</v>
+        <f t="shared" si="28"/>
+        <v>-22.698563651964427</v>
       </c>
       <c r="M90" s="1">
-        <f t="shared" si="22"/>
-        <v>30.693070862240795</v>
+        <f t="shared" si="28"/>
+        <v>-28.698184000501264</v>
       </c>
       <c r="N90" s="1">
-        <f t="shared" si="22"/>
-        <v>33.892348606839192</v>
+        <f t="shared" si="28"/>
+        <v>-31.897981519720926</v>
       </c>
       <c r="O90" s="1">
-        <f t="shared" si="22"/>
-        <v>36.891671492400178</v>
+        <f t="shared" ref="C90:Q92" si="29">($U$53*O$73-$A90-$U$53*$T$50+$U$50)/SQRT($U$53^2+1)</f>
+        <v>-34.89779169398934</v>
       </c>
       <c r="P90" s="1">
-        <f t="shared" si="22"/>
-        <v>42.990294693040852</v>
+        <f t="shared" si="29"/>
+        <v>-40.99740571500179</v>
       </c>
       <c r="Q90" s="1">
-        <f t="shared" si="22"/>
-        <v>97.977880928325646</v>
+        <f t="shared" si="29"/>
+        <v>-95.993925576589589</v>
       </c>
       <c r="R90" s="1"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91">
+        <f t="shared" si="26"/>
         <v>3500</v>
       </c>
       <c r="B91" s="1">
-        <f t="shared" si="22"/>
-        <v>55.612445169776677</v>
+        <f t="shared" si="28"/>
+        <v>60.621163938341077</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="22"/>
-        <v>45.614702217906718</v>
+        <f t="shared" si="29"/>
+        <v>50.621796690779661</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" si="22"/>
-        <v>35.616959266036758</v>
+        <f t="shared" si="29"/>
+        <v>40.622429443218252</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="22"/>
-        <v>25.619216314166785</v>
+        <f t="shared" si="29"/>
+        <v>30.623062195656839</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="22"/>
-        <v>10.622601886361837</v>
+        <f t="shared" si="29"/>
+        <v>15.62401132431471</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="22"/>
-        <v>2.524430095347169</v>
+        <f t="shared" si="29"/>
+        <v>7.5245238537899626</v>
       </c>
       <c r="H91" s="1">
-        <f t="shared" si="22"/>
-        <v>3.5741931052935074</v>
+        <f t="shared" si="29"/>
+        <v>1.4249098327774949</v>
       </c>
       <c r="I91" s="1">
-        <f t="shared" si="22"/>
-        <v>9.6728163059341838</v>
+        <f t="shared" si="29"/>
+        <v>-4.6747041882349727</v>
       </c>
       <c r="J91" s="1">
-        <f t="shared" si="22"/>
-        <v>15.771439506574861</v>
+        <f t="shared" si="29"/>
+        <v>-10.77431820924744</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" si="22"/>
-        <v>21.870062707215556</v>
+        <f t="shared" si="29"/>
+        <v>-16.873932230259889</v>
       </c>
       <c r="L91" s="1">
-        <f t="shared" si="22"/>
-        <v>31.067986222935904</v>
+        <f t="shared" si="29"/>
+        <v>-26.073350098016405</v>
       </c>
       <c r="M91" s="1">
-        <f t="shared" si="22"/>
-        <v>37.066631994057893</v>
+        <f t="shared" si="29"/>
+        <v>-32.072970446553242</v>
       </c>
       <c r="N91" s="1">
-        <f t="shared" si="22"/>
-        <v>40.265909738656291</v>
+        <f t="shared" si="29"/>
+        <v>-35.2727679657729</v>
       </c>
       <c r="O91" s="1">
-        <f t="shared" si="22"/>
-        <v>43.265232624217276</v>
+        <f t="shared" si="29"/>
+        <v>-38.272578140041318</v>
       </c>
       <c r="P91" s="1">
-        <f t="shared" si="22"/>
-        <v>49.363855824857957</v>
+        <f t="shared" si="29"/>
+        <v>-44.372192161053768</v>
       </c>
       <c r="Q91" s="1">
-        <f t="shared" si="22"/>
-        <v>104.35144206014274</v>
+        <f t="shared" si="29"/>
+        <v>-99.368712022641574</v>
       </c>
       <c r="R91" s="1"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92">
+        <f t="shared" si="26"/>
         <v>4000</v>
       </c>
       <c r="B92" s="1">
-        <f t="shared" si="22"/>
-        <v>44.989843283414842</v>
+        <f t="shared" si="28"/>
+        <v>54.996519861587778</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="22"/>
-        <v>34.992100331544869</v>
+        <f t="shared" si="29"/>
+        <v>44.997152614026369</v>
       </c>
       <c r="D92" s="1">
-        <f t="shared" si="22"/>
-        <v>24.99435737967492</v>
+        <f t="shared" si="29"/>
+        <v>34.997785366464953</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" si="22"/>
-        <v>14.996614427804948</v>
+        <f t="shared" si="29"/>
+        <v>24.998418118903544</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>9.9993672475614126</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="22"/>
-        <v>8.0981717910146678</v>
+        <f t="shared" si="29"/>
+        <v>1.8998797770366667</v>
       </c>
       <c r="H92" s="1">
-        <f t="shared" si="22"/>
-        <v>14.196794991655343</v>
+        <f t="shared" si="29"/>
+        <v>-4.1997342439758008</v>
       </c>
       <c r="I92" s="1">
-        <f t="shared" si="22"/>
-        <v>20.295418192296019</v>
+        <f t="shared" si="29"/>
+        <v>-10.29934826498827</v>
       </c>
       <c r="J92" s="1">
-        <f t="shared" si="22"/>
-        <v>26.394041392936696</v>
+        <f t="shared" si="29"/>
+        <v>-16.398962286000735</v>
       </c>
       <c r="K92" s="1">
-        <f t="shared" si="22"/>
-        <v>32.492664593577395</v>
+        <f t="shared" si="29"/>
+        <v>-22.498576307013185</v>
       </c>
       <c r="L92" s="1">
-        <f t="shared" si="22"/>
-        <v>41.690588109297742</v>
+        <f t="shared" si="29"/>
+        <v>-31.6979941747697</v>
       </c>
       <c r="M92" s="1">
-        <f t="shared" si="22"/>
-        <v>47.689233880419749</v>
+        <f t="shared" si="29"/>
+        <v>-37.697614523306534</v>
       </c>
       <c r="N92" s="1">
-        <f t="shared" si="22"/>
-        <v>50.888511625018126</v>
+        <f t="shared" si="29"/>
+        <v>-40.897412042526199</v>
       </c>
       <c r="O92" s="1">
-        <f t="shared" si="22"/>
-        <v>53.887834510579133</v>
+        <f t="shared" si="29"/>
+        <v>-43.897222216794617</v>
       </c>
       <c r="P92" s="1">
-        <f t="shared" si="22"/>
-        <v>59.986457711219792</v>
+        <f t="shared" si="29"/>
+        <v>-49.996836237807067</v>
       </c>
       <c r="Q92" s="1">
-        <f t="shared" si="22"/>
-        <v>114.97404394650458</v>
+        <f t="shared" si="29"/>
+        <v>-104.99335609939486</v>
       </c>
       <c r="R92" s="1"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -5701,12 +5718,12 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -5714,461 +5731,1414 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>3</v>
       </c>
       <c r="B96">
+        <f t="shared" ref="B96:Q96" si="30">B3</f>
         <v>0</v>
       </c>
       <c r="C96">
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="D96">
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="E96">
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
       <c r="F96">
+        <f t="shared" si="30"/>
         <v>45</v>
       </c>
       <c r="G96">
+        <f t="shared" si="30"/>
         <v>53.1</v>
       </c>
       <c r="H96">
+        <f t="shared" si="30"/>
         <v>59.2</v>
       </c>
       <c r="I96">
+        <f t="shared" si="30"/>
         <v>65.3</v>
       </c>
       <c r="J96">
+        <f t="shared" si="30"/>
         <v>71.400000000000006</v>
       </c>
       <c r="K96">
+        <f t="shared" si="30"/>
         <v>77.5</v>
       </c>
       <c r="L96">
+        <f t="shared" si="30"/>
         <v>86.7</v>
       </c>
       <c r="M96">
+        <f t="shared" si="30"/>
         <v>92.7</v>
       </c>
       <c r="N96">
+        <f t="shared" si="30"/>
         <v>95.9</v>
       </c>
       <c r="O96">
+        <f t="shared" si="30"/>
         <v>98.9</v>
       </c>
       <c r="P96">
+        <f t="shared" si="30"/>
         <v>105</v>
       </c>
       <c r="Q96">
+        <f t="shared" si="30"/>
         <v>160</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97">
+        <f t="shared" ref="A97:A115" si="31">A4</f>
         <v>620</v>
       </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B97" s="1">
+        <f>IF(ABS(B74)&gt;=$T$97,B50,(B74+$T$97)*(B4-B27)/($T$97*2)+B27)</f>
+        <v>-4</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" ref="C97:Q97" si="32">IF(ABS(C74)&gt;=$T$97,C50,(C74+$T$97)*(C4-C27)/($T$97*2)+C27)</f>
+        <v>-4</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="32"/>
+        <v>-4</v>
+      </c>
+      <c r="E97" s="1">
+        <f t="shared" si="32"/>
+        <v>-4</v>
+      </c>
+      <c r="F97" s="1">
+        <f t="shared" si="32"/>
+        <v>-8.5</v>
+      </c>
+      <c r="G97" s="1">
+        <f t="shared" si="32"/>
+        <v>-13</v>
+      </c>
+      <c r="H97" s="1">
+        <f t="shared" si="32"/>
+        <v>-13</v>
+      </c>
+      <c r="I97" s="1">
+        <f t="shared" si="32"/>
+        <v>-13</v>
+      </c>
+      <c r="J97" s="1">
+        <f t="shared" si="32"/>
+        <v>-13</v>
+      </c>
+      <c r="K97" s="1">
+        <f t="shared" si="32"/>
+        <v>-12.03125</v>
+      </c>
+      <c r="L97" s="1">
+        <f t="shared" si="32"/>
+        <v>-7.7023062297577418</v>
+      </c>
+      <c r="M97" s="1">
+        <f t="shared" si="32"/>
+        <v>-2.9087953119831842</v>
+      </c>
+      <c r="N97" s="1">
+        <f t="shared" si="32"/>
+        <v>-3.8082950695308222</v>
+      </c>
+      <c r="O97" s="1">
+        <f t="shared" si="32"/>
+        <v>-4.6117077911754567</v>
+      </c>
+      <c r="P97" s="1">
+        <f t="shared" si="32"/>
+        <v>-5.5859379999999996</v>
+      </c>
+      <c r="Q97" s="1">
+        <f t="shared" si="32"/>
+        <v>-4.296875</v>
+      </c>
+      <c r="T97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98">
+        <f t="shared" si="31"/>
         <v>650</v>
       </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B98" s="1">
+        <f t="shared" ref="B98:Q115" si="33">IF(ABS(B75)&gt;=$T$97,B51,(B75+$T$97)*(B5-B28)/($T$97*2)+B28)</f>
+        <v>-4</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="33"/>
+        <v>-4</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="33"/>
+        <v>-4</v>
+      </c>
+      <c r="E98" s="1">
+        <f t="shared" si="33"/>
+        <v>-4</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" si="33"/>
+        <v>-8.5</v>
+      </c>
+      <c r="G98" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="H98" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="I98" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="J98" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="K98" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="L98" s="1">
+        <f t="shared" si="33"/>
+        <v>-11.606465214773298</v>
+      </c>
+      <c r="M98" s="1">
+        <f t="shared" si="33"/>
+        <v>-9.4056694795602773</v>
+      </c>
+      <c r="N98" s="1">
+        <f t="shared" si="33"/>
+        <v>-8.1795761155419164</v>
+      </c>
+      <c r="O98" s="1">
+        <f t="shared" si="33"/>
+        <v>-6.9901217136942311</v>
+      </c>
+      <c r="P98" s="1">
+        <f t="shared" si="33"/>
+        <v>-5.3515629999999996</v>
+      </c>
+      <c r="Q98" s="1">
+        <f t="shared" si="33"/>
+        <v>-3.9453130000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99">
+        <f t="shared" si="31"/>
         <v>800</v>
       </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B99" s="1">
+        <f t="shared" si="33"/>
+        <v>-4</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="33"/>
+        <v>-4</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="33"/>
+        <v>-4</v>
+      </c>
+      <c r="E99" s="1">
+        <f t="shared" si="33"/>
+        <v>-4</v>
+      </c>
+      <c r="F99" s="1">
+        <f t="shared" si="33"/>
+        <v>-8.5</v>
+      </c>
+      <c r="G99" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="H99" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="I99" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="J99" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="K99" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="L99" s="1">
+        <f t="shared" si="33"/>
+        <v>-10.653091103101472</v>
+      </c>
+      <c r="M99" s="1">
+        <f t="shared" si="33"/>
+        <v>-8.114381148005382</v>
+      </c>
+      <c r="N99" s="1">
+        <f t="shared" si="33"/>
+        <v>-6.6909125362442445</v>
+      </c>
+      <c r="O99" s="1">
+        <f t="shared" si="33"/>
+        <v>-5.3158009795166823</v>
+      </c>
+      <c r="P99" s="1">
+        <f t="shared" si="33"/>
+        <v>-4.1796879999999996</v>
+      </c>
+      <c r="Q99" s="1">
+        <f t="shared" si="33"/>
+        <v>-2.1875</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100">
+        <f t="shared" si="31"/>
         <v>1000</v>
       </c>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B100" s="1">
+        <f t="shared" si="33"/>
+        <v>-4</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="33"/>
+        <v>-4</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="33"/>
+        <v>-4</v>
+      </c>
+      <c r="E100" s="1">
+        <f t="shared" si="33"/>
+        <v>-4</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" si="33"/>
+        <v>-8.5</v>
+      </c>
+      <c r="G100" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="H100" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="I100" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="J100" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="K100" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="L100" s="1">
+        <f t="shared" si="33"/>
+        <v>-9.1212064436367761</v>
+      </c>
+      <c r="M100" s="1">
+        <f t="shared" si="33"/>
+        <v>-6.1123109064990366</v>
+      </c>
+      <c r="N100" s="1">
+        <f t="shared" si="33"/>
+        <v>-4.3314396206576902</v>
+      </c>
+      <c r="O100" s="1">
+        <f t="shared" si="33"/>
+        <v>-2.7734380000000001</v>
+      </c>
+      <c r="P100" s="1">
+        <f t="shared" si="33"/>
+        <v>-2.65625</v>
+      </c>
+      <c r="Q100" s="1">
+        <f t="shared" si="33"/>
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101">
+        <f t="shared" si="31"/>
         <v>1200</v>
       </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B101" s="1">
+        <f t="shared" si="33"/>
+        <v>-1.015625</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="33"/>
+        <v>-1.484375</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="33"/>
+        <v>-2.5390630000000001</v>
+      </c>
+      <c r="E101" s="1">
+        <f t="shared" si="33"/>
+        <v>-3.59375</v>
+      </c>
+      <c r="F101" s="1">
+        <f t="shared" si="33"/>
+        <v>-5.5341800000000001</v>
+      </c>
+      <c r="G101" s="1">
+        <f t="shared" si="33"/>
+        <v>-11.445313000000001</v>
+      </c>
+      <c r="H101" s="1">
+        <f t="shared" si="33"/>
+        <v>-12</v>
+      </c>
+      <c r="I101" s="1">
+        <f t="shared" si="33"/>
+        <v>-12</v>
+      </c>
+      <c r="J101" s="1">
+        <f t="shared" si="33"/>
+        <v>-12</v>
+      </c>
+      <c r="K101" s="1">
+        <f t="shared" si="33"/>
+        <v>-11.514958337046012</v>
+      </c>
+      <c r="L101" s="1">
+        <f t="shared" si="33"/>
+        <v>-6.8761001071846479</v>
+      </c>
+      <c r="M101" s="1">
+        <f t="shared" si="33"/>
+        <v>-3.5774699987274445</v>
+      </c>
+      <c r="N101" s="1">
+        <f t="shared" si="33"/>
+        <v>-1.6864885730729289</v>
+      </c>
+      <c r="O101" s="1">
+        <f t="shared" si="33"/>
+        <v>-1.25</v>
+      </c>
+      <c r="P101" s="1">
+        <f t="shared" si="33"/>
+        <v>-1.015625</v>
+      </c>
+      <c r="Q101" s="1">
+        <f t="shared" si="33"/>
+        <v>2.3828130000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102">
+        <f t="shared" si="31"/>
         <v>1400</v>
       </c>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B102" s="1">
+        <f t="shared" si="33"/>
+        <v>3.4960939999999998</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="33"/>
+        <v>3.203125</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="33"/>
+        <v>2.3242189999999998</v>
+      </c>
+      <c r="E102" s="1">
+        <f t="shared" si="33"/>
+        <v>1.6796880000000001</v>
+      </c>
+      <c r="F102" s="1">
+        <f t="shared" si="33"/>
+        <v>-2.5683600000000002</v>
+      </c>
+      <c r="G102" s="1">
+        <f t="shared" si="33"/>
+        <v>-6.4941409999999999</v>
+      </c>
+      <c r="H102" s="1">
+        <f t="shared" si="33"/>
+        <v>-10</v>
+      </c>
+      <c r="I102" s="1">
+        <f t="shared" si="33"/>
+        <v>-10</v>
+      </c>
+      <c r="J102" s="1">
+        <f t="shared" si="33"/>
+        <v>-10</v>
+      </c>
+      <c r="K102" s="1">
+        <f t="shared" si="33"/>
+        <v>-8.5398471976248249</v>
+      </c>
+      <c r="L102" s="1">
+        <f t="shared" si="33"/>
+        <v>-4.1155029607267188</v>
+      </c>
+      <c r="M102" s="1">
+        <f t="shared" si="33"/>
+        <v>-0.84733556182791536</v>
+      </c>
+      <c r="N102" s="1">
+        <f t="shared" si="33"/>
+        <v>3.9063000000000001E-2</v>
+      </c>
+      <c r="O102" s="1">
+        <f t="shared" si="33"/>
+        <v>0.15625</v>
+      </c>
+      <c r="P102" s="1">
+        <f t="shared" si="33"/>
+        <v>0.625</v>
+      </c>
+      <c r="Q102" s="1">
+        <f t="shared" si="33"/>
+        <v>4.4921879999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103">
+        <f t="shared" si="31"/>
         <v>1550</v>
       </c>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="1"/>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B103" s="1">
+        <f t="shared" si="33"/>
+        <v>6.6</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="33"/>
+        <v>7.890625</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="33"/>
+        <v>7.1875</v>
+      </c>
+      <c r="E103" s="1">
+        <f t="shared" si="33"/>
+        <v>6.953125</v>
+      </c>
+      <c r="F103" s="1">
+        <f t="shared" si="33"/>
+        <v>3.0273439999999998</v>
+      </c>
+      <c r="G103" s="1">
+        <f t="shared" si="33"/>
+        <v>-1.542969</v>
+      </c>
+      <c r="H103" s="1">
+        <f t="shared" si="33"/>
+        <v>-10</v>
+      </c>
+      <c r="I103" s="1">
+        <f t="shared" si="33"/>
+        <v>-10</v>
+      </c>
+      <c r="J103" s="1">
+        <f t="shared" si="33"/>
+        <v>-10</v>
+      </c>
+      <c r="K103" s="1">
+        <f t="shared" si="33"/>
+        <v>-7.5214455307596442</v>
+      </c>
+      <c r="L103" s="1">
+        <f t="shared" si="33"/>
+        <v>-2.4895922069520191</v>
+      </c>
+      <c r="M103" s="1">
+        <f t="shared" si="33"/>
+        <v>0.97656299999999996</v>
+      </c>
+      <c r="N103" s="1">
+        <f t="shared" si="33"/>
+        <v>1.09375</v>
+      </c>
+      <c r="O103" s="1">
+        <f t="shared" si="33"/>
+        <v>1.328125</v>
+      </c>
+      <c r="P103" s="1">
+        <f t="shared" si="33"/>
+        <v>1.6796880000000001</v>
+      </c>
+      <c r="Q103" s="1">
+        <f t="shared" si="33"/>
+        <v>6.015625</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104">
+        <f t="shared" si="31"/>
         <v>1700</v>
       </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
-      <c r="Q104" s="1"/>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B104" s="1">
+        <f t="shared" si="33"/>
+        <v>6.7</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="33"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="33"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E104" s="1">
+        <f t="shared" si="33"/>
+        <v>9</v>
+      </c>
+      <c r="F104" s="1">
+        <f t="shared" si="33"/>
+        <v>4.0234379999999996</v>
+      </c>
+      <c r="G104" s="1">
+        <f t="shared" si="33"/>
+        <v>-0.546875</v>
+      </c>
+      <c r="H104" s="1">
+        <f t="shared" si="33"/>
+        <v>-10</v>
+      </c>
+      <c r="I104" s="1">
+        <f t="shared" si="33"/>
+        <v>-10</v>
+      </c>
+      <c r="J104" s="1">
+        <f t="shared" si="33"/>
+        <v>-9.7176955502246987</v>
+      </c>
+      <c r="K104" s="1">
+        <f t="shared" si="33"/>
+        <v>-6.3638963018317831</v>
+      </c>
+      <c r="L104" s="1">
+        <f t="shared" si="33"/>
+        <v>-0.8513849593270626</v>
+      </c>
+      <c r="M104" s="1">
+        <f t="shared" si="33"/>
+        <v>2.03125</v>
+      </c>
+      <c r="N104" s="1">
+        <f t="shared" si="33"/>
+        <v>2.1484380000000001</v>
+      </c>
+      <c r="O104" s="1">
+        <f t="shared" si="33"/>
+        <v>2.3828130000000001</v>
+      </c>
+      <c r="P104" s="1">
+        <f t="shared" si="33"/>
+        <v>2.8515630000000001</v>
+      </c>
+      <c r="Q104" s="1">
+        <f t="shared" si="33"/>
+        <v>7.5390629999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105">
+        <f t="shared" si="31"/>
         <v>1800</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
-      <c r="P105" s="1"/>
-      <c r="Q105" s="1"/>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B105" s="1">
+        <f t="shared" si="33"/>
+        <v>6.8</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="33"/>
+        <v>8.4</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="33"/>
+        <v>8.9</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="33"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="33"/>
+        <v>5.5</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="33"/>
+        <v>-10</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="33"/>
+        <v>-10</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="33"/>
+        <v>-9.0651304277285067</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="33"/>
+        <v>-5.47403775855053</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="33"/>
+        <v>0.39484748913150902</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="33"/>
+        <v>2.734375</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="33"/>
+        <v>2.8515630000000001</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="33"/>
+        <v>3.0859380000000001</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="33"/>
+        <v>3.5546880000000001</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="33"/>
+        <v>8.359375</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106">
+        <f t="shared" si="31"/>
         <v>2000</v>
       </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
-      <c r="Q106" s="1"/>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B106" s="1">
+        <f t="shared" si="33"/>
+        <v>6.9</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="33"/>
+        <v>8.6</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="33"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E106" s="1">
+        <f t="shared" si="33"/>
+        <v>9.5</v>
+      </c>
+      <c r="F106" s="1">
+        <f t="shared" si="33"/>
+        <v>5.9</v>
+      </c>
+      <c r="G106" s="1">
+        <f t="shared" si="33"/>
+        <v>0.5</v>
+      </c>
+      <c r="H106" s="1">
+        <f t="shared" si="33"/>
+        <v>-10</v>
+      </c>
+      <c r="I106" s="1">
+        <f t="shared" si="33"/>
+        <v>-10</v>
+      </c>
+      <c r="J106" s="1">
+        <f t="shared" si="33"/>
+        <v>-7.5394048415275012</v>
+      </c>
+      <c r="K106" s="1">
+        <f t="shared" si="33"/>
+        <v>-3.515625</v>
+      </c>
+      <c r="L106" s="1">
+        <f t="shared" si="33"/>
+        <v>3.0121059489532431</v>
+      </c>
+      <c r="M106" s="1">
+        <f t="shared" si="33"/>
+        <v>4.140625</v>
+      </c>
+      <c r="N106" s="1">
+        <f t="shared" si="33"/>
+        <v>4.2578129999999996</v>
+      </c>
+      <c r="O106" s="1">
+        <f t="shared" si="33"/>
+        <v>4.4921879999999996</v>
+      </c>
+      <c r="P106" s="1">
+        <f t="shared" si="33"/>
+        <v>4.9609379999999996</v>
+      </c>
+      <c r="Q106" s="1">
+        <f t="shared" si="33"/>
+        <v>10.351563000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107">
+        <f t="shared" si="31"/>
         <v>2200</v>
       </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B107" s="1">
+        <f t="shared" si="33"/>
+        <v>7</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="33"/>
+        <v>8.9</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="33"/>
+        <v>9.4</v>
+      </c>
+      <c r="E107" s="1">
+        <f t="shared" si="33"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F107" s="1">
+        <f t="shared" si="33"/>
+        <v>6.2</v>
+      </c>
+      <c r="G107" s="1">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="H107" s="1">
+        <f t="shared" si="33"/>
+        <v>-10</v>
+      </c>
+      <c r="I107" s="1">
+        <f t="shared" si="33"/>
+        <v>-9.9656865860961581</v>
+      </c>
+      <c r="J107" s="1">
+        <f t="shared" si="33"/>
+        <v>-5.7236587401382071</v>
+      </c>
+      <c r="K107" s="1">
+        <f t="shared" si="33"/>
+        <v>-1.267191031241877</v>
+      </c>
+      <c r="L107" s="1">
+        <f t="shared" si="33"/>
+        <v>4.84375</v>
+      </c>
+      <c r="M107" s="1">
+        <f t="shared" si="33"/>
+        <v>5.4296879999999996</v>
+      </c>
+      <c r="N107" s="1">
+        <f t="shared" si="33"/>
+        <v>5.546875</v>
+      </c>
+      <c r="O107" s="1">
+        <f t="shared" si="33"/>
+        <v>5.78125</v>
+      </c>
+      <c r="P107" s="1">
+        <f t="shared" si="33"/>
+        <v>6.3671879999999996</v>
+      </c>
+      <c r="Q107" s="1">
+        <f t="shared" si="33"/>
+        <v>12.109375</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108">
+        <f t="shared" si="31"/>
         <v>2400</v>
       </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
-      <c r="Q108" s="1"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B108" s="1">
+        <f t="shared" si="33"/>
+        <v>7.1</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="33"/>
+        <v>9.1</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="33"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E108" s="1">
+        <f t="shared" si="33"/>
+        <v>10.1</v>
+      </c>
+      <c r="F108" s="1">
+        <f t="shared" si="33"/>
+        <v>6.5</v>
+      </c>
+      <c r="G108" s="1">
+        <f t="shared" si="33"/>
+        <v>1.5</v>
+      </c>
+      <c r="H108" s="1">
+        <f t="shared" si="33"/>
+        <v>-10</v>
+      </c>
+      <c r="I108" s="1">
+        <f t="shared" si="33"/>
+        <v>-8.292607141868098</v>
+      </c>
+      <c r="J108" s="1">
+        <f t="shared" si="33"/>
+        <v>-3.6178916210291403</v>
+      </c>
+      <c r="K108" s="1">
+        <f t="shared" si="33"/>
+        <v>1.2712630352309562</v>
+      </c>
+      <c r="L108" s="1">
+        <f t="shared" si="33"/>
+        <v>6.25</v>
+      </c>
+      <c r="M108" s="1">
+        <f t="shared" si="33"/>
+        <v>6.8359379999999996</v>
+      </c>
+      <c r="N108" s="1">
+        <f t="shared" si="33"/>
+        <v>6.953125</v>
+      </c>
+      <c r="O108" s="1">
+        <f t="shared" si="33"/>
+        <v>7.1875</v>
+      </c>
+      <c r="P108" s="1">
+        <f t="shared" si="33"/>
+        <v>7.7734379999999996</v>
+      </c>
+      <c r="Q108" s="1">
+        <f t="shared" si="33"/>
+        <v>13.867188000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109">
+        <f t="shared" si="31"/>
         <v>2600</v>
       </c>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
-      <c r="Q109" s="1"/>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B109" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="33"/>
+        <v>9.4</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="33"/>
+        <v>10.1</v>
+      </c>
+      <c r="E109" s="1">
+        <f t="shared" si="33"/>
+        <v>10.4</v>
+      </c>
+      <c r="F109" s="1">
+        <f t="shared" si="33"/>
+        <v>6.9</v>
+      </c>
+      <c r="G109" s="1">
+        <f t="shared" si="33"/>
+        <v>2.1</v>
+      </c>
+      <c r="H109" s="1">
+        <f t="shared" si="33"/>
+        <v>-10</v>
+      </c>
+      <c r="I109" s="1">
+        <f t="shared" si="33"/>
+        <v>-6.3295068724080918</v>
+      </c>
+      <c r="J109" s="1">
+        <f t="shared" si="33"/>
+        <v>-1.2221042117175456</v>
+      </c>
+      <c r="K109" s="1">
+        <f t="shared" si="33"/>
+        <v>4.1978801468224933</v>
+      </c>
+      <c r="L109" s="1">
+        <f t="shared" si="33"/>
+        <v>7.65625</v>
+      </c>
+      <c r="M109" s="1">
+        <f t="shared" si="33"/>
+        <v>8.2421880000000005</v>
+      </c>
+      <c r="N109" s="1">
+        <f t="shared" si="33"/>
+        <v>8.4765630000000005</v>
+      </c>
+      <c r="O109" s="1">
+        <f t="shared" si="33"/>
+        <v>8.828125</v>
+      </c>
+      <c r="P109" s="1">
+        <f t="shared" si="33"/>
+        <v>9.296875</v>
+      </c>
+      <c r="Q109" s="1">
+        <f t="shared" si="33"/>
+        <v>15.742188000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110">
+        <f t="shared" si="31"/>
         <v>2800</v>
       </c>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B110" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="33"/>
+        <v>10.5</v>
+      </c>
+      <c r="E110" s="1">
+        <f t="shared" si="33"/>
+        <v>10.9</v>
+      </c>
+      <c r="F110" s="1">
+        <f t="shared" si="33"/>
+        <v>7.2</v>
+      </c>
+      <c r="G110" s="1">
+        <f t="shared" si="33"/>
+        <v>2.5</v>
+      </c>
+      <c r="H110" s="1">
+        <f t="shared" si="33"/>
+        <v>-9.4061418133998735</v>
+      </c>
+      <c r="I110" s="1">
+        <f t="shared" si="33"/>
+        <v>-4.1162308866634953</v>
+      </c>
+      <c r="J110" s="1">
+        <f t="shared" si="33"/>
+        <v>1.4637044402995842</v>
+      </c>
+      <c r="K110" s="1">
+        <f t="shared" si="33"/>
+        <v>7.3295591744976045</v>
+      </c>
+      <c r="L110" s="1">
+        <f t="shared" si="33"/>
+        <v>9.0625</v>
+      </c>
+      <c r="M110" s="1">
+        <f t="shared" si="33"/>
+        <v>9.6484380000000005</v>
+      </c>
+      <c r="N110" s="1">
+        <f t="shared" si="33"/>
+        <v>10</v>
+      </c>
+      <c r="O110" s="1">
+        <f t="shared" si="33"/>
+        <v>10.351563000000001</v>
+      </c>
+      <c r="P110" s="1">
+        <f t="shared" si="33"/>
+        <v>10.703125</v>
+      </c>
+      <c r="Q110" s="1">
+        <f t="shared" si="33"/>
+        <v>17.265625</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111">
+        <f t="shared" si="31"/>
         <v>2900</v>
       </c>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
-      <c r="Q111" s="1"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B111" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="E111" s="1">
+        <f t="shared" si="33"/>
+        <v>11.3</v>
+      </c>
+      <c r="F111" s="1">
+        <f t="shared" si="33"/>
+        <v>7.3</v>
+      </c>
+      <c r="G111" s="1">
+        <f t="shared" si="33"/>
+        <v>2.7</v>
+      </c>
+      <c r="H111" s="1">
+        <f t="shared" si="33"/>
+        <v>-8.4098033111272006</v>
+      </c>
+      <c r="I111" s="1">
+        <f t="shared" si="33"/>
+        <v>-2.9107223952578014</v>
+      </c>
+      <c r="J111" s="1">
+        <f t="shared" si="33"/>
+        <v>2.8742779278465589</v>
+      </c>
+      <c r="K111" s="1">
+        <f t="shared" si="33"/>
+        <v>8.9453130000000005</v>
+      </c>
+      <c r="L111" s="1">
+        <f t="shared" si="33"/>
+        <v>9.765625</v>
+      </c>
+      <c r="M111" s="1">
+        <f t="shared" si="33"/>
+        <v>10.46875</v>
+      </c>
+      <c r="N111" s="1">
+        <f t="shared" si="33"/>
+        <v>10.820313000000001</v>
+      </c>
+      <c r="O111" s="1">
+        <f t="shared" si="33"/>
+        <v>11.054688000000001</v>
+      </c>
+      <c r="P111" s="1">
+        <f t="shared" si="33"/>
+        <v>11.40625</v>
+      </c>
+      <c r="Q111" s="1">
+        <f t="shared" si="33"/>
+        <v>18.085937999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112">
+        <f t="shared" si="31"/>
         <v>3000</v>
       </c>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
-      <c r="Q112" s="1"/>
+      <c r="B112" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="E112" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="F112" s="1">
+        <f t="shared" si="33"/>
+        <v>7.5</v>
+      </c>
+      <c r="G112" s="1">
+        <f t="shared" si="33"/>
+        <v>2.9</v>
+      </c>
+      <c r="H112" s="1">
+        <f t="shared" si="33"/>
+        <v>-7.3434459268124677</v>
+      </c>
+      <c r="I112" s="1">
+        <f t="shared" si="33"/>
+        <v>-1.6392997098210866</v>
+      </c>
+      <c r="J112" s="1">
+        <f t="shared" si="33"/>
+        <v>4.4395331575334813</v>
+      </c>
+      <c r="K112" s="1">
+        <f t="shared" si="33"/>
+        <v>9.6484380000000005</v>
+      </c>
+      <c r="L112" s="1">
+        <f t="shared" si="33"/>
+        <v>10.585938000000001</v>
+      </c>
+      <c r="M112" s="1">
+        <f t="shared" si="33"/>
+        <v>11.171875</v>
+      </c>
+      <c r="N112" s="1">
+        <f t="shared" si="33"/>
+        <v>11.640625</v>
+      </c>
+      <c r="O112" s="1">
+        <f t="shared" si="33"/>
+        <v>11.875</v>
+      </c>
+      <c r="P112" s="1">
+        <f t="shared" si="33"/>
+        <v>12.226563000000001</v>
+      </c>
+      <c r="Q112" s="1">
+        <f t="shared" si="33"/>
+        <v>19.023437999999999</v>
+      </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113">
+        <f t="shared" si="31"/>
         <v>3200</v>
       </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
-      <c r="O113" s="1"/>
-      <c r="P113" s="1"/>
-      <c r="Q113" s="1"/>
+      <c r="B113" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="E113" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="F113" s="1">
+        <f t="shared" si="33"/>
+        <v>7.8</v>
+      </c>
+      <c r="G113" s="1">
+        <f t="shared" si="33"/>
+        <v>3.3</v>
+      </c>
+      <c r="H113" s="1">
+        <f t="shared" si="33"/>
+        <v>-5.012989856135512</v>
+      </c>
+      <c r="I113" s="1">
+        <f t="shared" si="33"/>
+        <v>1.1674968311417881</v>
+      </c>
+      <c r="J113" s="1">
+        <f t="shared" si="33"/>
+        <v>7.7053833424586777</v>
+      </c>
+      <c r="K113" s="1">
+        <f t="shared" si="33"/>
+        <v>11.054688000000001</v>
+      </c>
+      <c r="L113" s="1">
+        <f t="shared" si="33"/>
+        <v>11.992188000000001</v>
+      </c>
+      <c r="M113" s="1">
+        <f t="shared" si="33"/>
+        <v>12.695313000000001</v>
+      </c>
+      <c r="N113" s="1">
+        <f t="shared" si="33"/>
+        <v>13.046875</v>
+      </c>
+      <c r="O113" s="1">
+        <f t="shared" ref="C113:Q115" si="34">IF(ABS(O90)&gt;=$T$97,O66,(O90+$T$97)*(O20-O43)/($T$97*2)+O43)</f>
+        <v>13.515625</v>
+      </c>
+      <c r="P113" s="1">
+        <f t="shared" si="34"/>
+        <v>13.75</v>
+      </c>
+      <c r="Q113" s="1">
+        <f t="shared" si="34"/>
+        <v>20.78125</v>
+      </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114">
+        <f t="shared" si="31"/>
         <v>3500</v>
       </c>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
-      <c r="P114" s="1"/>
-      <c r="Q114" s="1"/>
+      <c r="B114" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="34"/>
+        <v>-13</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" si="34"/>
+        <v>-13</v>
+      </c>
+      <c r="E114" s="1">
+        <f t="shared" si="34"/>
+        <v>-13</v>
+      </c>
+      <c r="F114" s="1">
+        <f t="shared" si="34"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G114" s="1">
+        <f t="shared" si="34"/>
+        <v>4.8882844353087584</v>
+      </c>
+      <c r="H114" s="1">
+        <f t="shared" si="34"/>
+        <v>-0.92246314329180024</v>
+      </c>
+      <c r="I114" s="1">
+        <f t="shared" si="34"/>
+        <v>5.9644734778966679</v>
+      </c>
+      <c r="J114" s="1">
+        <f t="shared" si="34"/>
+        <v>12.460938000000001</v>
+      </c>
+      <c r="K114" s="1">
+        <f t="shared" si="34"/>
+        <v>13.046875</v>
+      </c>
+      <c r="L114" s="1">
+        <f t="shared" si="34"/>
+        <v>14.21875</v>
+      </c>
+      <c r="M114" s="1">
+        <f t="shared" si="34"/>
+        <v>15.039063000000001</v>
+      </c>
+      <c r="N114" s="1">
+        <f t="shared" si="34"/>
+        <v>15.390625</v>
+      </c>
+      <c r="O114" s="1">
+        <f t="shared" si="34"/>
+        <v>15.742188000000001</v>
+      </c>
+      <c r="P114" s="1">
+        <f t="shared" si="34"/>
+        <v>15.976563000000001</v>
+      </c>
+      <c r="Q114" s="1">
+        <f t="shared" si="34"/>
+        <v>23.945312999999999</v>
+      </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
+        <f t="shared" si="31"/>
         <v>4000</v>
       </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
-      <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
-      <c r="Q115" s="1"/>
+      <c r="B115" s="1">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="34"/>
+        <v>-13</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="34"/>
+        <v>-13</v>
+      </c>
+      <c r="E115" s="1">
+        <f t="shared" si="34"/>
+        <v>-13</v>
+      </c>
+      <c r="F115" s="1">
+        <f t="shared" si="34"/>
+        <v>9.0001317410508843</v>
+      </c>
+      <c r="G115" s="1">
+        <f t="shared" si="34"/>
+        <v>8.734338753658772</v>
+      </c>
+      <c r="H115" s="1">
+        <f t="shared" si="34"/>
+        <v>7.3613938217360371</v>
+      </c>
+      <c r="I115" s="1">
+        <f t="shared" si="34"/>
+        <v>15.15625</v>
+      </c>
+      <c r="J115" s="1">
+        <f t="shared" si="34"/>
+        <v>15.859375</v>
+      </c>
+      <c r="K115" s="1">
+        <f t="shared" si="34"/>
+        <v>16.5625</v>
+      </c>
+      <c r="L115" s="1">
+        <f t="shared" si="34"/>
+        <v>17.851562999999999</v>
+      </c>
+      <c r="M115" s="1">
+        <f t="shared" si="34"/>
+        <v>18.789062999999999</v>
+      </c>
+      <c r="N115" s="1">
+        <f t="shared" si="34"/>
+        <v>19.257812999999999</v>
+      </c>
+      <c r="O115" s="1">
+        <f t="shared" si="34"/>
+        <v>19.726562999999999</v>
+      </c>
+      <c r="P115" s="1">
+        <f t="shared" si="34"/>
+        <v>19.960937999999999</v>
+      </c>
+      <c r="Q115" s="1">
+        <f t="shared" si="34"/>
+        <v>28.867187999999999</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B50:Q68">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6180,19 +7150,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69:Q69">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="between">
       <formula>$U$50</formula>
       <formula>$U$51</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R50:R68">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="between">
-      <formula>$T$50</formula>
-      <formula>$T$51</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B74:Q92">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6204,7 +7168,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97:Q115">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R50:R68">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="between">
+      <formula>$T$50</formula>
+      <formula>$T$51</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:Q22">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:Q45">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/table blender.xlsx
+++ b/table blender.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akudlacek\Downloads\cummins_tuning_calc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Tuning\Tuning Calc\cummins_tuning_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BADD5B-BEE8-49F9-AC7C-E64F54B194CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D81552-49EF-48B5-AFF0-C947AEA6C594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6206C45-3FE7-4868-8A95-239C7ED022B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6206C45-3FE7-4868-8A95-239C7ED022B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,31 +476,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7647053-835B-421E-A05A-5E37237959C0}">
   <dimension ref="A1:U115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97:Q115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" customWidth="1"/>
+    <col min="3" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -508,7 +508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -561,36 +561,36 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>620</v>
       </c>
       <c r="B4" s="1">
-        <v>-4</v>
+        <v>-3.0078130000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>-4</v>
+        <v>-3.0078130000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-4</v>
+        <v>-3.0078130000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>-4</v>
+        <v>-3.0078130000000001</v>
       </c>
       <c r="F4" s="1">
-        <v>-8.5</v>
+        <v>-5</v>
       </c>
       <c r="G4" s="1">
-        <v>-13</v>
+        <v>-8.8671880000000005</v>
       </c>
       <c r="H4" s="1">
-        <v>-13</v>
+        <v>-12.03125</v>
       </c>
       <c r="I4" s="1">
-        <v>-13</v>
+        <v>-12.03125</v>
       </c>
       <c r="J4" s="1">
-        <v>-13</v>
+        <v>-12.03125</v>
       </c>
       <c r="K4" s="1">
         <v>-12.03125</v>
@@ -611,280 +611,280 @@
         <v>3.9063000000000001E-2</v>
       </c>
       <c r="Q4" s="1">
-        <v>3.9063000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-14.960938000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>650</v>
       </c>
       <c r="B5" s="1">
-        <v>-4</v>
+        <v>-3.9453130000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>-4</v>
+        <v>-4.53125</v>
       </c>
       <c r="D5" s="1">
-        <v>-4</v>
+        <v>-4.53125</v>
       </c>
       <c r="E5" s="1">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F5" s="1">
-        <v>-8.5</v>
+        <v>-8.515625</v>
       </c>
       <c r="G5" s="1">
-        <v>-13</v>
+        <v>-9.921875</v>
       </c>
       <c r="H5" s="1">
-        <v>-13</v>
+        <v>-11.09375</v>
       </c>
       <c r="I5" s="1">
-        <v>-13</v>
+        <v>-11.445313000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>-13</v>
+        <v>-12.265625</v>
       </c>
       <c r="K5" s="1">
-        <v>-13</v>
+        <v>-12.734375</v>
       </c>
       <c r="L5" s="1">
-        <v>-13</v>
+        <v>-12.734375</v>
       </c>
       <c r="M5" s="1">
-        <v>-13</v>
+        <v>-12.734375</v>
       </c>
       <c r="N5" s="1">
-        <v>-13</v>
+        <v>-12.734375</v>
       </c>
       <c r="O5" s="1">
-        <v>-13</v>
+        <v>-12.734375</v>
       </c>
       <c r="P5" s="1">
-        <v>-13</v>
+        <v>-12.734375</v>
       </c>
       <c r="Q5" s="1">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-13.90625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>800</v>
       </c>
       <c r="B6" s="1">
-        <v>-4</v>
+        <v>-3.9453130000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>-4</v>
+        <v>-3.9453130000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-4</v>
+        <v>-3.9453130000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>-4</v>
+        <v>-3.9453130000000001</v>
       </c>
       <c r="F6" s="1">
-        <v>-8.5</v>
+        <v>-6.9921879999999996</v>
       </c>
       <c r="G6" s="1">
-        <v>-13</v>
+        <v>-10.039063000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>-13</v>
+        <v>-10.742188000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-13</v>
+        <v>-11.445313000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>-13</v>
+        <v>-12.265625</v>
       </c>
       <c r="K6" s="1">
-        <v>-13</v>
+        <v>-12.734375</v>
       </c>
       <c r="L6" s="1">
-        <v>-13</v>
+        <v>-12.734375</v>
       </c>
       <c r="M6" s="1">
-        <v>-13</v>
+        <v>-12.734375</v>
       </c>
       <c r="N6" s="1">
-        <v>-13</v>
+        <v>-12.734375</v>
       </c>
       <c r="O6" s="1">
-        <v>-13</v>
+        <v>-12.734375</v>
       </c>
       <c r="P6" s="1">
-        <v>-13</v>
+        <v>-12.734375</v>
       </c>
       <c r="Q6" s="1">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-12.851563000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1000</v>
       </c>
       <c r="B7" s="1">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="C7" s="1">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D7" s="1">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E7" s="1">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F7" s="1">
-        <v>-8.5</v>
+        <v>-3.9453130000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>-13</v>
+        <v>-8.984375</v>
       </c>
       <c r="H7" s="1">
-        <v>-13</v>
+        <v>-9.921875</v>
       </c>
       <c r="I7" s="1">
-        <v>-13</v>
+        <v>-10.039063000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>-13</v>
+        <v>-10.15625</v>
       </c>
       <c r="K7" s="1">
-        <v>-13</v>
+        <v>-10.390625</v>
       </c>
       <c r="L7" s="1">
-        <v>-13</v>
+        <v>-10.625</v>
       </c>
       <c r="M7" s="1">
-        <v>-13</v>
+        <v>-10.742188000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-13</v>
+        <v>-10.859375</v>
       </c>
       <c r="O7" s="1">
-        <v>-13</v>
+        <v>-10.859375</v>
       </c>
       <c r="P7" s="1">
-        <v>-13</v>
+        <v>-11.09375</v>
       </c>
       <c r="Q7" s="1">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-11.09375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1200</v>
       </c>
       <c r="B8" s="1">
-        <v>-1.015625</v>
+        <v>-2</v>
       </c>
       <c r="C8" s="1">
-        <v>-1.484375</v>
+        <v>-2</v>
       </c>
       <c r="D8" s="1">
-        <v>-2.5390630000000001</v>
+        <v>-2</v>
       </c>
       <c r="E8" s="1">
-        <v>-3.59375</v>
+        <v>-2</v>
       </c>
       <c r="F8" s="1">
-        <v>-5.5341800000000001</v>
+        <v>-2</v>
       </c>
       <c r="G8" s="1">
-        <v>-11.445313000000001</v>
+        <v>-5</v>
       </c>
       <c r="H8" s="1">
-        <v>-12</v>
+        <v>-6.5234379999999996</v>
       </c>
       <c r="I8" s="1">
-        <v>-12</v>
+        <v>-6.7578129999999996</v>
       </c>
       <c r="J8" s="1">
-        <v>-12</v>
+        <v>-6.7578129999999996</v>
       </c>
       <c r="K8" s="1">
-        <v>-12</v>
+        <v>-7.2265629999999996</v>
       </c>
       <c r="L8" s="1">
-        <v>-12</v>
+        <v>-7.9296879999999996</v>
       </c>
       <c r="M8" s="1">
-        <v>-12</v>
+        <v>-8.3984380000000005</v>
       </c>
       <c r="N8" s="1">
-        <v>-12</v>
+        <v>-8.6328130000000005</v>
       </c>
       <c r="O8" s="1">
-        <v>-12</v>
+        <v>-8.8671880000000005</v>
       </c>
       <c r="P8" s="1">
-        <v>-12</v>
+        <v>-9.21875</v>
       </c>
       <c r="Q8" s="1">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-8.6328130000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1400</v>
       </c>
       <c r="B9" s="1">
-        <v>3.4960939999999998</v>
+        <v>3.0039069999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>3.203125</v>
+        <v>2.9453130000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>2.3242189999999998</v>
+        <v>2.59375</v>
       </c>
       <c r="E9" s="1">
-        <v>1.6796880000000001</v>
+        <v>2.4765630000000001</v>
       </c>
       <c r="F9" s="1">
-        <v>-2.5683600000000002</v>
+        <v>-0.16015599999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>-6.4941409999999999</v>
+        <v>-2.5390630000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="I9" s="1">
-        <v>-10</v>
+        <v>-4.6484379999999996</v>
       </c>
       <c r="J9" s="1">
-        <v>-10</v>
+        <v>-4.6484379999999996</v>
       </c>
       <c r="K9" s="1">
-        <v>-10</v>
+        <v>-4.6484379999999996</v>
       </c>
       <c r="L9" s="1">
-        <v>-10</v>
+        <v>-4.1796879999999996</v>
       </c>
       <c r="M9" s="1">
-        <v>-10</v>
+        <v>-4.1796879999999996</v>
       </c>
       <c r="N9" s="1">
-        <v>-10</v>
+        <v>-4.296875</v>
       </c>
       <c r="O9" s="1">
-        <v>-10</v>
+        <v>-4.296875</v>
       </c>
       <c r="P9" s="1">
-        <v>-10</v>
+        <v>-4.296875</v>
       </c>
       <c r="Q9" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-6.0546879999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1550</v>
       </c>
       <c r="B10" s="1">
-        <v>6.6</v>
+        <v>8.0078130000000005</v>
       </c>
       <c r="C10" s="1">
         <v>7.890625</v>
@@ -896,57 +896,57 @@
         <v>6.953125</v>
       </c>
       <c r="F10" s="1">
-        <v>3.0273439999999998</v>
+        <v>1.6796880000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>-1.542969</v>
+        <v>-0.3125</v>
       </c>
       <c r="H10" s="1">
-        <v>-10</v>
+        <v>-3.0078130000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-10</v>
+        <v>-4.765625</v>
       </c>
       <c r="J10" s="1">
-        <v>-10</v>
+        <v>-4.6484379999999996</v>
       </c>
       <c r="K10" s="1">
-        <v>-10</v>
+        <v>-4.4140629999999996</v>
       </c>
       <c r="L10" s="1">
-        <v>-10</v>
+        <v>-4.8828129999999996</v>
       </c>
       <c r="M10" s="1">
-        <v>-10</v>
+        <v>-5.46875</v>
       </c>
       <c r="N10" s="1">
-        <v>-10</v>
+        <v>-4.296875</v>
       </c>
       <c r="O10" s="1">
-        <v>-10</v>
+        <v>-4.296875</v>
       </c>
       <c r="P10" s="1">
-        <v>-10</v>
+        <v>-4.296875</v>
       </c>
       <c r="Q10" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-4.0625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1700</v>
       </c>
       <c r="B11" s="1">
-        <v>6.7</v>
+        <v>8.0078130000000005</v>
       </c>
       <c r="C11" s="1">
-        <v>8.3000000000000007</v>
+        <v>7.890625</v>
       </c>
       <c r="D11" s="1">
-        <v>8.6999999999999993</v>
+        <v>8.4765630000000005</v>
       </c>
       <c r="E11" s="1">
-        <v>9</v>
+        <v>8.9453130000000005</v>
       </c>
       <c r="F11" s="1">
         <v>4.0234379999999996</v>
@@ -955,249 +955,249 @@
         <v>-0.546875</v>
       </c>
       <c r="H11" s="1">
-        <v>-10</v>
+        <v>-1.484375</v>
       </c>
       <c r="I11" s="1">
-        <v>-10</v>
+        <v>-4.296875</v>
       </c>
       <c r="J11" s="1">
-        <v>-10</v>
+        <v>-4.8828129999999996</v>
       </c>
       <c r="K11" s="1">
-        <v>-10</v>
+        <v>-5.46875</v>
       </c>
       <c r="L11" s="1">
-        <v>-10</v>
+        <v>-6.40625</v>
       </c>
       <c r="M11" s="1">
-        <v>-10</v>
+        <v>-7.109375</v>
       </c>
       <c r="N11" s="1">
-        <v>-10</v>
+        <v>-6.0546879999999996</v>
       </c>
       <c r="O11" s="1">
-        <v>-10</v>
+        <v>-5.703125</v>
       </c>
       <c r="P11" s="1">
-        <v>-10</v>
+        <v>-5.703125</v>
       </c>
       <c r="Q11" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-2.1875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1800</v>
       </c>
       <c r="B12" s="1">
-        <v>6.8</v>
+        <v>8.0078130000000005</v>
       </c>
       <c r="C12" s="1">
-        <v>8.4</v>
+        <v>7.890625</v>
       </c>
       <c r="D12" s="1">
-        <v>8.9</v>
+        <v>8.4765630000000005</v>
       </c>
       <c r="E12" s="1">
-        <v>9.1999999999999993</v>
+        <v>8.9453130000000005</v>
       </c>
       <c r="F12" s="1">
-        <v>5.5</v>
+        <v>5.546875</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>3.9063000000000001E-2</v>
       </c>
       <c r="H12" s="1">
-        <v>-10</v>
+        <v>-1.484375</v>
       </c>
       <c r="I12" s="1">
-        <v>-10</v>
+        <v>-3.4765630000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>-10</v>
+        <v>-4.6484379999999996</v>
       </c>
       <c r="K12" s="1">
-        <v>-10</v>
+        <v>-5.234375</v>
       </c>
       <c r="L12" s="1">
-        <v>-10</v>
+        <v>-6.5234379999999996</v>
       </c>
       <c r="M12" s="1">
-        <v>-10</v>
+        <v>-7.34375</v>
       </c>
       <c r="N12" s="1">
-        <v>-10</v>
+        <v>-6.2890629999999996</v>
       </c>
       <c r="O12" s="1">
-        <v>-10</v>
+        <v>-6.2890629999999996</v>
       </c>
       <c r="P12" s="1">
-        <v>-10</v>
+        <v>-6.2890629999999996</v>
       </c>
       <c r="Q12" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-0.3125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2000</v>
       </c>
       <c r="B13" s="1">
-        <v>6.9</v>
+        <v>8.0078130000000005</v>
       </c>
       <c r="C13" s="1">
-        <v>8.6</v>
+        <v>7.890625</v>
       </c>
       <c r="D13" s="1">
-        <v>9.1999999999999993</v>
+        <v>8.4765630000000005</v>
       </c>
       <c r="E13" s="1">
-        <v>9.5</v>
+        <v>8.9453130000000005</v>
       </c>
       <c r="F13" s="1">
-        <v>5.9</v>
+        <v>5.546875</v>
       </c>
       <c r="G13" s="1">
-        <v>0.5</v>
+        <v>0.50781299999999996</v>
       </c>
       <c r="H13" s="1">
-        <v>-10</v>
+        <v>3.9063000000000001E-2</v>
       </c>
       <c r="I13" s="1">
-        <v>-10</v>
+        <v>-1.953125</v>
       </c>
       <c r="J13" s="1">
-        <v>-10</v>
+        <v>-4.4140629999999996</v>
       </c>
       <c r="K13" s="1">
-        <v>-10</v>
+        <v>-6.9921879999999996</v>
       </c>
       <c r="L13" s="1">
-        <v>-10</v>
+        <v>-7.2265629999999996</v>
       </c>
       <c r="M13" s="1">
-        <v>-10</v>
+        <v>-7.2265629999999996</v>
       </c>
       <c r="N13" s="1">
-        <v>-10</v>
+        <v>-7.109375</v>
       </c>
       <c r="O13" s="1">
-        <v>-10</v>
+        <v>-7.109375</v>
       </c>
       <c r="P13" s="1">
-        <v>-10</v>
+        <v>-5.8203129999999996</v>
       </c>
       <c r="Q13" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.1484380000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2200</v>
       </c>
       <c r="B14" s="1">
-        <v>7</v>
+        <v>8.1189239999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>8.9</v>
+        <v>8.0017359999999993</v>
       </c>
       <c r="D14" s="1">
-        <v>9.4</v>
+        <v>8.5876739999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.0564239999999998</v>
       </c>
       <c r="F14" s="1">
-        <v>6.2</v>
+        <v>5.6579860000000002</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>0.61892400000000003</v>
       </c>
       <c r="H14" s="1">
-        <v>-10</v>
+        <v>0.150174</v>
       </c>
       <c r="I14" s="1">
-        <v>-10</v>
+        <v>-1.842014</v>
       </c>
       <c r="J14" s="1">
-        <v>-10</v>
+        <v>-8.046875</v>
       </c>
       <c r="K14" s="1">
-        <v>-10</v>
+        <v>-8.046875</v>
       </c>
       <c r="L14" s="1">
-        <v>-10</v>
+        <v>-8.046875</v>
       </c>
       <c r="M14" s="1">
-        <v>-10</v>
+        <v>-6.9921879999999996</v>
       </c>
       <c r="N14" s="1">
-        <v>-10</v>
+        <v>-6.0546879999999996</v>
       </c>
       <c r="O14" s="1">
-        <v>-10</v>
+        <v>-5.5859379999999996</v>
       </c>
       <c r="P14" s="1">
-        <v>-10</v>
+        <v>-3.828125</v>
       </c>
       <c r="Q14" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5.4296879999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2400</v>
       </c>
       <c r="B15" s="1">
-        <v>7.1</v>
+        <v>8.2300350000000009</v>
       </c>
       <c r="C15" s="1">
-        <v>9.1</v>
+        <v>8.1128470000000004</v>
       </c>
       <c r="D15" s="1">
-        <v>9.8000000000000007</v>
+        <v>8.6987850000000009</v>
       </c>
       <c r="E15" s="1">
-        <v>10.1</v>
+        <v>9.1675350000000009</v>
       </c>
       <c r="F15" s="1">
-        <v>6.5</v>
+        <v>5.7690970000000004</v>
       </c>
       <c r="G15" s="1">
-        <v>1.5</v>
+        <v>0.73003499999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>-10</v>
+        <v>0.26128499999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-10</v>
+        <v>-1.7309030000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>-10</v>
+        <v>-9.453125</v>
       </c>
       <c r="K15" s="1">
-        <v>-10</v>
+        <v>-8.984375</v>
       </c>
       <c r="L15" s="1">
-        <v>-10</v>
+        <v>-8.046875</v>
       </c>
       <c r="M15" s="1">
-        <v>-10</v>
+        <v>-6.9921879999999996</v>
       </c>
       <c r="N15" s="1">
-        <v>-10</v>
+        <v>-5.8203129999999996</v>
       </c>
       <c r="O15" s="1">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="P15" s="1">
-        <v>-10</v>
+        <v>-2.421875</v>
       </c>
       <c r="Q15" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>10.703125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2600</v>
       </c>
@@ -1205,52 +1205,52 @@
         <v>-13</v>
       </c>
       <c r="C16" s="1">
-        <v>9.4</v>
+        <v>8.2239579999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>10.1</v>
+        <v>8.8098960000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>10.4</v>
+        <v>9.2786460000000002</v>
       </c>
       <c r="F16" s="1">
-        <v>6.9</v>
+        <v>5.8802079999999997</v>
       </c>
       <c r="G16" s="1">
-        <v>2.1</v>
+        <v>0.84114599999999995</v>
       </c>
       <c r="H16" s="1">
-        <v>-10</v>
+        <v>0.372396</v>
       </c>
       <c r="I16" s="1">
-        <v>-10</v>
+        <v>-1.6197919999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>-10</v>
+        <v>-8.984375</v>
       </c>
       <c r="K16" s="1">
-        <v>-10</v>
+        <v>-8.046875</v>
       </c>
       <c r="L16" s="1">
-        <v>-10</v>
+        <v>-6.9921879999999996</v>
       </c>
       <c r="M16" s="1">
-        <v>-10</v>
+        <v>-6.5234379999999996</v>
       </c>
       <c r="N16" s="1">
-        <v>-10</v>
+        <v>-3.9453130000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>-10</v>
+        <v>-1.953125</v>
       </c>
       <c r="P16" s="1">
-        <v>-10</v>
+        <v>0.74218799999999996</v>
       </c>
       <c r="Q16" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18.671875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2800</v>
       </c>
@@ -1261,49 +1261,49 @@
         <v>-13</v>
       </c>
       <c r="D17" s="1">
-        <v>10.5</v>
+        <v>8.9210069999999995</v>
       </c>
       <c r="E17" s="1">
-        <v>10.9</v>
+        <v>9.3897569999999995</v>
       </c>
       <c r="F17" s="1">
-        <v>7.2</v>
+        <v>5.9913189999999998</v>
       </c>
       <c r="G17" s="1">
-        <v>2.5</v>
+        <v>0.95225700000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>-10</v>
+        <v>0.48350700000000002</v>
       </c>
       <c r="I17" s="1">
-        <v>-10</v>
+        <v>-1.5086809999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>-10</v>
+        <v>-6.9921879999999996</v>
       </c>
       <c r="K17" s="1">
-        <v>-10</v>
+        <v>-6.9921879999999996</v>
       </c>
       <c r="L17" s="1">
-        <v>-10</v>
+        <v>-6.0546879999999996</v>
       </c>
       <c r="M17" s="1">
-        <v>-10</v>
+        <v>-4.53125</v>
       </c>
       <c r="N17" s="1">
-        <v>-10</v>
+        <v>-1.953125</v>
       </c>
       <c r="O17" s="1">
-        <v>-10</v>
+        <v>2.03125</v>
       </c>
       <c r="P17" s="1">
-        <v>-10</v>
+        <v>6.015625</v>
       </c>
       <c r="Q17" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>20.195312999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2900</v>
       </c>
@@ -1317,46 +1317,46 @@
         <v>-13</v>
       </c>
       <c r="E18" s="1">
-        <v>11.3</v>
+        <v>9.5008689999999998</v>
       </c>
       <c r="F18" s="1">
-        <v>7.3</v>
+        <v>6.1024310000000002</v>
       </c>
       <c r="G18" s="1">
-        <v>2.7</v>
+        <v>1.0633680000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>-10</v>
+        <v>0.59461900000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-10</v>
+        <v>-1.3975690000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>-10</v>
+        <v>-6.0546879999999996</v>
       </c>
       <c r="K18" s="1">
-        <v>-10</v>
+        <v>-6.0546879999999996</v>
       </c>
       <c r="L18" s="1">
-        <v>-10</v>
+        <v>-4.765625</v>
       </c>
       <c r="M18" s="1">
-        <v>-10</v>
+        <v>-1.484375</v>
       </c>
       <c r="N18" s="1">
-        <v>-10</v>
+        <v>2.03125</v>
       </c>
       <c r="O18" s="1">
-        <v>-10</v>
+        <v>5.3125</v>
       </c>
       <c r="P18" s="1">
-        <v>-10</v>
+        <v>9.1796880000000005</v>
       </c>
       <c r="Q18" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>20.898437999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3000</v>
       </c>
@@ -1373,43 +1373,43 @@
         <v>-13</v>
       </c>
       <c r="F19" s="1">
-        <v>7.5</v>
+        <v>6.2135420000000003</v>
       </c>
       <c r="G19" s="1">
-        <v>2.9</v>
+        <v>1.1744790000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>-10</v>
+        <v>0.70572999999999997</v>
       </c>
       <c r="I19" s="1">
-        <v>-10</v>
+        <v>-1.2864580000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>-10</v>
+        <v>-6.0546879999999996</v>
       </c>
       <c r="K19" s="1">
-        <v>-10</v>
+        <v>-5.46875</v>
       </c>
       <c r="L19" s="1">
-        <v>-10</v>
+        <v>-3.9453130000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>-10</v>
+        <v>0.50781299999999996</v>
       </c>
       <c r="N19" s="1">
-        <v>-10</v>
+        <v>2.03125</v>
       </c>
       <c r="O19" s="1">
-        <v>-10</v>
+        <v>5.3125</v>
       </c>
       <c r="P19" s="1">
-        <v>-10</v>
+        <v>9.1796880000000005</v>
       </c>
       <c r="Q19" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>21.601562999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3200</v>
       </c>
@@ -1426,43 +1426,43 @@
         <v>-13</v>
       </c>
       <c r="F20" s="1">
-        <v>7.8</v>
+        <v>6.3246529999999996</v>
       </c>
       <c r="G20" s="1">
-        <v>3.3</v>
+        <v>1.2855909999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>-10</v>
+        <v>0.81684100000000004</v>
       </c>
       <c r="I20" s="1">
-        <v>-10</v>
+        <v>-1.1753469999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>-10</v>
+        <v>-3.7109380000000001</v>
       </c>
       <c r="K20" s="1">
-        <v>-10</v>
+        <v>-3.4765630000000001</v>
       </c>
       <c r="L20" s="1">
-        <v>-10</v>
+        <v>-0.546875</v>
       </c>
       <c r="M20" s="1">
-        <v>-10</v>
+        <v>2.5</v>
       </c>
       <c r="N20" s="1">
-        <v>-10</v>
+        <v>2.96875</v>
       </c>
       <c r="O20" s="1">
-        <v>-10</v>
+        <v>5.3125</v>
       </c>
       <c r="P20" s="1">
-        <v>-10</v>
+        <v>9.1796880000000005</v>
       </c>
       <c r="Q20" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>23.007812999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3500</v>
       </c>
@@ -1479,43 +1479,43 @@
         <v>-13</v>
       </c>
       <c r="F21" s="1">
-        <v>8.1999999999999993</v>
+        <v>6.4357639999999998</v>
       </c>
       <c r="G21" s="1">
-        <v>4.0999999999999996</v>
+        <v>1.3967020000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>-10</v>
+        <v>0.927952</v>
       </c>
       <c r="I21" s="1">
-        <v>-10</v>
+        <v>-1.064236</v>
       </c>
       <c r="J21" s="1">
-        <v>-10</v>
+        <v>-3.828125</v>
       </c>
       <c r="K21" s="1">
-        <v>-10</v>
+        <v>-3.828125</v>
       </c>
       <c r="L21" s="1">
-        <v>-10</v>
+        <v>-0.546875</v>
       </c>
       <c r="M21" s="1">
-        <v>-10</v>
+        <v>2.5</v>
       </c>
       <c r="N21" s="1">
-        <v>-10</v>
+        <v>2.96875</v>
       </c>
       <c r="O21" s="1">
-        <v>-10</v>
+        <v>5.3125</v>
       </c>
       <c r="P21" s="1">
-        <v>-10</v>
+        <v>9.1796880000000005</v>
       </c>
       <c r="Q21" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25.234375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4000</v>
       </c>
@@ -1532,48 +1532,48 @@
         <v>-13</v>
       </c>
       <c r="F22" s="1">
-        <v>9</v>
+        <v>6.546875</v>
       </c>
       <c r="G22" s="1">
-        <v>5.4</v>
+        <v>1.5078130000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>-10</v>
+        <v>1.0390630000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-10</v>
+        <v>-0.953125</v>
       </c>
       <c r="J22" s="1">
-        <v>-10</v>
+        <v>-3.828125</v>
       </c>
       <c r="K22" s="1">
-        <v>-10</v>
+        <v>-3.828125</v>
       </c>
       <c r="L22" s="1">
-        <v>-10</v>
+        <v>-0.546875</v>
       </c>
       <c r="M22" s="1">
-        <v>-10</v>
+        <v>2.5</v>
       </c>
       <c r="N22" s="1">
-        <v>-10</v>
+        <v>2.96875</v>
       </c>
       <c r="O22" s="1">
-        <v>-10</v>
+        <v>5.3125</v>
       </c>
       <c r="P22" s="1">
-        <v>-10</v>
+        <v>9.1796880000000005</v>
       </c>
       <c r="Q22" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>28.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" ref="A27:A45" si="1">A4</f>
         <v>620</v>
@@ -1704,7 +1704,7 @@
         <v>-4.296875</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>650</v>
@@ -1758,7 +1758,7 @@
         <v>-3.9453130000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>800</v>
@@ -1812,7 +1812,7 @@
         <v>-2.1875</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>1000</v>
@@ -1866,7 +1866,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>1200</v>
@@ -1920,7 +1920,7 @@
         <v>2.3828130000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>1400</v>
@@ -1974,7 +1974,7 @@
         <v>4.4921879999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>1550</v>
@@ -2028,7 +2028,7 @@
         <v>6.015625</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>1700</v>
@@ -2082,7 +2082,7 @@
         <v>7.5390629999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>1800</v>
@@ -2136,7 +2136,7 @@
         <v>8.359375</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>2000</v>
@@ -2190,7 +2190,7 @@
         <v>10.351563000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>2200</v>
@@ -2244,7 +2244,7 @@
         <v>12.109375</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>2400</v>
@@ -2298,7 +2298,7 @@
         <v>13.867188000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>2600</v>
@@ -2352,7 +2352,7 @@
         <v>15.742188000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>2800</v>
@@ -2406,7 +2406,7 @@
         <v>17.265625</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>2900</v>
@@ -2460,7 +2460,7 @@
         <v>18.085937999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>3000</v>
@@ -2514,7 +2514,7 @@
         <v>19.023437999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>3200</v>
@@ -2568,7 +2568,7 @@
         <v>20.78125</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>3500</v>
@@ -2622,7 +2622,7 @@
         <v>23.945312999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>4000</v>
@@ -2676,12 +2676,12 @@
         <v>28.867187999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -2770,46 +2770,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" ref="A50:A68" si="3">A4</f>
         <v>620</v>
       </c>
       <c r="B50" s="1">
         <f>IF(AND(B$49&gt;=$R50,$A50&gt;=B$69),B27,B4)</f>
-        <v>-4</v>
+        <v>-3.0078130000000001</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" ref="C50:Q50" si="4">IF(AND(C$49&gt;=$R50,$A50&gt;=C$69),C27,C4)</f>
-        <v>-4</v>
+        <v>-3.0078130000000001</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="4"/>
-        <v>-4</v>
+        <v>-3.0078130000000001</v>
       </c>
       <c r="E50" s="1">
         <f t="shared" si="4"/>
-        <v>-4</v>
+        <v>-3.0078130000000001</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="4"/>
-        <v>-8.5</v>
+        <v>-5</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="4"/>
-        <v>-13</v>
+        <v>-8.8671880000000005</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="4"/>
-        <v>-13</v>
+        <v>-12.03125</v>
       </c>
       <c r="I50" s="1">
         <f t="shared" si="4"/>
-        <v>-13</v>
+        <v>-12.03125</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" si="4"/>
-        <v>-13</v>
+        <v>-12.03125</v>
       </c>
       <c r="K50" s="1">
         <f t="shared" si="4"/>
@@ -2825,15 +2825,15 @@
       </c>
       <c r="N50" s="1">
         <f t="shared" si="4"/>
-        <v>-5.9375</v>
+        <v>3.9063000000000001E-2</v>
       </c>
       <c r="O50" s="1">
         <f t="shared" si="4"/>
-        <v>-5.8203129999999996</v>
+        <v>3.9063000000000001E-2</v>
       </c>
       <c r="P50" s="1">
         <f t="shared" si="4"/>
-        <v>-5.5859379999999996</v>
+        <v>3.9063000000000001E-2</v>
       </c>
       <c r="Q50" s="1">
         <f t="shared" si="4"/>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="R50" s="1">
         <f>($A50-$U$50)/$U$53+$T$50</f>
-        <v>93.025000000000006</v>
+        <v>106.33333333333333</v>
       </c>
       <c r="S50">
         <v>1</v>
@@ -2850,73 +2850,73 @@
         <v>100</v>
       </c>
       <c r="U50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="3"/>
         <v>650</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" ref="B51:Q51" si="5">IF(AND(B$49&gt;=$R51,$A51&gt;=B$69),B28,B5)</f>
-        <v>-4</v>
+        <v>-3.9453130000000001</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v>-4.53125</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v>-4.53125</v>
       </c>
       <c r="E51" s="1">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="5"/>
-        <v>-8.5</v>
+        <v>-8.515625</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" si="5"/>
-        <v>-13</v>
+        <v>-9.921875</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" si="5"/>
-        <v>-13</v>
+        <v>-11.09375</v>
       </c>
       <c r="I51" s="1">
         <f t="shared" si="5"/>
-        <v>-13</v>
+        <v>-11.445313000000001</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" si="5"/>
-        <v>-13</v>
+        <v>-12.265625</v>
       </c>
       <c r="K51" s="1">
         <f t="shared" si="5"/>
-        <v>-13</v>
+        <v>-12.734375</v>
       </c>
       <c r="L51" s="1">
         <f t="shared" si="5"/>
-        <v>-13</v>
+        <v>-12.734375</v>
       </c>
       <c r="M51" s="1">
         <f t="shared" si="5"/>
-        <v>-5.8203129999999996</v>
+        <v>-12.734375</v>
       </c>
       <c r="N51" s="1">
         <f t="shared" si="5"/>
-        <v>-5.703125</v>
+        <v>-12.734375</v>
       </c>
       <c r="O51" s="1">
         <f t="shared" si="5"/>
-        <v>-5.5859379999999996</v>
+        <v>-12.734375</v>
       </c>
       <c r="P51" s="1">
         <f t="shared" si="5"/>
-        <v>-5.3515629999999996</v>
+        <v>-12.734375</v>
       </c>
       <c r="Q51" s="1">
         <f t="shared" si="5"/>
@@ -2924,78 +2924,78 @@
       </c>
       <c r="R51" s="1">
         <f t="shared" ref="R51:R68" si="6">($A51-$U$50)/$U$53+$T$50</f>
-        <v>92.6875</v>
+        <v>105.83333333333333</v>
       </c>
       <c r="S51">
         <v>2</v>
       </c>
       <c r="T51">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="U51">
         <v>4000</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" ref="B52:Q52" si="7">IF(AND(B$49&gt;=$R52,$A52&gt;=B$69),B29,B6)</f>
-        <v>-4</v>
+        <v>-3.9453130000000001</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="7"/>
-        <v>-4</v>
+        <v>-3.9453130000000001</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="7"/>
-        <v>-4</v>
+        <v>-3.9453130000000001</v>
       </c>
       <c r="E52" s="1">
         <f t="shared" si="7"/>
-        <v>-4</v>
+        <v>-3.9453130000000001</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="7"/>
-        <v>-8.5</v>
+        <v>-6.9921879999999996</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="7"/>
-        <v>-13</v>
+        <v>-10.039063000000001</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" si="7"/>
-        <v>-13</v>
+        <v>-10.742188000000001</v>
       </c>
       <c r="I52" s="1">
         <f t="shared" si="7"/>
-        <v>-13</v>
+        <v>-11.445313000000001</v>
       </c>
       <c r="J52" s="1">
         <f t="shared" si="7"/>
-        <v>-13</v>
+        <v>-12.265625</v>
       </c>
       <c r="K52" s="1">
         <f t="shared" si="7"/>
-        <v>-13</v>
+        <v>-12.734375</v>
       </c>
       <c r="L52" s="1">
         <f t="shared" si="7"/>
-        <v>-13</v>
+        <v>-12.734375</v>
       </c>
       <c r="M52" s="1">
         <f t="shared" si="7"/>
-        <v>-4.6484379999999996</v>
+        <v>-12.734375</v>
       </c>
       <c r="N52" s="1">
         <f t="shared" si="7"/>
-        <v>-4.53125</v>
+        <v>-12.734375</v>
       </c>
       <c r="O52" s="1">
         <f t="shared" si="7"/>
-        <v>-4.4140629999999996</v>
+        <v>-12.734375</v>
       </c>
       <c r="P52" s="1">
         <f t="shared" si="7"/>
@@ -3007,71 +3007,71 @@
       </c>
       <c r="R52" s="1">
         <f t="shared" si="6"/>
-        <v>91</v>
+        <v>103.33333333333333</v>
       </c>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" ref="B53:Q53" si="8">IF(AND(B$49&gt;=$R53,$A53&gt;=B$69),B30,B7)</f>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" si="8"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="8"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E53" s="1">
         <f t="shared" si="8"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="8"/>
-        <v>-8.5</v>
+        <v>-3.9453130000000001</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="8"/>
-        <v>-13</v>
+        <v>-8.984375</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" si="8"/>
-        <v>-13</v>
+        <v>-9.921875</v>
       </c>
       <c r="I53" s="1">
         <f t="shared" si="8"/>
-        <v>-13</v>
+        <v>-10.039063000000001</v>
       </c>
       <c r="J53" s="1">
         <f t="shared" si="8"/>
-        <v>-13</v>
+        <v>-10.15625</v>
       </c>
       <c r="K53" s="1">
         <f t="shared" si="8"/>
-        <v>-13</v>
+        <v>-10.390625</v>
       </c>
       <c r="L53" s="1">
         <f t="shared" si="8"/>
-        <v>-13</v>
+        <v>-10.625</v>
       </c>
       <c r="M53" s="1">
         <f t="shared" si="8"/>
-        <v>-3.125</v>
+        <v>-10.742188000000001</v>
       </c>
       <c r="N53" s="1">
         <f t="shared" si="8"/>
-        <v>-2.890625</v>
+        <v>-10.859375</v>
       </c>
       <c r="O53" s="1">
         <f t="shared" si="8"/>
-        <v>-2.7734380000000001</v>
+        <v>-10.859375</v>
       </c>
       <c r="P53" s="1">
         <f t="shared" si="8"/>
@@ -3083,72 +3083,72 @@
       </c>
       <c r="R53" s="1">
         <f t="shared" si="6"/>
-        <v>88.75</v>
+        <v>100</v>
       </c>
       <c r="T53" t="s">
         <v>8</v>
       </c>
       <c r="U53">
         <f>($U$51-$U$50)/($T$51-$T$50)</f>
-        <v>-88.888888888888886</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" ref="B54:Q54" si="9">IF(AND(B$49&gt;=$R54,$A54&gt;=B$69),B31,B8)</f>
-        <v>-1.015625</v>
+        <v>-2</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" si="9"/>
-        <v>-1.484375</v>
+        <v>-2</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="9"/>
-        <v>-2.5390630000000001</v>
+        <v>-2</v>
       </c>
       <c r="E54" s="1">
         <f t="shared" si="9"/>
-        <v>-3.59375</v>
+        <v>-2</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="9"/>
-        <v>-5.5341800000000001</v>
+        <v>-2</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="9"/>
-        <v>-11.445313000000001</v>
+        <v>-5</v>
       </c>
       <c r="H54" s="1">
         <f t="shared" si="9"/>
-        <v>-12</v>
+        <v>-6.5234379999999996</v>
       </c>
       <c r="I54" s="1">
         <f t="shared" si="9"/>
-        <v>-12</v>
+        <v>-6.7578129999999996</v>
       </c>
       <c r="J54" s="1">
         <f t="shared" si="9"/>
-        <v>-12</v>
+        <v>-6.7578129999999996</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" si="9"/>
-        <v>-12</v>
+        <v>-7.2265629999999996</v>
       </c>
       <c r="L54" s="1">
         <f t="shared" si="9"/>
-        <v>-1.953125</v>
+        <v>-7.9296879999999996</v>
       </c>
       <c r="M54" s="1">
         <f t="shared" si="9"/>
-        <v>-1.6015630000000001</v>
+        <v>-8.3984380000000005</v>
       </c>
       <c r="N54" s="1">
         <f t="shared" si="9"/>
-        <v>-1.3671880000000001</v>
+        <v>-8.6328130000000005</v>
       </c>
       <c r="O54" s="1">
         <f t="shared" si="9"/>
@@ -3164,61 +3164,61 @@
       </c>
       <c r="R54" s="1">
         <f t="shared" si="6"/>
-        <v>86.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="3"/>
         <v>1400</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" ref="B55:Q55" si="10">IF(AND(B$49&gt;=$R55,$A55&gt;=B$69),B32,B9)</f>
-        <v>3.4960939999999998</v>
+        <v>3.0039069999999999</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" si="10"/>
-        <v>3.203125</v>
+        <v>2.9453130000000001</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="10"/>
-        <v>2.3242189999999998</v>
+        <v>2.59375</v>
       </c>
       <c r="E55" s="1">
         <f t="shared" si="10"/>
-        <v>1.6796880000000001</v>
+        <v>2.4765630000000001</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="10"/>
-        <v>-2.5683600000000002</v>
+        <v>-0.16015599999999999</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="10"/>
-        <v>-6.4941409999999999</v>
+        <v>-2.5390630000000001</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" si="10"/>
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" si="10"/>
-        <v>-10</v>
+        <v>-4.6484379999999996</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="10"/>
-        <v>-10</v>
+        <v>-4.6484379999999996</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="10"/>
-        <v>-10</v>
+        <v>-4.6484379999999996</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="10"/>
-        <v>-0.546875</v>
+        <v>-4.1796879999999996</v>
       </c>
       <c r="M55" s="1">
         <f t="shared" si="10"/>
-        <v>-7.8125E-2</v>
+        <v>-4.1796879999999996</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" si="10"/>
@@ -3238,17 +3238,17 @@
       </c>
       <c r="R55" s="1">
         <f t="shared" si="6"/>
-        <v>84.25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="3"/>
         <v>1550</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" ref="B56:Q56" si="11">IF(AND(B$49&gt;=$R56,$A56&gt;=B$69),B33,B10)</f>
-        <v>6.6</v>
+        <v>8.0078130000000005</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="11"/>
@@ -3264,31 +3264,31 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" si="11"/>
-        <v>3.0273439999999998</v>
+        <v>1.6796880000000001</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="11"/>
-        <v>-1.542969</v>
+        <v>-0.3125</v>
       </c>
       <c r="H56" s="1">
         <f t="shared" si="11"/>
-        <v>-10</v>
+        <v>-3.0078130000000001</v>
       </c>
       <c r="I56" s="1">
         <f t="shared" si="11"/>
-        <v>-10</v>
+        <v>-4.765625</v>
       </c>
       <c r="J56" s="1">
         <f t="shared" si="11"/>
-        <v>-10</v>
+        <v>-4.6484379999999996</v>
       </c>
       <c r="K56" s="1">
         <f t="shared" si="11"/>
-        <v>-10</v>
+        <v>-4.4140629999999996</v>
       </c>
       <c r="L56" s="1">
         <f t="shared" si="11"/>
-        <v>0.625</v>
+        <v>-4.8828129999999996</v>
       </c>
       <c r="M56" s="1">
         <f t="shared" si="11"/>
@@ -3312,29 +3312,29 @@
       </c>
       <c r="R56" s="1">
         <f t="shared" si="6"/>
-        <v>82.5625</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+        <v>90.833333333333329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="3"/>
         <v>1700</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" ref="B57:Q57" si="12">IF(AND(B$49&gt;=$R57,$A57&gt;=B$69),B34,B11)</f>
-        <v>6.7</v>
+        <v>8.0078130000000005</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" si="12"/>
-        <v>8.3000000000000007</v>
+        <v>7.890625</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="12"/>
-        <v>8.6999999999999993</v>
+        <v>8.4765630000000005</v>
       </c>
       <c r="E57" s="1">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>8.9453130000000005</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="12"/>
@@ -3346,23 +3346,23 @@
       </c>
       <c r="H57" s="1">
         <f t="shared" si="12"/>
-        <v>-10</v>
+        <v>-1.484375</v>
       </c>
       <c r="I57" s="1">
         <f t="shared" si="12"/>
-        <v>-10</v>
+        <v>-4.296875</v>
       </c>
       <c r="J57" s="1">
         <f t="shared" si="12"/>
-        <v>-10</v>
+        <v>-4.8828129999999996</v>
       </c>
       <c r="K57" s="1">
         <f t="shared" si="12"/>
-        <v>-10</v>
+        <v>-5.46875</v>
       </c>
       <c r="L57" s="1">
         <f t="shared" si="12"/>
-        <v>1.5625</v>
+        <v>-6.40625</v>
       </c>
       <c r="M57" s="1">
         <f t="shared" si="12"/>
@@ -3386,53 +3386,53 @@
       </c>
       <c r="R57" s="1">
         <f t="shared" si="6"/>
-        <v>80.875</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+        <v>88.333333333333329</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="3"/>
         <v>1800</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" ref="B58:Q58" si="13">IF(AND(B$49&gt;=$R58,$A58&gt;=B$69),B35,B12)</f>
-        <v>6.8</v>
+        <v>8.0078130000000005</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" si="13"/>
-        <v>8.4</v>
+        <v>7.890625</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="13"/>
-        <v>8.9</v>
+        <v>8.4765630000000005</v>
       </c>
       <c r="E58" s="1">
         <f t="shared" si="13"/>
-        <v>9.1999999999999993</v>
+        <v>8.9453130000000005</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="13"/>
-        <v>5.5</v>
+        <v>5.546875</v>
       </c>
       <c r="G58" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3.9063000000000001E-2</v>
       </c>
       <c r="H58" s="1">
         <f t="shared" si="13"/>
-        <v>-10</v>
+        <v>-1.484375</v>
       </c>
       <c r="I58" s="1">
         <f t="shared" si="13"/>
-        <v>-10</v>
+        <v>-3.4765630000000001</v>
       </c>
       <c r="J58" s="1">
         <f t="shared" si="13"/>
-        <v>-10</v>
+        <v>-4.6484379999999996</v>
       </c>
       <c r="K58" s="1">
         <f t="shared" si="13"/>
-        <v>-10</v>
+        <v>-5.234375</v>
       </c>
       <c r="L58" s="1">
         <f t="shared" si="13"/>
@@ -3460,53 +3460,53 @@
       </c>
       <c r="R58" s="1">
         <f t="shared" si="6"/>
-        <v>79.75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+        <v>86.666666666666671</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" ref="B59:Q59" si="14">IF(AND(B$49&gt;=$R59,$A59&gt;=B$69),B36,B13)</f>
-        <v>6.9</v>
+        <v>8.0078130000000005</v>
       </c>
       <c r="C59" s="1">
         <f t="shared" si="14"/>
-        <v>8.6</v>
+        <v>7.890625</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="14"/>
-        <v>9.1999999999999993</v>
+        <v>8.4765630000000005</v>
       </c>
       <c r="E59" s="1">
         <f t="shared" si="14"/>
-        <v>9.5</v>
+        <v>8.9453130000000005</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="14"/>
-        <v>5.9</v>
+        <v>5.546875</v>
       </c>
       <c r="G59" s="1">
         <f t="shared" si="14"/>
-        <v>0.5</v>
+        <v>0.50781299999999996</v>
       </c>
       <c r="H59" s="1">
         <f t="shared" si="14"/>
-        <v>-10</v>
+        <v>3.9063000000000001E-2</v>
       </c>
       <c r="I59" s="1">
         <f t="shared" si="14"/>
-        <v>-10</v>
+        <v>-1.953125</v>
       </c>
       <c r="J59" s="1">
         <f t="shared" si="14"/>
-        <v>-10</v>
+        <v>-4.4140629999999996</v>
       </c>
       <c r="K59" s="1">
         <f t="shared" si="14"/>
-        <v>2.96875</v>
+        <v>-6.9921879999999996</v>
       </c>
       <c r="L59" s="1">
         <f t="shared" si="14"/>
@@ -3534,53 +3534,53 @@
       </c>
       <c r="R59" s="1">
         <f t="shared" si="6"/>
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="3"/>
         <v>2200</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" ref="B60:Q60" si="15">IF(AND(B$49&gt;=$R60,$A60&gt;=B$69),B37,B14)</f>
-        <v>7</v>
+        <v>8.1189239999999998</v>
       </c>
       <c r="C60" s="1">
         <f t="shared" si="15"/>
-        <v>8.9</v>
+        <v>8.0017359999999993</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="15"/>
-        <v>9.4</v>
+        <v>8.5876739999999998</v>
       </c>
       <c r="E60" s="1">
         <f t="shared" si="15"/>
-        <v>9.8000000000000007</v>
+        <v>9.0564239999999998</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="15"/>
-        <v>6.2</v>
+        <v>5.6579860000000002</v>
       </c>
       <c r="G60" s="1">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0.61892400000000003</v>
       </c>
       <c r="H60" s="1">
         <f t="shared" si="15"/>
-        <v>-10</v>
+        <v>0.150174</v>
       </c>
       <c r="I60" s="1">
         <f t="shared" si="15"/>
-        <v>-10</v>
+        <v>-1.842014</v>
       </c>
       <c r="J60" s="1">
         <f t="shared" si="15"/>
-        <v>-10</v>
+        <v>-8.046875</v>
       </c>
       <c r="K60" s="1">
         <f t="shared" si="15"/>
-        <v>4.2578129999999996</v>
+        <v>-8.046875</v>
       </c>
       <c r="L60" s="1">
         <f t="shared" si="15"/>
@@ -3608,49 +3608,49 @@
       </c>
       <c r="R60" s="1">
         <f t="shared" si="6"/>
-        <v>75.25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="3"/>
         <v>2400</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" ref="B61:Q61" si="16">IF(AND(B$49&gt;=$R61,$A61&gt;=B$69),B38,B15)</f>
-        <v>7.1</v>
+        <v>8.2300350000000009</v>
       </c>
       <c r="C61" s="1">
         <f t="shared" si="16"/>
-        <v>9.1</v>
+        <v>8.1128470000000004</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="16"/>
-        <v>9.8000000000000007</v>
+        <v>8.6987850000000009</v>
       </c>
       <c r="E61" s="1">
         <f t="shared" si="16"/>
-        <v>10.1</v>
+        <v>9.1675350000000009</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="16"/>
-        <v>6.5</v>
+        <v>5.7690970000000004</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" si="16"/>
-        <v>1.5</v>
+        <v>0.73003499999999999</v>
       </c>
       <c r="H61" s="1">
         <f t="shared" si="16"/>
-        <v>-10</v>
+        <v>0.26128499999999999</v>
       </c>
       <c r="I61" s="1">
         <f t="shared" si="16"/>
-        <v>-10</v>
+        <v>-1.7309030000000001</v>
       </c>
       <c r="J61" s="1">
         <f t="shared" si="16"/>
-        <v>-10</v>
+        <v>-9.453125</v>
       </c>
       <c r="K61" s="1">
         <f t="shared" si="16"/>
@@ -3682,10 +3682,10 @@
       </c>
       <c r="R61" s="1">
         <f t="shared" si="6"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+        <v>76.666666666666671</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="3"/>
         <v>2600</v>
@@ -3696,35 +3696,35 @@
       </c>
       <c r="C62" s="1">
         <f t="shared" si="17"/>
-        <v>9.4</v>
+        <v>8.2239579999999997</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="17"/>
-        <v>10.1</v>
+        <v>8.8098960000000002</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" si="17"/>
-        <v>10.4</v>
+        <v>9.2786460000000002</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="17"/>
-        <v>6.9</v>
+        <v>5.8802079999999997</v>
       </c>
       <c r="G62" s="1">
         <f t="shared" si="17"/>
-        <v>2.1</v>
+        <v>0.84114599999999995</v>
       </c>
       <c r="H62" s="1">
         <f t="shared" si="17"/>
-        <v>-10</v>
+        <v>0.372396</v>
       </c>
       <c r="I62" s="1">
         <f t="shared" si="17"/>
-        <v>-10</v>
+        <v>-1.6197919999999999</v>
       </c>
       <c r="J62" s="1">
         <f t="shared" si="17"/>
-        <v>6.484375</v>
+        <v>-8.984375</v>
       </c>
       <c r="K62" s="1">
         <f t="shared" si="17"/>
@@ -3756,10 +3756,10 @@
       </c>
       <c r="R62" s="1">
         <f t="shared" si="6"/>
-        <v>70.75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+        <v>73.333333333333329</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="3"/>
         <v>2800</v>
@@ -3774,27 +3774,27 @@
       </c>
       <c r="D63" s="1">
         <f t="shared" si="18"/>
-        <v>10.5</v>
+        <v>8.9210069999999995</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" si="18"/>
-        <v>10.9</v>
+        <v>9.3897569999999995</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="18"/>
-        <v>7.2</v>
+        <v>5.9913189999999998</v>
       </c>
       <c r="G63" s="1">
         <f t="shared" si="18"/>
-        <v>2.5</v>
+        <v>0.95225700000000002</v>
       </c>
       <c r="H63" s="1">
         <f t="shared" si="18"/>
-        <v>-10</v>
+        <v>0.48350700000000002</v>
       </c>
       <c r="I63" s="1">
         <f t="shared" si="18"/>
-        <v>-10</v>
+        <v>-1.5086809999999999</v>
       </c>
       <c r="J63" s="1">
         <f t="shared" si="18"/>
@@ -3830,10 +3830,10 @@
       </c>
       <c r="R63" s="1">
         <f t="shared" si="6"/>
-        <v>68.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="3"/>
         <v>2900</v>
@@ -3852,23 +3852,23 @@
       </c>
       <c r="E64" s="1">
         <f t="shared" si="19"/>
-        <v>11.3</v>
+        <v>9.5008689999999998</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="19"/>
-        <v>7.3</v>
+        <v>6.1024310000000002</v>
       </c>
       <c r="G64" s="1">
         <f t="shared" si="19"/>
-        <v>2.7</v>
+        <v>1.0633680000000001</v>
       </c>
       <c r="H64" s="1">
         <f t="shared" si="19"/>
-        <v>-10</v>
+        <v>0.59461900000000001</v>
       </c>
       <c r="I64" s="1">
         <f t="shared" si="19"/>
-        <v>-10</v>
+        <v>-1.3975690000000001</v>
       </c>
       <c r="J64" s="1">
         <f t="shared" si="19"/>
@@ -3904,10 +3904,10 @@
       </c>
       <c r="R64" s="1">
         <f t="shared" si="6"/>
-        <v>67.375</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+        <v>68.333333333333329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="3"/>
         <v>3000</v>
@@ -3930,19 +3930,19 @@
       </c>
       <c r="F65" s="1">
         <f t="shared" si="20"/>
-        <v>7.5</v>
+        <v>6.2135420000000003</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" si="20"/>
-        <v>2.9</v>
+        <v>1.1744790000000001</v>
       </c>
       <c r="H65" s="1">
         <f t="shared" si="20"/>
-        <v>-10</v>
+        <v>0.70572999999999997</v>
       </c>
       <c r="I65" s="1">
         <f t="shared" si="20"/>
-        <v>-10</v>
+        <v>-1.2864580000000001</v>
       </c>
       <c r="J65" s="1">
         <f t="shared" si="20"/>
@@ -3978,10 +3978,10 @@
       </c>
       <c r="R65" s="1">
         <f t="shared" si="6"/>
-        <v>66.25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="3"/>
         <v>3200</v>
@@ -4004,15 +4004,15 @@
       </c>
       <c r="F66" s="1">
         <f t="shared" si="21"/>
-        <v>7.8</v>
+        <v>6.3246529999999996</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" si="21"/>
-        <v>3.3</v>
+        <v>1.2855909999999999</v>
       </c>
       <c r="H66" s="1">
         <f t="shared" si="21"/>
-        <v>-10</v>
+        <v>0.81684100000000004</v>
       </c>
       <c r="I66" s="1">
         <f t="shared" si="21"/>
@@ -4052,10 +4052,10 @@
       </c>
       <c r="R66" s="1">
         <f t="shared" si="6"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+        <v>63.333333333333336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="3"/>
         <v>3500</v>
@@ -4078,15 +4078,15 @@
       </c>
       <c r="F67" s="1">
         <f t="shared" si="22"/>
-        <v>8.1999999999999993</v>
+        <v>6.4357639999999998</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" si="22"/>
-        <v>4.0999999999999996</v>
+        <v>1.3967020000000001</v>
       </c>
       <c r="H67" s="1">
         <f t="shared" si="22"/>
-        <v>-10</v>
+        <v>11.171875</v>
       </c>
       <c r="I67" s="1">
         <f t="shared" si="22"/>
@@ -4126,10 +4126,10 @@
       </c>
       <c r="R67" s="1">
         <f t="shared" si="6"/>
-        <v>60.625</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="3"/>
         <v>4000</v>
@@ -4152,11 +4152,11 @@
       </c>
       <c r="F68" s="1">
         <f t="shared" si="23"/>
-        <v>9</v>
+        <v>6.546875</v>
       </c>
       <c r="G68" s="1">
         <f t="shared" si="23"/>
-        <v>5.4</v>
+        <v>13.632813000000001</v>
       </c>
       <c r="H68" s="1">
         <f t="shared" si="23"/>
@@ -4200,81 +4200,81 @@
       </c>
       <c r="R68" s="1">
         <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B69" s="1">
         <f>$U$53*(B$49-$T$50)+$U$50</f>
-        <v>8888.8888888888887</v>
+        <v>7000</v>
       </c>
       <c r="C69" s="1">
         <f t="shared" ref="C69:Q69" si="24">$U$53*(C$49-$T$50)+$U$50</f>
-        <v>8000</v>
+        <v>6400</v>
       </c>
       <c r="D69" s="1">
         <f t="shared" si="24"/>
-        <v>7111.1111111111113</v>
+        <v>5800</v>
       </c>
       <c r="E69" s="1">
         <f t="shared" si="24"/>
-        <v>6222.2222222222217</v>
+        <v>5200</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="24"/>
-        <v>4888.8888888888887</v>
+        <v>4300</v>
       </c>
       <c r="G69" s="1">
         <f t="shared" si="24"/>
-        <v>4168.8888888888887</v>
+        <v>3814</v>
       </c>
       <c r="H69" s="1">
         <f t="shared" si="24"/>
-        <v>3626.6666666666661</v>
+        <v>3448</v>
       </c>
       <c r="I69" s="1">
         <f t="shared" si="24"/>
-        <v>3084.4444444444448</v>
+        <v>3082</v>
       </c>
       <c r="J69" s="1">
         <f t="shared" si="24"/>
-        <v>2542.2222222222217</v>
+        <v>2715.9999999999995</v>
       </c>
       <c r="K69" s="1">
         <f t="shared" si="24"/>
-        <v>2000</v>
+        <v>2350</v>
       </c>
       <c r="L69" s="1">
         <f t="shared" si="24"/>
-        <v>1182.2222222222219</v>
+        <v>1797.9999999999998</v>
       </c>
       <c r="M69" s="1">
         <f t="shared" si="24"/>
-        <v>648.88888888888857</v>
+        <v>1437.9999999999998</v>
       </c>
       <c r="N69" s="1">
         <f t="shared" si="24"/>
-        <v>364.44444444444395</v>
+        <v>1245.9999999999995</v>
       </c>
       <c r="O69" s="1">
         <f t="shared" si="24"/>
-        <v>97.777777777777274</v>
+        <v>1065.9999999999995</v>
       </c>
       <c r="P69" s="1">
         <f t="shared" si="24"/>
-        <v>-444.44444444444446</v>
+        <v>700</v>
       </c>
       <c r="Q69" s="1">
         <f t="shared" si="24"/>
-        <v>-5333.333333333333</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -4351,1356 +4351,1356 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" ref="A74:A92" si="26">A4</f>
         <v>620</v>
       </c>
       <c r="B74" s="1">
         <f>($U$53*B$73-$A74-$U$53*$T$50+$U$50)/SQRT($U$53^2+1)</f>
-        <v>93.019113820440069</v>
+        <v>106.31856789087746</v>
       </c>
       <c r="C74" s="1">
         <f t="shared" ref="C74:Q74" si="27">($U$53*C$73-$A74-$U$53*$T$50+$U$50)/SQRT($U$53^2+1)</f>
-        <v>83.019746572878645</v>
+        <v>96.319956490481459</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" si="27"/>
-        <v>73.020379325317236</v>
+        <v>86.321345090085472</v>
       </c>
       <c r="E74" s="1">
         <f t="shared" si="27"/>
-        <v>63.02101207775582</v>
+        <v>76.322733689689471</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="27"/>
-        <v>48.021961206413692</v>
+        <v>61.324816589095462</v>
       </c>
       <c r="G74" s="1">
         <f t="shared" si="27"/>
-        <v>39.92247373588895</v>
+        <v>53.225941354774704</v>
       </c>
       <c r="H74" s="1">
         <f t="shared" si="27"/>
-        <v>33.822859714876479</v>
+        <v>47.126788400533144</v>
       </c>
       <c r="I74" s="1">
         <f t="shared" si="27"/>
-        <v>27.723245693864023</v>
+        <v>41.027635446291583</v>
       </c>
       <c r="J74" s="1">
         <f t="shared" si="27"/>
-        <v>21.623631672851555</v>
+        <v>34.928482492050023</v>
       </c>
       <c r="K74" s="1">
         <f t="shared" si="27"/>
-        <v>15.524017651839097</v>
+        <v>28.829329537808466</v>
       </c>
       <c r="L74" s="1">
         <f t="shared" si="27"/>
-        <v>6.3245997840825794</v>
+        <v>19.630607049444148</v>
       </c>
       <c r="M74" s="1">
         <f t="shared" si="27"/>
-        <v>0.32497943554574371</v>
+        <v>13.631440209206547</v>
       </c>
       <c r="N74" s="1">
         <f t="shared" si="27"/>
-        <v>-2.8748180836739183</v>
+        <v>10.431884561079826</v>
       </c>
       <c r="O74" s="1">
         <f t="shared" si="27"/>
-        <v>-5.8746282579423363</v>
+        <v>7.4323011409610267</v>
       </c>
       <c r="P74" s="1">
         <f t="shared" si="27"/>
-        <v>-11.974242278954783</v>
+        <v>1.3331481867194666</v>
       </c>
       <c r="Q74" s="1">
         <f t="shared" si="27"/>
-        <v>-66.97076214054259</v>
+        <v>-53.65921451545853</v>
       </c>
       <c r="R74" s="1"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="26"/>
         <v>650</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" ref="B75:Q92" si="28">($U$53*B$73-$A75-$U$53*$T$50+$U$50)/SQRT($U$53^2+1)</f>
-        <v>92.68163517583487</v>
+        <v>105.81863732085766</v>
       </c>
       <c r="C75" s="1">
         <f t="shared" si="28"/>
-        <v>82.682267928273447</v>
+        <v>95.82002592046166</v>
       </c>
       <c r="D75" s="1">
         <f t="shared" si="28"/>
-        <v>72.682900680712038</v>
+        <v>85.821414520065659</v>
       </c>
       <c r="E75" s="1">
         <f t="shared" si="28"/>
-        <v>62.683533433150629</v>
+        <v>75.822803119669672</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="28"/>
-        <v>47.684482561808494</v>
+        <v>60.824886019075663</v>
       </c>
       <c r="G75" s="1">
         <f t="shared" si="28"/>
-        <v>39.584995091283751</v>
+        <v>52.726010784754905</v>
       </c>
       <c r="H75" s="1">
         <f t="shared" si="28"/>
-        <v>33.485381070271281</v>
+        <v>46.626857830513345</v>
       </c>
       <c r="I75" s="1">
         <f t="shared" si="28"/>
-        <v>27.385767049258824</v>
+        <v>40.527704876271784</v>
       </c>
       <c r="J75" s="1">
         <f t="shared" si="28"/>
-        <v>21.286153028246357</v>
+        <v>34.428551922030223</v>
       </c>
       <c r="K75" s="1">
         <f t="shared" si="28"/>
-        <v>15.186539007233899</v>
+        <v>28.329398967788666</v>
       </c>
       <c r="L75" s="1">
         <f t="shared" si="28"/>
-        <v>5.9871211394773818</v>
+        <v>19.130676479424345</v>
       </c>
       <c r="M75" s="1">
         <f t="shared" si="28"/>
-        <v>-1.2499209059454043E-2</v>
+        <v>13.131509639186746</v>
       </c>
       <c r="N75" s="1">
         <f t="shared" si="28"/>
-        <v>-3.2122967282791159</v>
+        <v>9.931953991060027</v>
       </c>
       <c r="O75" s="1">
         <f t="shared" si="28"/>
-        <v>-6.2121069025475339</v>
+        <v>6.9323705709412264</v>
       </c>
       <c r="P75" s="1">
         <f t="shared" si="28"/>
-        <v>-12.311720923559982</v>
+        <v>0.83321761669966665</v>
       </c>
       <c r="Q75" s="1">
         <f t="shared" si="28"/>
-        <v>-67.308240785147788</v>
+        <v>-54.159145085478336</v>
       </c>
       <c r="R75" s="1"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="26"/>
         <v>800</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="28"/>
-        <v>90.994241952808878</v>
+        <v>103.31898447075866</v>
       </c>
       <c r="C76" s="1">
         <f t="shared" si="28"/>
-        <v>80.994874705247469</v>
+        <v>93.320373070362663</v>
       </c>
       <c r="D76" s="1">
         <f t="shared" si="28"/>
-        <v>70.995507457686045</v>
+        <v>83.321761669966662</v>
       </c>
       <c r="E76" s="1">
         <f t="shared" si="28"/>
-        <v>60.996140210124636</v>
+        <v>73.323150269570661</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="28"/>
-        <v>45.997089338782509</v>
+        <v>58.325233168976666</v>
       </c>
       <c r="G76" s="1">
         <f t="shared" si="28"/>
-        <v>37.897601868257759</v>
+        <v>50.226357934655908</v>
       </c>
       <c r="H76" s="1">
         <f t="shared" si="28"/>
-        <v>31.797987847245292</v>
+        <v>44.127204980414348</v>
       </c>
       <c r="I76" s="1">
         <f t="shared" si="28"/>
-        <v>25.698373826232835</v>
+        <v>38.028052026172787</v>
       </c>
       <c r="J76" s="1">
         <f t="shared" si="28"/>
-        <v>19.598759805220368</v>
+        <v>31.928899071931227</v>
       </c>
       <c r="K76" s="1">
         <f t="shared" si="28"/>
-        <v>13.49914578420791</v>
+        <v>25.829746117689666</v>
       </c>
       <c r="L76" s="1">
         <f t="shared" si="28"/>
-        <v>4.2997279164513929</v>
+        <v>16.631023629325348</v>
       </c>
       <c r="M76" s="1">
         <f t="shared" si="28"/>
-        <v>-1.6998924320854429</v>
+        <v>10.631856789087747</v>
       </c>
       <c r="N76" s="1">
         <f t="shared" si="28"/>
-        <v>-4.8996899513051044</v>
+        <v>7.4323011409610267</v>
       </c>
       <c r="O76" s="1">
         <f t="shared" si="28"/>
-        <v>-7.8995001255735229</v>
+        <v>4.432717720842227</v>
       </c>
       <c r="P76" s="1">
         <f t="shared" si="28"/>
-        <v>-13.999114146585971</v>
+        <v>-1.6664352333993333</v>
       </c>
       <c r="Q76" s="1">
         <f t="shared" si="28"/>
-        <v>-68.995634008173766</v>
+        <v>-56.658797935577333</v>
       </c>
       <c r="R76" s="1"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="28"/>
-        <v>88.744384322107564</v>
+        <v>99.986114003959997</v>
       </c>
       <c r="C77" s="1">
         <f t="shared" si="28"/>
-        <v>78.745017074546141</v>
+        <v>89.987502603563996</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" si="28"/>
-        <v>68.745649826984732</v>
+        <v>79.988891203167995</v>
       </c>
       <c r="E77" s="1">
         <f t="shared" si="28"/>
-        <v>58.746282579423315</v>
+        <v>69.990279802771994</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="28"/>
-        <v>43.747231708081188</v>
+        <v>54.992362702177999</v>
       </c>
       <c r="G77" s="1">
         <f t="shared" si="28"/>
-        <v>35.647744237556445</v>
+        <v>46.893487467857241</v>
       </c>
       <c r="H77" s="1">
         <f t="shared" si="28"/>
-        <v>29.548130216543974</v>
+        <v>40.794334513615681</v>
       </c>
       <c r="I77" s="1">
         <f t="shared" si="28"/>
-        <v>23.448516195531518</v>
+        <v>34.69518155937412</v>
       </c>
       <c r="J77" s="1">
         <f t="shared" si="28"/>
-        <v>17.348902174519051</v>
+        <v>28.59602860513256</v>
       </c>
       <c r="K77" s="1">
         <f t="shared" si="28"/>
-        <v>11.249288153506592</v>
+        <v>22.496875650890999</v>
       </c>
       <c r="L77" s="1">
         <f t="shared" si="28"/>
-        <v>2.0498702857500741</v>
+        <v>13.298153162526679</v>
       </c>
       <c r="M77" s="1">
         <f t="shared" si="28"/>
-        <v>-3.9497500627867614</v>
+        <v>7.2989863222890801</v>
       </c>
       <c r="N77" s="1">
         <f t="shared" si="28"/>
-        <v>-7.1495475820064236</v>
+        <v>4.0994306741623596</v>
       </c>
       <c r="O77" s="1">
         <f t="shared" si="28"/>
-        <v>-10.14935775627484</v>
+        <v>1.09984725404356</v>
       </c>
       <c r="P77" s="1">
         <f t="shared" si="28"/>
-        <v>-16.248971777287288</v>
+        <v>-4.9993057001979997</v>
       </c>
       <c r="Q77" s="1">
         <f t="shared" si="28"/>
-        <v>-71.245491638875095</v>
+        <v>-59.991668402376</v>
       </c>
       <c r="R77" s="1"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="26"/>
         <v>1200</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="28"/>
-        <v>86.494526691406236</v>
+        <v>96.65324353716133</v>
       </c>
       <c r="C78" s="1">
         <f t="shared" si="28"/>
-        <v>76.495159443844827</v>
+        <v>86.654632136765329</v>
       </c>
       <c r="D78" s="1">
         <f t="shared" si="28"/>
-        <v>66.495792196283418</v>
+        <v>76.656020736369328</v>
       </c>
       <c r="E78" s="1">
         <f t="shared" si="28"/>
-        <v>56.496424948722002</v>
+        <v>66.657409335973327</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="28"/>
-        <v>41.497374077379874</v>
+        <v>51.659492235379332</v>
       </c>
       <c r="G78" s="1">
         <f t="shared" si="28"/>
-        <v>33.397886606855124</v>
+        <v>43.560617001058574</v>
       </c>
       <c r="H78" s="1">
         <f t="shared" si="28"/>
-        <v>27.298272585842657</v>
+        <v>37.461464046817014</v>
       </c>
       <c r="I78" s="1">
         <f t="shared" si="28"/>
-        <v>21.1986585648302</v>
+        <v>31.362311092575453</v>
       </c>
       <c r="J78" s="1">
         <f t="shared" si="28"/>
-        <v>15.099044543817731</v>
+        <v>25.263158138333893</v>
       </c>
       <c r="K78" s="1">
         <f t="shared" si="28"/>
-        <v>8.9994305228052731</v>
+        <v>19.164005184092332</v>
       </c>
       <c r="L78" s="1">
         <f t="shared" si="28"/>
-        <v>-0.19998734495124421</v>
+        <v>9.9652826957280141</v>
       </c>
       <c r="M78" s="1">
         <f t="shared" si="28"/>
-        <v>-6.1996076934880797</v>
+        <v>3.9661158554904135</v>
       </c>
       <c r="N78" s="1">
         <f t="shared" si="28"/>
-        <v>-9.399405212707741</v>
+        <v>0.76656020736369335</v>
       </c>
       <c r="O78" s="1">
         <f t="shared" si="28"/>
-        <v>-12.399215386976159</v>
+        <v>-2.2330232127551066</v>
       </c>
       <c r="P78" s="1">
         <f t="shared" si="28"/>
-        <v>-18.498829407988605</v>
+        <v>-8.3321761669966659</v>
       </c>
       <c r="Q78" s="1">
         <f t="shared" si="28"/>
-        <v>-73.495349269576408</v>
+        <v>-63.324538869174667</v>
       </c>
       <c r="R78" s="1"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="26"/>
         <v>1400</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="28"/>
-        <v>84.244669060704922</v>
+        <v>93.320373070362663</v>
       </c>
       <c r="C79" s="1">
         <f t="shared" si="28"/>
-        <v>74.245301813143513</v>
+        <v>83.321761669966662</v>
       </c>
       <c r="D79" s="1">
         <f t="shared" si="28"/>
-        <v>64.24593456558209</v>
+        <v>73.323150269570661</v>
       </c>
       <c r="E79" s="1">
         <f t="shared" si="28"/>
-        <v>54.246567318020681</v>
+        <v>63.324538869174667</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="28"/>
-        <v>39.247516446678553</v>
+        <v>48.326621768580665</v>
       </c>
       <c r="G79" s="1">
         <f t="shared" si="28"/>
-        <v>31.148028976153807</v>
+        <v>40.227746534259907</v>
       </c>
       <c r="H79" s="1">
         <f t="shared" si="28"/>
-        <v>25.04841495514134</v>
+        <v>34.128593580018347</v>
       </c>
       <c r="I79" s="1">
         <f t="shared" si="28"/>
-        <v>18.948800934128879</v>
+        <v>28.029440625776786</v>
       </c>
       <c r="J79" s="1">
         <f t="shared" si="28"/>
-        <v>12.849186913116412</v>
+        <v>21.930287671535226</v>
       </c>
       <c r="K79" s="1">
         <f t="shared" si="28"/>
-        <v>6.7495728921039548</v>
+        <v>15.831134717293667</v>
       </c>
       <c r="L79" s="1">
         <f t="shared" si="28"/>
-        <v>-2.4498449756525624</v>
+        <v>6.632412228929347</v>
       </c>
       <c r="M79" s="1">
         <f t="shared" si="28"/>
-        <v>-8.4494653241893989</v>
+        <v>0.63324538869174662</v>
       </c>
       <c r="N79" s="1">
         <f t="shared" si="28"/>
-        <v>-11.64926284340906</v>
+        <v>-2.5663102594349732</v>
       </c>
       <c r="O79" s="1">
         <f t="shared" si="28"/>
-        <v>-14.649073017677479</v>
+        <v>-5.5658936795537732</v>
       </c>
       <c r="P79" s="1">
         <f t="shared" si="28"/>
-        <v>-20.748687038689926</v>
+        <v>-11.665046633795333</v>
       </c>
       <c r="Q79" s="1">
         <f t="shared" si="28"/>
-        <v>-75.745206900277722</v>
+        <v>-66.657409335973327</v>
       </c>
       <c r="R79" s="1"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="26"/>
         <v>1550</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="28"/>
-        <v>82.55727583767893</v>
+        <v>90.820720220263667</v>
       </c>
       <c r="C80" s="1">
         <f t="shared" si="28"/>
-        <v>72.55790859011752</v>
+        <v>80.822108819867665</v>
       </c>
       <c r="D80" s="1">
         <f t="shared" si="28"/>
-        <v>62.558541342556104</v>
+        <v>70.823497419471664</v>
       </c>
       <c r="E80" s="1">
         <f t="shared" si="28"/>
-        <v>52.559174094994695</v>
+        <v>60.824886019075663</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="28"/>
-        <v>37.56012322365256</v>
+        <v>45.826968918481668</v>
       </c>
       <c r="G80" s="1">
         <f t="shared" si="28"/>
-        <v>29.460635753127818</v>
+        <v>37.728093684160903</v>
       </c>
       <c r="H80" s="1">
         <f t="shared" si="28"/>
-        <v>23.361021732115351</v>
+        <v>31.628940729919346</v>
       </c>
       <c r="I80" s="1">
         <f t="shared" si="28"/>
-        <v>17.261407711102891</v>
+        <v>25.529787775677786</v>
       </c>
       <c r="J80" s="1">
         <f t="shared" si="28"/>
-        <v>11.161793690090423</v>
+        <v>19.430634821436225</v>
       </c>
       <c r="K80" s="1">
         <f t="shared" si="28"/>
-        <v>5.0621796690779668</v>
+        <v>13.331481867194666</v>
       </c>
       <c r="L80" s="1">
         <f t="shared" si="28"/>
-        <v>-4.1372381986785518</v>
+        <v>4.1327593788303467</v>
       </c>
       <c r="M80" s="1">
         <f t="shared" si="28"/>
-        <v>-10.136858547215386</v>
+        <v>-1.8664074614072532</v>
       </c>
       <c r="N80" s="1">
         <f t="shared" si="28"/>
-        <v>-13.336656066435049</v>
+        <v>-5.065963109533973</v>
       </c>
       <c r="O80" s="1">
         <f t="shared" si="28"/>
-        <v>-16.336466240703466</v>
+        <v>-8.0655465296527726</v>
       </c>
       <c r="P80" s="1">
         <f t="shared" si="28"/>
-        <v>-22.436080261715915</v>
+        <v>-14.164699483894333</v>
       </c>
       <c r="Q80" s="1">
         <f t="shared" si="28"/>
-        <v>-77.432600123303715</v>
+        <v>-69.157062186072338</v>
       </c>
       <c r="R80" s="1"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="26"/>
         <v>1700</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="28"/>
-        <v>80.869882614652937</v>
+        <v>88.32106737016467</v>
       </c>
       <c r="C81" s="1">
         <f t="shared" si="28"/>
-        <v>70.870515367091528</v>
+        <v>78.322455969768669</v>
       </c>
       <c r="D81" s="1">
         <f t="shared" si="28"/>
-        <v>60.871148119530119</v>
+        <v>68.323844569372667</v>
       </c>
       <c r="E81" s="1">
         <f t="shared" si="28"/>
-        <v>50.871780871968703</v>
+        <v>58.325233168976666</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="28"/>
-        <v>35.872730000626575</v>
+        <v>43.327316068382665</v>
       </c>
       <c r="G81" s="1">
         <f t="shared" si="28"/>
-        <v>27.773242530101829</v>
+        <v>35.228440834061907</v>
       </c>
       <c r="H81" s="1">
         <f t="shared" si="28"/>
-        <v>21.673628509089362</v>
+        <v>29.129287879820346</v>
       </c>
       <c r="I81" s="1">
         <f t="shared" si="28"/>
-        <v>15.574014488076903</v>
+        <v>23.030134925578785</v>
       </c>
       <c r="J81" s="1">
         <f t="shared" si="28"/>
-        <v>9.4744004670644344</v>
+        <v>16.930981971337225</v>
       </c>
       <c r="K81" s="1">
         <f t="shared" si="28"/>
-        <v>3.3747864460519774</v>
+        <v>10.831829017095666</v>
       </c>
       <c r="L81" s="1">
         <f t="shared" si="28"/>
-        <v>-5.8246314217045398</v>
+        <v>1.6331065287313467</v>
       </c>
       <c r="M81" s="1">
         <f t="shared" si="28"/>
-        <v>-11.824251770241375</v>
+        <v>-4.3660603115062528</v>
       </c>
       <c r="N81" s="1">
         <f t="shared" si="28"/>
-        <v>-15.024049289461038</v>
+        <v>-7.5656159596329733</v>
       </c>
       <c r="O81" s="1">
         <f t="shared" si="28"/>
-        <v>-18.023859463729455</v>
+        <v>-10.565199379751773</v>
       </c>
       <c r="P81" s="1">
         <f t="shared" si="28"/>
-        <v>-24.123473484741904</v>
+        <v>-16.664352333993332</v>
       </c>
       <c r="Q81" s="1">
         <f t="shared" si="28"/>
-        <v>-79.119993346329707</v>
+        <v>-71.656715036171335</v>
       </c>
       <c r="R81" s="1"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="26"/>
         <v>1800</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="28"/>
-        <v>79.74495379930228</v>
+        <v>86.654632136765329</v>
       </c>
       <c r="C82" s="1">
         <f t="shared" si="28"/>
-        <v>69.745586551740871</v>
+        <v>76.656020736369328</v>
       </c>
       <c r="D82" s="1">
         <f t="shared" si="28"/>
-        <v>59.746219304179455</v>
+        <v>66.657409335973327</v>
       </c>
       <c r="E82" s="1">
         <f t="shared" si="28"/>
-        <v>49.746852056618046</v>
+        <v>56.658797935577333</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" si="28"/>
-        <v>34.747801185275918</v>
+        <v>41.660880834983331</v>
       </c>
       <c r="G82" s="1">
         <f t="shared" si="28"/>
-        <v>26.648313714751168</v>
+        <v>33.562005600662573</v>
       </c>
       <c r="H82" s="1">
         <f t="shared" si="28"/>
-        <v>20.548699693738701</v>
+        <v>27.462852646421013</v>
       </c>
       <c r="I82" s="1">
         <f t="shared" si="28"/>
-        <v>14.449085672726243</v>
+        <v>21.363699692179452</v>
       </c>
       <c r="J82" s="1">
         <f t="shared" si="28"/>
-        <v>8.3494716517137757</v>
+        <v>15.264546737937893</v>
       </c>
       <c r="K82" s="1">
         <f t="shared" si="28"/>
-        <v>2.2498576307013183</v>
+        <v>9.1653937836963326</v>
       </c>
       <c r="L82" s="1">
         <f t="shared" si="28"/>
-        <v>-6.9495602370551994</v>
+        <v>-3.3328704667986667E-2</v>
       </c>
       <c r="M82" s="1">
         <f t="shared" si="28"/>
-        <v>-12.949180585592035</v>
+        <v>-6.0324955449055864</v>
       </c>
       <c r="N82" s="1">
         <f t="shared" si="28"/>
-        <v>-16.148978104811697</v>
+        <v>-9.2320511930323068</v>
       </c>
       <c r="O82" s="1">
         <f t="shared" si="28"/>
-        <v>-19.148788279080115</v>
+        <v>-12.231634613151106</v>
       </c>
       <c r="P82" s="1">
         <f t="shared" si="28"/>
-        <v>-25.248402300092561</v>
+        <v>-18.330787567392665</v>
       </c>
       <c r="Q82" s="1">
         <f t="shared" si="28"/>
-        <v>-80.244922161680364</v>
+        <v>-73.323150269570661</v>
       </c>
       <c r="R82" s="1"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="26"/>
         <v>2000</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="28"/>
-        <v>77.495096168600966</v>
+        <v>83.321761669966662</v>
       </c>
       <c r="C83" s="1">
         <f t="shared" si="28"/>
-        <v>67.495728921039557</v>
+        <v>73.323150269570661</v>
       </c>
       <c r="D83" s="1">
         <f t="shared" si="28"/>
-        <v>57.496361673478141</v>
+        <v>63.324538869174667</v>
       </c>
       <c r="E83" s="1">
         <f t="shared" si="28"/>
-        <v>47.496994425916725</v>
+        <v>53.325927468778666</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" si="28"/>
-        <v>32.497943554574597</v>
+        <v>38.328010368184664</v>
       </c>
       <c r="G83" s="1">
         <f t="shared" si="28"/>
-        <v>24.398456084049851</v>
+        <v>30.229135133863906</v>
       </c>
       <c r="H83" s="1">
         <f t="shared" si="28"/>
-        <v>18.298842063037384</v>
+        <v>24.129982179622345</v>
       </c>
       <c r="I83" s="1">
         <f t="shared" si="28"/>
-        <v>12.199228042024926</v>
+        <v>18.030829225380785</v>
       </c>
       <c r="J83" s="1">
         <f t="shared" si="28"/>
-        <v>6.0996140210124477</v>
+        <v>11.931676271139226</v>
       </c>
       <c r="K83" s="1">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>5.8325233168976665</v>
       </c>
       <c r="L83" s="1">
         <f t="shared" si="28"/>
-        <v>-9.1994178677565177</v>
+        <v>-3.3661991714666533</v>
       </c>
       <c r="M83" s="1">
         <f t="shared" si="28"/>
-        <v>-15.199038216293353</v>
+        <v>-9.3653660117042534</v>
       </c>
       <c r="N83" s="1">
         <f t="shared" si="28"/>
-        <v>-18.398835735513014</v>
+        <v>-12.564921659830974</v>
       </c>
       <c r="O83" s="1">
         <f t="shared" si="28"/>
-        <v>-21.398645909781433</v>
+        <v>-15.564505079949774</v>
       </c>
       <c r="P83" s="1">
         <f t="shared" si="28"/>
-        <v>-27.498259930793882</v>
+        <v>-21.663658034191332</v>
       </c>
       <c r="Q83" s="1">
         <f t="shared" si="28"/>
-        <v>-82.494779792381678</v>
+        <v>-76.656020736369328</v>
       </c>
       <c r="R83" s="1"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="26"/>
         <v>2200</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="28"/>
-        <v>75.245238537899652</v>
+        <v>79.988891203167995</v>
       </c>
       <c r="C84" s="1">
         <f t="shared" si="28"/>
-        <v>65.245871290338229</v>
+        <v>69.990279802771994</v>
       </c>
       <c r="D84" s="1">
         <f t="shared" si="28"/>
-        <v>55.24650404277682</v>
+        <v>59.991668402376</v>
       </c>
       <c r="E84" s="1">
         <f t="shared" si="28"/>
-        <v>45.247136795215411</v>
+        <v>49.993057001979999</v>
       </c>
       <c r="F84" s="1">
         <f t="shared" si="28"/>
-        <v>30.24808592387328</v>
+        <v>34.995139901385997</v>
       </c>
       <c r="G84" s="1">
         <f t="shared" si="28"/>
-        <v>22.148598453348534</v>
+        <v>26.896264667065239</v>
       </c>
       <c r="H84" s="1">
         <f t="shared" si="28"/>
-        <v>16.048984432336063</v>
+        <v>20.797111712823678</v>
       </c>
       <c r="I84" s="1">
         <f t="shared" si="28"/>
-        <v>9.9493704113236063</v>
+        <v>14.69795875858212</v>
       </c>
       <c r="J84" s="1">
         <f t="shared" si="28"/>
-        <v>3.8497563903111289</v>
+        <v>8.5988058043405591</v>
       </c>
       <c r="K84" s="1">
         <f t="shared" si="28"/>
-        <v>-2.2498576307013183</v>
+        <v>2.4996528500989998</v>
       </c>
       <c r="L84" s="1">
         <f t="shared" si="28"/>
-        <v>-11.449275498457837</v>
+        <v>-6.6990696382653203</v>
       </c>
       <c r="M84" s="1">
         <f t="shared" si="28"/>
-        <v>-17.44889584699467</v>
+        <v>-12.69823647850292</v>
       </c>
       <c r="N84" s="1">
         <f t="shared" si="28"/>
-        <v>-20.648693366214335</v>
+        <v>-15.897792126629639</v>
       </c>
       <c r="O84" s="1">
         <f t="shared" si="28"/>
-        <v>-23.64850354048275</v>
+        <v>-18.897375546748439</v>
       </c>
       <c r="P84" s="1">
         <f t="shared" si="28"/>
-        <v>-29.748117561495199</v>
+        <v>-24.996528500989999</v>
       </c>
       <c r="Q84" s="1">
         <f t="shared" si="28"/>
-        <v>-84.744637423083006</v>
+        <v>-79.988891203167995</v>
       </c>
       <c r="R84" s="1"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="26"/>
         <v>2400</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="28"/>
-        <v>72.995380907198324</v>
+        <v>76.656020736369328</v>
       </c>
       <c r="C85" s="1">
         <f t="shared" si="28"/>
-        <v>62.996013659636915</v>
+        <v>66.657409335973327</v>
       </c>
       <c r="D85" s="1">
         <f t="shared" si="28"/>
-        <v>52.996646412075499</v>
+        <v>56.658797935577333</v>
       </c>
       <c r="E85" s="1">
         <f t="shared" si="28"/>
-        <v>42.99727916451409</v>
+        <v>46.660186535181332</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" si="28"/>
-        <v>27.998228293171959</v>
+        <v>31.662269434587333</v>
       </c>
       <c r="G85" s="1">
         <f t="shared" si="28"/>
-        <v>19.898740822647213</v>
+        <v>23.563394200266572</v>
       </c>
       <c r="H85" s="1">
         <f t="shared" si="28"/>
-        <v>13.799126801634745</v>
+        <v>17.464241246025011</v>
       </c>
       <c r="I85" s="1">
         <f t="shared" si="28"/>
-        <v>7.6995127806222783</v>
+        <v>11.365088291783453</v>
       </c>
       <c r="J85" s="1">
         <f t="shared" si="28"/>
-        <v>1.5998987596098104</v>
+        <v>5.2659353375418929</v>
       </c>
       <c r="K85" s="1">
         <f t="shared" si="28"/>
-        <v>-4.4997152614026366</v>
+        <v>-0.83321761669966665</v>
       </c>
       <c r="L85" s="1">
         <f t="shared" si="28"/>
-        <v>-13.699133129159154</v>
+        <v>-10.031940105063986</v>
       </c>
       <c r="M85" s="1">
         <f t="shared" si="28"/>
-        <v>-19.698753477695991</v>
+        <v>-16.031106945301588</v>
       </c>
       <c r="N85" s="1">
         <f t="shared" si="28"/>
-        <v>-22.898550996915652</v>
+        <v>-19.230662593428306</v>
       </c>
       <c r="O85" s="1">
         <f t="shared" si="28"/>
-        <v>-25.898361171184071</v>
+        <v>-22.230246013547106</v>
       </c>
       <c r="P85" s="1">
         <f t="shared" si="28"/>
-        <v>-31.997975192196517</v>
+        <v>-28.329398967788666</v>
       </c>
       <c r="Q85" s="1">
         <f t="shared" si="28"/>
-        <v>-86.99449505378432</v>
+        <v>-83.321761669966662</v>
       </c>
       <c r="R85" s="1"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="26"/>
         <v>2600</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="28"/>
-        <v>70.745523276497011</v>
+        <v>73.323150269570661</v>
       </c>
       <c r="C86" s="1">
         <f t="shared" si="28"/>
-        <v>60.746156028935594</v>
+        <v>63.324538869174667</v>
       </c>
       <c r="D86" s="1">
         <f t="shared" si="28"/>
-        <v>50.746788781374185</v>
+        <v>53.325927468778666</v>
       </c>
       <c r="E86" s="1">
         <f t="shared" si="28"/>
-        <v>40.747421533812769</v>
+        <v>43.327316068382665</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="28"/>
-        <v>25.748370662470641</v>
+        <v>28.329398967788666</v>
       </c>
       <c r="G86" s="1">
         <f t="shared" si="28"/>
-        <v>17.648883191945895</v>
+        <v>20.230523733467905</v>
       </c>
       <c r="H86" s="1">
         <f t="shared" si="28"/>
-        <v>11.549269170933428</v>
+        <v>14.131370779226346</v>
       </c>
       <c r="I86" s="1">
         <f t="shared" si="28"/>
-        <v>5.44965514992096</v>
+        <v>8.0322178249847873</v>
       </c>
       <c r="J86" s="1">
         <f t="shared" si="28"/>
-        <v>-0.64995887109150785</v>
+        <v>1.9330648707432267</v>
       </c>
       <c r="K86" s="1">
         <f t="shared" si="28"/>
-        <v>-6.7495728921039548</v>
+        <v>-4.1660880834983329</v>
       </c>
       <c r="L86" s="1">
         <f t="shared" si="28"/>
-        <v>-15.948990759860473</v>
+        <v>-13.364810571862654</v>
       </c>
       <c r="M86" s="1">
         <f t="shared" si="28"/>
-        <v>-21.948611108397309</v>
+        <v>-19.363977412100255</v>
       </c>
       <c r="N86" s="1">
         <f t="shared" si="28"/>
-        <v>-25.14840862761697</v>
+        <v>-22.563533060226973</v>
       </c>
       <c r="O86" s="1">
         <f t="shared" si="28"/>
-        <v>-28.148218801885388</v>
+        <v>-25.563116480345773</v>
       </c>
       <c r="P86" s="1">
         <f t="shared" si="28"/>
-        <v>-34.247832822897834</v>
+        <v>-31.662269434587333</v>
       </c>
       <c r="Q86" s="1">
         <f t="shared" si="28"/>
-        <v>-89.244352684485634</v>
+        <v>-86.654632136765329</v>
       </c>
       <c r="R86" s="1"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="26"/>
         <v>2800</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="28"/>
-        <v>68.495665645795697</v>
+        <v>69.990279802771994</v>
       </c>
       <c r="C87" s="1">
         <f t="shared" si="28"/>
-        <v>58.496298398234281</v>
+        <v>59.991668402376</v>
       </c>
       <c r="D87" s="1">
         <f t="shared" si="28"/>
-        <v>48.496931150672864</v>
+        <v>49.993057001979999</v>
       </c>
       <c r="E87" s="1">
         <f t="shared" si="28"/>
-        <v>38.497563903111455</v>
+        <v>39.994445601583998</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="28"/>
-        <v>23.498513031769324</v>
+        <v>24.996528500989999</v>
       </c>
       <c r="G87" s="1">
         <f t="shared" si="28"/>
-        <v>15.399025561244578</v>
+        <v>16.897653266669241</v>
       </c>
       <c r="H87" s="1">
         <f t="shared" si="28"/>
-        <v>9.2994115402321089</v>
+        <v>10.798500312427679</v>
       </c>
       <c r="I87" s="1">
         <f t="shared" si="28"/>
-        <v>3.1997975192196413</v>
+        <v>4.6993473581861203</v>
       </c>
       <c r="J87" s="1">
         <f t="shared" si="28"/>
-        <v>-2.8998165017928264</v>
+        <v>-1.3998055960554401</v>
       </c>
       <c r="K87" s="1">
         <f t="shared" si="28"/>
-        <v>-8.9994305228052731</v>
+        <v>-7.498958550297</v>
       </c>
       <c r="L87" s="1">
         <f t="shared" si="28"/>
-        <v>-18.198848390561793</v>
+        <v>-16.697681038661319</v>
       </c>
       <c r="M87" s="1">
         <f t="shared" si="28"/>
-        <v>-24.198468739098626</v>
+        <v>-22.696847878898918</v>
       </c>
       <c r="N87" s="1">
         <f t="shared" si="28"/>
-        <v>-27.398266258318287</v>
+        <v>-25.89640352702564</v>
       </c>
       <c r="O87" s="1">
         <f t="shared" si="28"/>
-        <v>-30.398076432586706</v>
+        <v>-28.89598694714444</v>
       </c>
       <c r="P87" s="1">
         <f t="shared" si="28"/>
-        <v>-36.497690453599155</v>
+        <v>-34.995139901385997</v>
       </c>
       <c r="Q87" s="1">
         <f t="shared" si="28"/>
-        <v>-91.494210315186962</v>
+        <v>-89.987502603563996</v>
       </c>
       <c r="R87" s="1"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="26"/>
         <v>2900</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="28"/>
-        <v>67.370736830445026</v>
+        <v>68.323844569372667</v>
       </c>
       <c r="C88" s="1">
         <f t="shared" si="28"/>
-        <v>57.371369582883617</v>
+        <v>58.325233168976666</v>
       </c>
       <c r="D88" s="1">
         <f t="shared" si="28"/>
-        <v>47.372002335322208</v>
+        <v>48.326621768580665</v>
       </c>
       <c r="E88" s="1">
         <f t="shared" si="28"/>
-        <v>37.372635087760791</v>
+        <v>38.328010368184664</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="28"/>
-        <v>22.373584216418664</v>
+        <v>23.330093267590666</v>
       </c>
       <c r="G88" s="1">
         <f t="shared" si="28"/>
-        <v>14.274096745893917</v>
+        <v>15.231218033269906</v>
       </c>
       <c r="H88" s="1">
         <f t="shared" si="28"/>
-        <v>8.1744827248814502</v>
+        <v>9.1320650790283473</v>
       </c>
       <c r="I88" s="1">
         <f t="shared" si="28"/>
-        <v>2.0748687038689821</v>
+        <v>3.0329121247867867</v>
       </c>
       <c r="J88" s="1">
         <f t="shared" si="28"/>
-        <v>-4.0247453171434859</v>
+        <v>-3.0662408294547734</v>
       </c>
       <c r="K88" s="1">
         <f t="shared" si="28"/>
-        <v>-10.124359338155934</v>
+        <v>-9.1653937836963326</v>
       </c>
       <c r="L88" s="1">
         <f t="shared" si="28"/>
-        <v>-19.32377720591245</v>
+        <v>-18.364116272060652</v>
       </c>
       <c r="M88" s="1">
         <f t="shared" si="28"/>
-        <v>-25.323397554449286</v>
+        <v>-24.363283112298252</v>
       </c>
       <c r="N88" s="1">
         <f t="shared" si="28"/>
-        <v>-28.523195073668948</v>
+        <v>-27.562838760424974</v>
       </c>
       <c r="O88" s="1">
         <f t="shared" si="28"/>
-        <v>-31.523005247937366</v>
+        <v>-30.562422180543773</v>
       </c>
       <c r="P88" s="1">
         <f t="shared" si="28"/>
-        <v>-37.622619268949812</v>
+        <v>-36.66157513478533</v>
       </c>
       <c r="Q88" s="1">
         <f t="shared" si="28"/>
-        <v>-92.619139130537619</v>
+        <v>-91.653937836963337</v>
       </c>
       <c r="R88" s="1"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="26"/>
         <v>3000</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="28"/>
-        <v>66.245808015094369</v>
+        <v>66.657409335973327</v>
       </c>
       <c r="C89" s="1">
         <f t="shared" si="28"/>
-        <v>56.24644076753296</v>
+        <v>56.658797935577333</v>
       </c>
       <c r="D89" s="1">
         <f t="shared" si="28"/>
-        <v>46.247073519971551</v>
+        <v>46.660186535181332</v>
       </c>
       <c r="E89" s="1">
         <f t="shared" si="28"/>
-        <v>36.247706272410134</v>
+        <v>36.66157513478533</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="28"/>
-        <v>21.248655401068007</v>
+        <v>21.663658034191332</v>
       </c>
       <c r="G89" s="1">
         <f t="shared" si="28"/>
-        <v>13.149167930543259</v>
+        <v>13.564782799870573</v>
       </c>
       <c r="H89" s="1">
         <f t="shared" si="28"/>
-        <v>7.0495539095307906</v>
+        <v>7.4656298456290129</v>
       </c>
       <c r="I89" s="1">
         <f t="shared" si="28"/>
-        <v>0.94993988851832312</v>
+        <v>1.3664768913874532</v>
       </c>
       <c r="J89" s="1">
         <f t="shared" si="28"/>
-        <v>-5.1496741324941446</v>
+        <v>-4.7326760628541065</v>
       </c>
       <c r="K89" s="1">
         <f t="shared" si="28"/>
-        <v>-11.249288153506592</v>
+        <v>-10.831829017095666</v>
       </c>
       <c r="L89" s="1">
         <f t="shared" si="28"/>
-        <v>-20.44870602126311</v>
+        <v>-20.030551505459986</v>
       </c>
       <c r="M89" s="1">
         <f t="shared" si="28"/>
-        <v>-26.448326369799947</v>
+        <v>-26.029718345697585</v>
       </c>
       <c r="N89" s="1">
         <f t="shared" si="28"/>
-        <v>-29.648123889019608</v>
+        <v>-29.229273993824307</v>
       </c>
       <c r="O89" s="1">
         <f t="shared" si="28"/>
-        <v>-32.647934063288027</v>
+        <v>-32.228857413943103</v>
       </c>
       <c r="P89" s="1">
         <f t="shared" si="28"/>
-        <v>-38.747548084300469</v>
+        <v>-38.328010368184664</v>
       </c>
       <c r="Q89" s="1">
         <f t="shared" si="28"/>
-        <v>-93.744067945888276</v>
+        <v>-93.320373070362663</v>
       </c>
       <c r="R89" s="1"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="26"/>
         <v>3200</v>
       </c>
       <c r="B90" s="1">
         <f t="shared" si="28"/>
-        <v>63.995950384393055</v>
+        <v>63.324538869174667</v>
       </c>
       <c r="C90" s="1">
         <f t="shared" si="28"/>
-        <v>53.996583136831639</v>
+        <v>53.325927468778666</v>
       </c>
       <c r="D90" s="1">
         <f t="shared" si="28"/>
-        <v>43.99721588927023</v>
+        <v>43.327316068382665</v>
       </c>
       <c r="E90" s="1">
         <f t="shared" si="28"/>
-        <v>33.997848641708813</v>
+        <v>33.328704667986663</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="28"/>
-        <v>18.998797770366686</v>
+        <v>18.330787567392665</v>
       </c>
       <c r="G90" s="1">
         <f t="shared" si="28"/>
-        <v>10.89931029984194</v>
+        <v>10.231912333071907</v>
       </c>
       <c r="H90" s="1">
         <f t="shared" si="28"/>
-        <v>4.7996962788294724</v>
+        <v>4.1327593788303467</v>
       </c>
       <c r="I90" s="1">
         <f t="shared" si="28"/>
-        <v>-1.2999177421829953</v>
+        <v>-1.9663935754112134</v>
       </c>
       <c r="J90" s="1">
         <f t="shared" si="28"/>
-        <v>-7.3995317631954629</v>
+        <v>-8.0655465296527726</v>
       </c>
       <c r="K90" s="1">
         <f t="shared" si="28"/>
-        <v>-13.49914578420791</v>
+        <v>-14.164699483894333</v>
       </c>
       <c r="L90" s="1">
         <f t="shared" si="28"/>
-        <v>-22.698563651964427</v>
+        <v>-23.363421972258653</v>
       </c>
       <c r="M90" s="1">
         <f t="shared" si="28"/>
-        <v>-28.698184000501264</v>
+        <v>-29.362588812496252</v>
       </c>
       <c r="N90" s="1">
         <f t="shared" si="28"/>
-        <v>-31.897981519720926</v>
+        <v>-32.562144460622974</v>
       </c>
       <c r="O90" s="1">
         <f t="shared" ref="C90:Q92" si="29">($U$53*O$73-$A90-$U$53*$T$50+$U$50)/SQRT($U$53^2+1)</f>
-        <v>-34.89779169398934</v>
+        <v>-35.56172788074177</v>
       </c>
       <c r="P90" s="1">
         <f t="shared" si="29"/>
-        <v>-40.99740571500179</v>
+        <v>-41.660880834983331</v>
       </c>
       <c r="Q90" s="1">
         <f t="shared" si="29"/>
-        <v>-95.993925576589589</v>
+        <v>-96.65324353716133</v>
       </c>
       <c r="R90" s="1"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="26"/>
         <v>3500</v>
       </c>
       <c r="B91" s="1">
         <f t="shared" si="28"/>
-        <v>60.621163938341077</v>
+        <v>58.325233168976666</v>
       </c>
       <c r="C91" s="1">
         <f t="shared" si="29"/>
-        <v>50.621796690779661</v>
+        <v>48.326621768580665</v>
       </c>
       <c r="D91" s="1">
         <f t="shared" si="29"/>
-        <v>40.622429443218252</v>
+        <v>38.328010368184664</v>
       </c>
       <c r="E91" s="1">
         <f t="shared" si="29"/>
-        <v>30.623062195656839</v>
+        <v>28.329398967788666</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="29"/>
-        <v>15.62401132431471</v>
+        <v>13.331481867194666</v>
       </c>
       <c r="G91" s="1">
         <f t="shared" si="29"/>
-        <v>7.5245238537899626</v>
+        <v>5.2326066328739067</v>
       </c>
       <c r="H91" s="1">
         <f t="shared" si="29"/>
-        <v>1.4249098327774949</v>
+        <v>-0.8665463213676533</v>
       </c>
       <c r="I91" s="1">
         <f t="shared" si="29"/>
-        <v>-4.6747041882349727</v>
+        <v>-6.9656992756092135</v>
       </c>
       <c r="J91" s="1">
         <f t="shared" si="29"/>
-        <v>-10.77431820924744</v>
+        <v>-13.064852229850773</v>
       </c>
       <c r="K91" s="1">
         <f t="shared" si="29"/>
-        <v>-16.873932230259889</v>
+        <v>-19.164005184092332</v>
       </c>
       <c r="L91" s="1">
         <f t="shared" si="29"/>
-        <v>-26.073350098016405</v>
+        <v>-28.362727672456653</v>
       </c>
       <c r="M91" s="1">
         <f t="shared" si="29"/>
-        <v>-32.072970446553242</v>
+        <v>-34.361894512694256</v>
       </c>
       <c r="N91" s="1">
         <f t="shared" si="29"/>
-        <v>-35.2727679657729</v>
+        <v>-37.561450160820975</v>
       </c>
       <c r="O91" s="1">
         <f t="shared" si="29"/>
-        <v>-38.272578140041318</v>
+        <v>-40.561033580939771</v>
       </c>
       <c r="P91" s="1">
         <f t="shared" si="29"/>
-        <v>-44.372192161053768</v>
+        <v>-46.660186535181332</v>
       </c>
       <c r="Q91" s="1">
         <f t="shared" si="29"/>
-        <v>-99.368712022641574</v>
+        <v>-101.65254923735934</v>
       </c>
       <c r="R91" s="1"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="26"/>
         <v>4000</v>
       </c>
       <c r="B92" s="1">
         <f t="shared" si="28"/>
-        <v>54.996519861587778</v>
+        <v>49.993057001979999</v>
       </c>
       <c r="C92" s="1">
         <f t="shared" si="29"/>
-        <v>44.997152614026369</v>
+        <v>39.994445601583998</v>
       </c>
       <c r="D92" s="1">
         <f t="shared" si="29"/>
-        <v>34.997785366464953</v>
+        <v>29.995834201188</v>
       </c>
       <c r="E92" s="1">
         <f t="shared" si="29"/>
-        <v>24.998418118903544</v>
+        <v>19.997222800791999</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" si="29"/>
-        <v>9.9993672475614126</v>
+        <v>4.9993057001979997</v>
       </c>
       <c r="G92" s="1">
         <f t="shared" si="29"/>
-        <v>1.8998797770366667</v>
+        <v>-3.09956953412276</v>
       </c>
       <c r="H92" s="1">
         <f t="shared" si="29"/>
-        <v>-4.1997342439758008</v>
+        <v>-9.1987224883643197</v>
       </c>
       <c r="I92" s="1">
         <f t="shared" si="29"/>
-        <v>-10.29934826498827</v>
+        <v>-15.29787544260588</v>
       </c>
       <c r="J92" s="1">
         <f t="shared" si="29"/>
-        <v>-16.398962286000735</v>
+        <v>-21.397028396847439</v>
       </c>
       <c r="K92" s="1">
         <f t="shared" si="29"/>
-        <v>-22.498576307013185</v>
+        <v>-27.496181351089</v>
       </c>
       <c r="L92" s="1">
         <f t="shared" si="29"/>
-        <v>-31.6979941747697</v>
+        <v>-36.694903839453318</v>
       </c>
       <c r="M92" s="1">
         <f t="shared" si="29"/>
-        <v>-37.697614523306534</v>
+        <v>-42.694070679690917</v>
       </c>
       <c r="N92" s="1">
         <f t="shared" si="29"/>
-        <v>-40.897412042526199</v>
+        <v>-45.893626327817643</v>
       </c>
       <c r="O92" s="1">
         <f t="shared" si="29"/>
-        <v>-43.897222216794617</v>
+        <v>-48.893209747936439</v>
       </c>
       <c r="P92" s="1">
         <f t="shared" si="29"/>
-        <v>-49.996836237807067</v>
+        <v>-54.992362702177999</v>
       </c>
       <c r="Q92" s="1">
         <f t="shared" si="29"/>
-        <v>-104.99335609939486</v>
+        <v>-109.984725404356</v>
       </c>
       <c r="R92" s="1"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -5718,12 +5718,12 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -5803,46 +5803,46 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97">
         <f t="shared" ref="A97:A115" si="31">A4</f>
         <v>620</v>
       </c>
       <c r="B97" s="1">
         <f>IF(ABS(B74)&gt;=$T$97,B50,(B74+$T$97)*(B4-B27)/($T$97*2)+B27)</f>
-        <v>-4</v>
+        <v>-3.0078130000000001</v>
       </c>
       <c r="C97" s="1">
         <f t="shared" ref="C97:Q97" si="32">IF(ABS(C74)&gt;=$T$97,C50,(C74+$T$97)*(C4-C27)/($T$97*2)+C27)</f>
-        <v>-4</v>
+        <v>-3.0078130000000001</v>
       </c>
       <c r="D97" s="1">
         <f t="shared" si="32"/>
-        <v>-4</v>
+        <v>-3.0078130000000001</v>
       </c>
       <c r="E97" s="1">
         <f t="shared" si="32"/>
-        <v>-4</v>
+        <v>-3.0078130000000001</v>
       </c>
       <c r="F97" s="1">
         <f t="shared" si="32"/>
-        <v>-8.5</v>
+        <v>-5</v>
       </c>
       <c r="G97" s="1">
         <f t="shared" si="32"/>
-        <v>-13</v>
+        <v>-8.8671880000000005</v>
       </c>
       <c r="H97" s="1">
         <f t="shared" si="32"/>
-        <v>-13</v>
+        <v>-12.03125</v>
       </c>
       <c r="I97" s="1">
         <f t="shared" si="32"/>
-        <v>-13</v>
+        <v>-12.03125</v>
       </c>
       <c r="J97" s="1">
         <f t="shared" si="32"/>
-        <v>-13</v>
+        <v>-12.03125</v>
       </c>
       <c r="K97" s="1">
         <f t="shared" si="32"/>
@@ -5850,23 +5850,23 @@
       </c>
       <c r="L97" s="1">
         <f t="shared" si="32"/>
-        <v>-7.7023062297577418</v>
+        <v>-8.046875</v>
       </c>
       <c r="M97" s="1">
         <f t="shared" si="32"/>
-        <v>-2.9087953119831842</v>
+        <v>3.9063000000000001E-2</v>
       </c>
       <c r="N97" s="1">
         <f t="shared" si="32"/>
-        <v>-3.8082950695308222</v>
+        <v>3.9063000000000001E-2</v>
       </c>
       <c r="O97" s="1">
         <f t="shared" si="32"/>
-        <v>-4.6117077911754567</v>
+        <v>-0.71319265349401739</v>
       </c>
       <c r="P97" s="1">
         <f t="shared" si="32"/>
-        <v>-5.5859379999999996</v>
+        <v>-2.3984895058277407</v>
       </c>
       <c r="Q97" s="1">
         <f t="shared" si="32"/>
@@ -5876,346 +5876,346 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98">
         <f t="shared" si="31"/>
         <v>650</v>
       </c>
       <c r="B98" s="1">
         <f t="shared" ref="B98:Q115" si="33">IF(ABS(B75)&gt;=$T$97,B51,(B75+$T$97)*(B5-B28)/($T$97*2)+B28)</f>
-        <v>-4</v>
+        <v>-3.9453130000000001</v>
       </c>
       <c r="C98" s="1">
         <f t="shared" si="33"/>
-        <v>-4</v>
+        <v>-4.53125</v>
       </c>
       <c r="D98" s="1">
         <f t="shared" si="33"/>
-        <v>-4</v>
+        <v>-4.53125</v>
       </c>
       <c r="E98" s="1">
         <f t="shared" si="33"/>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F98" s="1">
         <f t="shared" si="33"/>
-        <v>-8.5</v>
+        <v>-8.515625</v>
       </c>
       <c r="G98" s="1">
         <f t="shared" si="33"/>
-        <v>-13</v>
+        <v>-9.921875</v>
       </c>
       <c r="H98" s="1">
         <f t="shared" si="33"/>
-        <v>-13</v>
+        <v>-11.09375</v>
       </c>
       <c r="I98" s="1">
         <f t="shared" si="33"/>
-        <v>-13</v>
+        <v>-11.445313000000001</v>
       </c>
       <c r="J98" s="1">
         <f t="shared" si="33"/>
-        <v>-13</v>
+        <v>-12.265625</v>
       </c>
       <c r="K98" s="1">
         <f t="shared" si="33"/>
-        <v>-13</v>
+        <v>-12.734375</v>
       </c>
       <c r="L98" s="1">
         <f t="shared" si="33"/>
-        <v>-11.606465214773298</v>
+        <v>-12.734375</v>
       </c>
       <c r="M98" s="1">
         <f t="shared" si="33"/>
-        <v>-9.4056694795602773</v>
+        <v>-12.734375</v>
       </c>
       <c r="N98" s="1">
         <f t="shared" si="33"/>
-        <v>-8.1795761155419164</v>
+        <v>-12.710452574982041</v>
       </c>
       <c r="O98" s="1">
         <f t="shared" si="33"/>
-        <v>-6.9901217136942311</v>
+        <v>-11.63793721435137</v>
       </c>
       <c r="P98" s="1">
         <f t="shared" si="33"/>
-        <v>-5.3515629999999996</v>
+        <v>-9.3505434509590852</v>
       </c>
       <c r="Q98" s="1">
         <f t="shared" si="33"/>
         <v>-3.9453130000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99">
         <f t="shared" si="31"/>
         <v>800</v>
       </c>
       <c r="B99" s="1">
         <f t="shared" si="33"/>
-        <v>-4</v>
+        <v>-3.9453130000000001</v>
       </c>
       <c r="C99" s="1">
         <f t="shared" si="33"/>
-        <v>-4</v>
+        <v>-3.9453130000000001</v>
       </c>
       <c r="D99" s="1">
         <f t="shared" si="33"/>
-        <v>-4</v>
+        <v>-3.9453130000000001</v>
       </c>
       <c r="E99" s="1">
         <f t="shared" si="33"/>
-        <v>-4</v>
+        <v>-3.9453130000000001</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" si="33"/>
-        <v>-8.5</v>
+        <v>-6.9921879999999996</v>
       </c>
       <c r="G99" s="1">
         <f t="shared" si="33"/>
-        <v>-13</v>
+        <v>-10.039063000000001</v>
       </c>
       <c r="H99" s="1">
         <f t="shared" si="33"/>
-        <v>-13</v>
+        <v>-10.742188000000001</v>
       </c>
       <c r="I99" s="1">
         <f t="shared" si="33"/>
-        <v>-13</v>
+        <v>-11.445313000000001</v>
       </c>
       <c r="J99" s="1">
         <f t="shared" si="33"/>
-        <v>-13</v>
+        <v>-12.265625</v>
       </c>
       <c r="K99" s="1">
         <f t="shared" si="33"/>
-        <v>-13</v>
+        <v>-12.734375</v>
       </c>
       <c r="L99" s="1">
         <f t="shared" si="33"/>
-        <v>-10.653091103101472</v>
+        <v>-12.734375</v>
       </c>
       <c r="M99" s="1">
         <f t="shared" si="33"/>
-        <v>-8.114381148005382</v>
+        <v>-12.734375</v>
       </c>
       <c r="N99" s="1">
         <f t="shared" si="33"/>
-        <v>-6.6909125362442445</v>
+        <v>-11.681217264847296</v>
       </c>
       <c r="O99" s="1">
         <f t="shared" si="33"/>
-        <v>-5.3158009795166823</v>
+        <v>-10.418298722266812</v>
       </c>
       <c r="P99" s="1">
         <f t="shared" si="33"/>
-        <v>-4.1796879999999996</v>
+        <v>-7.7442399086248379</v>
       </c>
       <c r="Q99" s="1">
         <f t="shared" si="33"/>
         <v>-2.1875</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100">
         <f t="shared" si="31"/>
         <v>1000</v>
       </c>
       <c r="B100" s="1">
         <f t="shared" si="33"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="C100" s="1">
         <f t="shared" si="33"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D100" s="1">
         <f t="shared" si="33"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E100" s="1">
         <f t="shared" si="33"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" si="33"/>
-        <v>-8.5</v>
+        <v>-3.9453130000000001</v>
       </c>
       <c r="G100" s="1">
         <f t="shared" si="33"/>
-        <v>-13</v>
+        <v>-8.984375</v>
       </c>
       <c r="H100" s="1">
         <f t="shared" si="33"/>
-        <v>-13</v>
+        <v>-9.921875</v>
       </c>
       <c r="I100" s="1">
         <f t="shared" si="33"/>
-        <v>-13</v>
+        <v>-10.039063000000001</v>
       </c>
       <c r="J100" s="1">
         <f t="shared" si="33"/>
-        <v>-13</v>
+        <v>-10.15625</v>
       </c>
       <c r="K100" s="1">
         <f t="shared" si="33"/>
-        <v>-13</v>
+        <v>-10.390625</v>
       </c>
       <c r="L100" s="1">
         <f t="shared" si="33"/>
-        <v>-9.1212064436367761</v>
+        <v>-10.625</v>
       </c>
       <c r="M100" s="1">
         <f t="shared" si="33"/>
-        <v>-6.1123109064990366</v>
+        <v>-9.7134815513152262</v>
       </c>
       <c r="N100" s="1">
         <f t="shared" si="33"/>
-        <v>-4.3314396206576902</v>
+        <v>-8.5083669092365657</v>
       </c>
       <c r="O100" s="1">
         <f t="shared" si="33"/>
-        <v>-2.7734380000000001</v>
+        <v>-7.2610712802909614</v>
       </c>
       <c r="P100" s="1">
         <f t="shared" si="33"/>
-        <v>-2.65625</v>
+        <v>-4.7659179077289693</v>
       </c>
       <c r="Q100" s="1">
         <f t="shared" si="33"/>
         <v>0.15625</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101">
         <f t="shared" si="31"/>
         <v>1200</v>
       </c>
       <c r="B101" s="1">
         <f t="shared" si="33"/>
-        <v>-1.015625</v>
+        <v>-2</v>
       </c>
       <c r="C101" s="1">
         <f t="shared" si="33"/>
-        <v>-1.484375</v>
+        <v>-2</v>
       </c>
       <c r="D101" s="1">
         <f t="shared" si="33"/>
-        <v>-2.5390630000000001</v>
+        <v>-2</v>
       </c>
       <c r="E101" s="1">
         <f t="shared" si="33"/>
-        <v>-3.59375</v>
+        <v>-2</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" si="33"/>
-        <v>-5.5341800000000001</v>
+        <v>-2</v>
       </c>
       <c r="G101" s="1">
         <f t="shared" si="33"/>
-        <v>-11.445313000000001</v>
+        <v>-5</v>
       </c>
       <c r="H101" s="1">
         <f t="shared" si="33"/>
-        <v>-12</v>
+        <v>-6.5234379999999996</v>
       </c>
       <c r="I101" s="1">
         <f t="shared" si="33"/>
-        <v>-12</v>
+        <v>-6.7578129999999996</v>
       </c>
       <c r="J101" s="1">
         <f t="shared" si="33"/>
-        <v>-12</v>
+        <v>-6.7578129999999996</v>
       </c>
       <c r="K101" s="1">
         <f t="shared" si="33"/>
-        <v>-11.514958337046012</v>
+        <v>-7.2265629999999996</v>
       </c>
       <c r="L101" s="1">
         <f t="shared" si="33"/>
-        <v>-6.8761001071846479</v>
+        <v>-7.9193134921914154</v>
       </c>
       <c r="M101" s="1">
         <f t="shared" si="33"/>
-        <v>-3.5774699987274445</v>
+        <v>-6.3478601852643202</v>
       </c>
       <c r="N101" s="1">
         <f t="shared" si="33"/>
-        <v>-1.6864885730729289</v>
+        <v>-5.2784774503313407</v>
       </c>
       <c r="O101" s="1">
         <f t="shared" si="33"/>
-        <v>-1.25</v>
+        <v>-4.2081261190040173</v>
       </c>
       <c r="P101" s="1">
         <f t="shared" si="33"/>
-        <v>-1.015625</v>
+        <v>-1.6996933690052738</v>
       </c>
       <c r="Q101" s="1">
         <f t="shared" si="33"/>
         <v>2.3828130000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102">
         <f t="shared" si="31"/>
         <v>1400</v>
       </c>
       <c r="B102" s="1">
         <f t="shared" si="33"/>
-        <v>3.4960939999999998</v>
+        <v>3.0039069999999999</v>
       </c>
       <c r="C102" s="1">
         <f t="shared" si="33"/>
-        <v>3.203125</v>
+        <v>2.9453130000000001</v>
       </c>
       <c r="D102" s="1">
         <f t="shared" si="33"/>
-        <v>2.3242189999999998</v>
+        <v>2.59375</v>
       </c>
       <c r="E102" s="1">
         <f t="shared" si="33"/>
-        <v>1.6796880000000001</v>
+        <v>2.4765630000000001</v>
       </c>
       <c r="F102" s="1">
         <f t="shared" si="33"/>
-        <v>-2.5683600000000002</v>
+        <v>-0.16015599999999999</v>
       </c>
       <c r="G102" s="1">
         <f t="shared" si="33"/>
-        <v>-6.4941409999999999</v>
+        <v>-2.5390630000000001</v>
       </c>
       <c r="H102" s="1">
         <f t="shared" si="33"/>
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="I102" s="1">
         <f t="shared" si="33"/>
-        <v>-10</v>
+        <v>-4.6484379999999996</v>
       </c>
       <c r="J102" s="1">
         <f t="shared" si="33"/>
-        <v>-10</v>
+        <v>-4.6484379999999996</v>
       </c>
       <c r="K102" s="1">
         <f t="shared" si="33"/>
-        <v>-8.5398471976248249</v>
+        <v>-4.6484379999999996</v>
       </c>
       <c r="L102" s="1">
         <f t="shared" si="33"/>
-        <v>-4.1155029607267188</v>
+        <v>-3.5679971683306748</v>
       </c>
       <c r="M102" s="1">
         <f t="shared" si="33"/>
-        <v>-0.84733556182791536</v>
+        <v>-2.2587712928089339</v>
       </c>
       <c r="N102" s="1">
         <f t="shared" si="33"/>
-        <v>3.9063000000000001E-2</v>
+        <v>-1.5725378913163022</v>
       </c>
       <c r="O102" s="1">
         <f t="shared" si="33"/>
-        <v>0.15625</v>
+        <v>-0.83103148541185523</v>
       </c>
       <c r="P102" s="1">
         <f t="shared" si="33"/>
@@ -6226,14 +6226,14 @@
         <v>4.4921879999999996</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103">
         <f t="shared" si="31"/>
         <v>1550</v>
       </c>
       <c r="B103" s="1">
         <f t="shared" si="33"/>
-        <v>6.6</v>
+        <v>8.0078130000000005</v>
       </c>
       <c r="C103" s="1">
         <f t="shared" si="33"/>
@@ -6249,43 +6249,43 @@
       </c>
       <c r="F103" s="1">
         <f t="shared" si="33"/>
-        <v>3.0273439999999998</v>
+        <v>1.6796880000000001</v>
       </c>
       <c r="G103" s="1">
         <f t="shared" si="33"/>
-        <v>-1.542969</v>
+        <v>-0.3125</v>
       </c>
       <c r="H103" s="1">
         <f t="shared" si="33"/>
-        <v>-10</v>
+        <v>-3.0078130000000001</v>
       </c>
       <c r="I103" s="1">
         <f t="shared" si="33"/>
-        <v>-10</v>
+        <v>-4.765625</v>
       </c>
       <c r="J103" s="1">
         <f t="shared" si="33"/>
-        <v>-10</v>
+        <v>-4.6484379999999996</v>
       </c>
       <c r="K103" s="1">
         <f t="shared" si="33"/>
-        <v>-7.5214455307596442</v>
+        <v>-4.4140629999999996</v>
       </c>
       <c r="L103" s="1">
         <f t="shared" si="33"/>
-        <v>-2.4895922069520191</v>
+        <v>-3.2670297916296853</v>
       </c>
       <c r="M103" s="1">
         <f t="shared" si="33"/>
-        <v>0.97656299999999996</v>
+        <v>-1.6446144862847416</v>
       </c>
       <c r="N103" s="1">
         <f t="shared" si="33"/>
-        <v>1.09375</v>
+        <v>-0.23612713063342139</v>
       </c>
       <c r="O103" s="1">
         <f t="shared" si="33"/>
-        <v>1.328125</v>
+        <v>0.78405996146484225</v>
       </c>
       <c r="P103" s="1">
         <f t="shared" si="33"/>
@@ -6296,26 +6296,26 @@
         <v>6.015625</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104">
         <f t="shared" si="31"/>
         <v>1700</v>
       </c>
       <c r="B104" s="1">
         <f t="shared" si="33"/>
-        <v>6.7</v>
+        <v>8.0078130000000005</v>
       </c>
       <c r="C104" s="1">
         <f t="shared" si="33"/>
-        <v>8.3000000000000007</v>
+        <v>7.890625</v>
       </c>
       <c r="D104" s="1">
         <f t="shared" si="33"/>
-        <v>8.6999999999999993</v>
+        <v>8.4765630000000005</v>
       </c>
       <c r="E104" s="1">
         <f t="shared" si="33"/>
-        <v>9</v>
+        <v>8.9453130000000005</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" si="33"/>
@@ -6327,31 +6327,31 @@
       </c>
       <c r="H104" s="1">
         <f t="shared" si="33"/>
-        <v>-10</v>
+        <v>-1.484375</v>
       </c>
       <c r="I104" s="1">
         <f t="shared" si="33"/>
-        <v>-10</v>
+        <v>-4.296875</v>
       </c>
       <c r="J104" s="1">
         <f t="shared" si="33"/>
-        <v>-9.7176955502246987</v>
+        <v>-4.8828129999999996</v>
       </c>
       <c r="K104" s="1">
         <f t="shared" si="33"/>
-        <v>-6.3638963018317831</v>
+        <v>-5.46875</v>
       </c>
       <c r="L104" s="1">
         <f t="shared" si="33"/>
-        <v>-0.8513849593270626</v>
+        <v>-3.0725658825413955</v>
       </c>
       <c r="M104" s="1">
         <f t="shared" si="33"/>
-        <v>2.03125</v>
+        <v>-0.54363649825690796</v>
       </c>
       <c r="N104" s="1">
         <f t="shared" si="33"/>
-        <v>2.1484380000000001</v>
+        <v>1.1499600492240099</v>
       </c>
       <c r="O104" s="1">
         <f t="shared" si="33"/>
@@ -6366,62 +6366,62 @@
         <v>7.5390629999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105">
         <f t="shared" si="31"/>
         <v>1800</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" si="33"/>
-        <v>6.8</v>
+        <v>8.0078130000000005</v>
       </c>
       <c r="C105" s="1">
         <f t="shared" si="33"/>
-        <v>8.4</v>
+        <v>7.890625</v>
       </c>
       <c r="D105" s="1">
         <f t="shared" si="33"/>
-        <v>8.9</v>
+        <v>8.4765630000000005</v>
       </c>
       <c r="E105" s="1">
         <f t="shared" si="33"/>
-        <v>9.1999999999999993</v>
+        <v>8.9453130000000005</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" si="33"/>
-        <v>5.5</v>
+        <v>5.546875</v>
       </c>
       <c r="G105" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>3.9063000000000001E-2</v>
       </c>
       <c r="H105" s="1">
         <f t="shared" si="33"/>
-        <v>-10</v>
+        <v>-1.484375</v>
       </c>
       <c r="I105" s="1">
         <f t="shared" si="33"/>
-        <v>-10</v>
+        <v>-3.4765630000000001</v>
       </c>
       <c r="J105" s="1">
         <f t="shared" si="33"/>
-        <v>-9.0651304277285067</v>
+        <v>-4.6484379999999996</v>
       </c>
       <c r="K105" s="1">
         <f t="shared" si="33"/>
-        <v>-5.47403775855053</v>
+        <v>-4.9458490020142403</v>
       </c>
       <c r="L105" s="1">
         <f t="shared" si="33"/>
-        <v>0.39484748913150902</v>
+        <v>-2.1142600957482331</v>
       </c>
       <c r="M105" s="1">
         <f t="shared" si="33"/>
-        <v>2.734375</v>
+        <v>0.73512470817508069</v>
       </c>
       <c r="N105" s="1">
         <f t="shared" si="33"/>
-        <v>2.8515630000000001</v>
+        <v>2.5005863584181061</v>
       </c>
       <c r="O105" s="1">
         <f t="shared" si="33"/>
@@ -6436,58 +6436,58 @@
         <v>8.359375</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106">
         <f t="shared" si="31"/>
         <v>2000</v>
       </c>
       <c r="B106" s="1">
         <f t="shared" si="33"/>
-        <v>6.9</v>
+        <v>8.0078130000000005</v>
       </c>
       <c r="C106" s="1">
         <f t="shared" si="33"/>
-        <v>8.6</v>
+        <v>7.890625</v>
       </c>
       <c r="D106" s="1">
         <f t="shared" si="33"/>
-        <v>9.1999999999999993</v>
+        <v>8.4765630000000005</v>
       </c>
       <c r="E106" s="1">
         <f t="shared" si="33"/>
-        <v>9.5</v>
+        <v>8.9453130000000005</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" si="33"/>
-        <v>5.9</v>
+        <v>5.546875</v>
       </c>
       <c r="G106" s="1">
         <f t="shared" si="33"/>
-        <v>0.5</v>
+        <v>0.50781299999999996</v>
       </c>
       <c r="H106" s="1">
         <f t="shared" si="33"/>
-        <v>-10</v>
+        <v>3.9063000000000001E-2</v>
       </c>
       <c r="I106" s="1">
         <f t="shared" si="33"/>
-        <v>-10</v>
+        <v>-1.953125</v>
       </c>
       <c r="J106" s="1">
         <f t="shared" si="33"/>
-        <v>-7.5394048415275012</v>
+        <v>-4.4140629999999996</v>
       </c>
       <c r="K106" s="1">
         <f t="shared" si="33"/>
-        <v>-3.515625</v>
+        <v>-4.9165891571586</v>
       </c>
       <c r="L106" s="1">
         <f t="shared" si="33"/>
-        <v>3.0121059489532431</v>
+        <v>-2.1345590821298721E-2</v>
       </c>
       <c r="M106" s="1">
         <f t="shared" si="33"/>
-        <v>4.140625</v>
+        <v>3.7799248071926224</v>
       </c>
       <c r="N106" s="1">
         <f t="shared" si="33"/>
@@ -6506,54 +6506,54 @@
         <v>10.351563000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107">
         <f t="shared" si="31"/>
         <v>2200</v>
       </c>
       <c r="B107" s="1">
         <f t="shared" si="33"/>
-        <v>7</v>
+        <v>8.1189239999999998</v>
       </c>
       <c r="C107" s="1">
         <f t="shared" si="33"/>
-        <v>8.9</v>
+        <v>8.0017359999999993</v>
       </c>
       <c r="D107" s="1">
         <f t="shared" si="33"/>
-        <v>9.4</v>
+        <v>8.5876739999999998</v>
       </c>
       <c r="E107" s="1">
         <f t="shared" si="33"/>
-        <v>9.8000000000000007</v>
+        <v>9.0564239999999998</v>
       </c>
       <c r="F107" s="1">
         <f t="shared" si="33"/>
-        <v>6.2</v>
+        <v>5.6579860000000002</v>
       </c>
       <c r="G107" s="1">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0.61892400000000003</v>
       </c>
       <c r="H107" s="1">
         <f t="shared" si="33"/>
-        <v>-10</v>
+        <v>0.150174</v>
       </c>
       <c r="I107" s="1">
         <f t="shared" si="33"/>
-        <v>-9.9656865860961581</v>
+        <v>-1.842014</v>
       </c>
       <c r="J107" s="1">
         <f t="shared" si="33"/>
-        <v>-5.7236587401382071</v>
+        <v>-7.2094425315004109</v>
       </c>
       <c r="K107" s="1">
         <f t="shared" si="33"/>
-        <v>-1.267191031241877</v>
+        <v>-3.4324034214389476</v>
       </c>
       <c r="L107" s="1">
         <f t="shared" si="33"/>
-        <v>4.84375</v>
+        <v>2.7161972277881947</v>
       </c>
       <c r="M107" s="1">
         <f t="shared" si="33"/>
@@ -6576,50 +6576,50 @@
         <v>12.109375</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108">
         <f t="shared" si="31"/>
         <v>2400</v>
       </c>
       <c r="B108" s="1">
         <f t="shared" si="33"/>
-        <v>7.1</v>
+        <v>8.2300350000000009</v>
       </c>
       <c r="C108" s="1">
         <f t="shared" si="33"/>
-        <v>9.1</v>
+        <v>8.1128470000000004</v>
       </c>
       <c r="D108" s="1">
         <f t="shared" si="33"/>
-        <v>9.8000000000000007</v>
+        <v>8.6987850000000009</v>
       </c>
       <c r="E108" s="1">
         <f t="shared" si="33"/>
-        <v>10.1</v>
+        <v>9.1675350000000009</v>
       </c>
       <c r="F108" s="1">
         <f t="shared" si="33"/>
-        <v>6.5</v>
+        <v>5.7690970000000004</v>
       </c>
       <c r="G108" s="1">
         <f t="shared" si="33"/>
-        <v>1.5</v>
+        <v>0.73003499999999999</v>
       </c>
       <c r="H108" s="1">
         <f t="shared" si="33"/>
-        <v>-10</v>
+        <v>0.26128499999999999</v>
       </c>
       <c r="I108" s="1">
         <f t="shared" si="33"/>
-        <v>-8.292607141868098</v>
+        <v>-1.7309030000000001</v>
       </c>
       <c r="J108" s="1">
         <f t="shared" si="33"/>
-        <v>-3.6178916210291403</v>
+        <v>-5.9857923651995746</v>
       </c>
       <c r="K108" s="1">
         <f t="shared" si="33"/>
-        <v>1.2712630352309562</v>
+        <v>-1.1133653253666482</v>
       </c>
       <c r="L108" s="1">
         <f t="shared" si="33"/>
@@ -6646,7 +6646,7 @@
         <v>13.867188000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109">
         <f t="shared" si="31"/>
         <v>2600</v>
@@ -6657,39 +6657,39 @@
       </c>
       <c r="C109" s="1">
         <f t="shared" si="33"/>
-        <v>9.4</v>
+        <v>8.2239579999999997</v>
       </c>
       <c r="D109" s="1">
         <f t="shared" si="33"/>
-        <v>10.1</v>
+        <v>8.8098960000000002</v>
       </c>
       <c r="E109" s="1">
         <f t="shared" si="33"/>
-        <v>10.4</v>
+        <v>9.2786460000000002</v>
       </c>
       <c r="F109" s="1">
         <f t="shared" si="33"/>
-        <v>6.9</v>
+        <v>5.8802079999999997</v>
       </c>
       <c r="G109" s="1">
         <f t="shared" si="33"/>
-        <v>2.1</v>
+        <v>0.84114599999999995</v>
       </c>
       <c r="H109" s="1">
         <f t="shared" si="33"/>
-        <v>-10</v>
+        <v>0.372396</v>
       </c>
       <c r="I109" s="1">
         <f t="shared" si="33"/>
-        <v>-6.3295068724080918</v>
+        <v>-0.85702010355330938</v>
       </c>
       <c r="J109" s="1">
         <f t="shared" si="33"/>
-        <v>-1.2221042117175456</v>
+        <v>-2.7451048609654656</v>
       </c>
       <c r="K109" s="1">
         <f t="shared" si="33"/>
-        <v>4.1978801468224933</v>
+        <v>2.5776910626237495</v>
       </c>
       <c r="L109" s="1">
         <f t="shared" si="33"/>
@@ -6716,7 +6716,7 @@
         <v>15.742188000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110">
         <f t="shared" si="31"/>
         <v>2800</v>
@@ -6731,35 +6731,35 @@
       </c>
       <c r="D110" s="1">
         <f t="shared" si="33"/>
-        <v>10.5</v>
+        <v>8.9210069999999995</v>
       </c>
       <c r="E110" s="1">
         <f t="shared" si="33"/>
-        <v>10.9</v>
+        <v>9.3897569999999995</v>
       </c>
       <c r="F110" s="1">
         <f t="shared" si="33"/>
-        <v>7.2</v>
+        <v>5.9913189999999998</v>
       </c>
       <c r="G110" s="1">
         <f t="shared" si="33"/>
-        <v>2.5</v>
+        <v>0.95225700000000002</v>
       </c>
       <c r="H110" s="1">
         <f t="shared" si="33"/>
-        <v>-9.4061418133998735</v>
+        <v>0.48350700000000002</v>
       </c>
       <c r="I110" s="1">
         <f t="shared" si="33"/>
-        <v>-4.1162308866634953</v>
+        <v>0.82714938365652824</v>
       </c>
       <c r="J110" s="1">
         <f t="shared" si="33"/>
-        <v>1.4637044402995842</v>
+        <v>1.4240752952030853</v>
       </c>
       <c r="K110" s="1">
         <f t="shared" si="33"/>
-        <v>7.3295591744976045</v>
+        <v>6.3370977081819708</v>
       </c>
       <c r="L110" s="1">
         <f t="shared" si="33"/>
@@ -6786,7 +6786,7 @@
         <v>17.265625</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111">
         <f t="shared" si="31"/>
         <v>2900</v>
@@ -6805,31 +6805,31 @@
       </c>
       <c r="E111" s="1">
         <f t="shared" si="33"/>
-        <v>11.3</v>
+        <v>9.5008689999999998</v>
       </c>
       <c r="F111" s="1">
         <f t="shared" si="33"/>
-        <v>7.3</v>
+        <v>6.1024310000000002</v>
       </c>
       <c r="G111" s="1">
         <f t="shared" si="33"/>
-        <v>2.7</v>
+        <v>1.0633680000000001</v>
       </c>
       <c r="H111" s="1">
         <f t="shared" si="33"/>
-        <v>-8.4098033111272006</v>
+        <v>0.89089969484066245</v>
       </c>
       <c r="I111" s="1">
         <f t="shared" si="33"/>
-        <v>-2.9107223952578014</v>
+        <v>1.8380141900014051</v>
       </c>
       <c r="J111" s="1">
         <f t="shared" si="33"/>
-        <v>2.8742779278465589</v>
+        <v>3.3621929244466688</v>
       </c>
       <c r="K111" s="1">
         <f t="shared" si="33"/>
-        <v>8.9453130000000005</v>
+        <v>8.3193582960419388</v>
       </c>
       <c r="L111" s="1">
         <f t="shared" si="33"/>
@@ -6856,7 +6856,7 @@
         <v>18.085937999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112">
         <f t="shared" si="31"/>
         <v>3000</v>
@@ -6879,23 +6879,23 @@
       </c>
       <c r="F112" s="1">
         <f t="shared" si="33"/>
-        <v>7.5</v>
+        <v>6.2135420000000003</v>
       </c>
       <c r="G112" s="1">
         <f t="shared" si="33"/>
-        <v>2.9</v>
+        <v>1.1744790000000001</v>
       </c>
       <c r="H112" s="1">
         <f t="shared" si="33"/>
-        <v>-7.3434459268124677</v>
+        <v>1.6310390609969874</v>
       </c>
       <c r="I112" s="1">
         <f t="shared" si="33"/>
-        <v>-1.6392997098210866</v>
+        <v>2.9280053706684797</v>
       </c>
       <c r="J112" s="1">
         <f t="shared" si="33"/>
-        <v>4.4395331575334813</v>
+        <v>5.0811436892632678</v>
       </c>
       <c r="K112" s="1">
         <f t="shared" si="33"/>
@@ -6926,7 +6926,7 @@
         <v>19.023437999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113">
         <f t="shared" si="31"/>
         <v>3200</v>
@@ -6949,23 +6949,23 @@
       </c>
       <c r="F113" s="1">
         <f t="shared" si="33"/>
-        <v>7.8</v>
+        <v>6.3246529999999996</v>
       </c>
       <c r="G113" s="1">
         <f t="shared" si="33"/>
-        <v>3.3</v>
+        <v>1.2855909999999999</v>
       </c>
       <c r="H113" s="1">
         <f t="shared" si="33"/>
-        <v>-5.012989856135512</v>
+        <v>3.2701827813513384</v>
       </c>
       <c r="I113" s="1">
         <f t="shared" si="33"/>
-        <v>1.1674968311417881</v>
+        <v>5.3708518524776991</v>
       </c>
       <c r="J113" s="1">
         <f t="shared" si="33"/>
-        <v>7.7053833424586777</v>
+        <v>8.9914003069394326</v>
       </c>
       <c r="K113" s="1">
         <f t="shared" si="33"/>
@@ -6996,7 +6996,7 @@
         <v>20.78125</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114">
         <f t="shared" si="31"/>
         <v>3500</v>
@@ -7019,19 +7019,19 @@
       </c>
       <c r="F114" s="1">
         <f t="shared" si="34"/>
-        <v>8.1999999999999993</v>
+        <v>6.4357639999999998</v>
       </c>
       <c r="G114" s="1">
         <f t="shared" si="34"/>
-        <v>4.8882844353087584</v>
+        <v>3.5592030730724771</v>
       </c>
       <c r="H114" s="1">
         <f t="shared" si="34"/>
-        <v>-0.92246314329180024</v>
+        <v>6.4937551896011749</v>
       </c>
       <c r="I114" s="1">
         <f t="shared" si="34"/>
-        <v>5.9644734778966679</v>
+        <v>9.8125153715562927</v>
       </c>
       <c r="J114" s="1">
         <f t="shared" si="34"/>
@@ -7066,7 +7066,7 @@
         <v>23.945312999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115">
         <f t="shared" si="31"/>
         <v>4000</v>
@@ -7089,15 +7089,15 @@
       </c>
       <c r="F115" s="1">
         <f t="shared" si="34"/>
-        <v>9.0001317410508843</v>
+        <v>8.2014017156159085</v>
       </c>
       <c r="G115" s="1">
         <f t="shared" si="34"/>
-        <v>8.734338753658772</v>
+        <v>9.4494270300619227</v>
       </c>
       <c r="H115" s="1">
         <f t="shared" si="34"/>
-        <v>7.3613938217360371</v>
+        <v>13.915705688985664</v>
       </c>
       <c r="I115" s="1">
         <f t="shared" si="34"/>
@@ -7137,6 +7137,30 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:Q22">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:Q45">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B50:Q68">
     <cfRule type="colorScale" priority="13">
       <colorScale>
@@ -7185,30 +7209,6 @@
       <formula>$T$51</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:Q22">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:Q45">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>